--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\個人データ保存用\tora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F9E48D-1869-4DC0-B891-CBBD5458FDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20EDCC-8983-45CE-9D47-4695E35C11EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -408,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -695,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -725,7 +726,7 @@
     <col min="21" max="21" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -790,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -828,8 +829,8 @@
         <v>760</v>
       </c>
       <c r="M2" s="4">
-        <f>L2/(H2+2)</f>
-        <v>3.7623762376237622</v>
+        <f>(L2/(H2+2))/2</f>
+        <v>1.8811881188118811</v>
       </c>
       <c r="N2" s="1">
         <v>478</v>
@@ -840,18 +841,18 @@
       </c>
       <c r="P2" s="4">
         <f>IFERROR(O2/M2,"")</f>
-        <v>74.952631578947376</v>
+        <v>149.90526315789475</v>
       </c>
       <c r="Q2" s="1">
         <v>400</v>
       </c>
       <c r="R2" s="4">
         <f>IFERROR(Q2/P2,"")</f>
-        <v>5.3367038831542724</v>
+        <v>2.6683519415771362</v>
       </c>
       <c r="S2" s="4">
         <f>IFERROR(R2-M2,"")</f>
-        <v>1.5743276455305102</v>
+        <v>0.78716382276525509</v>
       </c>
       <c r="T2" s="1">
         <v>22.5</v>
@@ -861,7 +862,7 @@
         <v>12960</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
@@ -899,40 +900,40 @@
         <v>735</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M26" si="1">L3/(H3+2)</f>
-        <v>3.6386138613861387</v>
+        <f>(L3/(H3+2))/2</f>
+        <v>1.8193069306930694</v>
       </c>
       <c r="N3" s="1">
         <v>570</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O16" si="2">L3-N3</f>
+        <f t="shared" ref="O3:O16" si="1">L3-N3</f>
         <v>165</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P26" si="3">IFERROR(O3/M3,"")</f>
-        <v>45.346938775510203</v>
+        <f t="shared" ref="P3:P26" si="2">IFERROR(O3/M3,"")</f>
+        <v>90.693877551020407</v>
       </c>
       <c r="Q3" s="1">
         <v>260</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R16" si="4">IFERROR(Q3/P3,"")</f>
-        <v>5.7335733573357333</v>
+        <f t="shared" ref="R3:R16" si="3">IFERROR(Q3/P3,"")</f>
+        <v>2.8667866786678666</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S16" si="5">IFERROR(R3-M3,"")</f>
-        <v>2.0949594959495945</v>
+        <f t="shared" ref="S3:S16" si="4">IFERROR(R3-M3,"")</f>
+        <v>1.0474797479747973</v>
       </c>
       <c r="T3" s="1">
         <v>19</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" ref="U3:U26" si="6">32*18*T3</f>
+        <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
         <v>10944</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -970,40 +971,40 @@
         <v>369</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3:M26" si="6">L4/(H4+2)</f>
         <v>1.8267326732673268</v>
       </c>
       <c r="N4" s="1">
         <v>202</v>
       </c>
       <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="3"/>
         <v>91.420054200541998</v>
       </c>
       <c r="Q4" s="1">
         <v>270</v>
       </c>
       <c r="R4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9534001304322053</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="4"/>
-        <v>2.9534001304322053</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="5"/>
         <v>1.1266674571648785</v>
       </c>
       <c r="T4" s="1">
         <v>23.5</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13536</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -1041,40 +1042,40 @@
         <v>368</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8217821782178218</v>
       </c>
       <c r="N5" s="1">
         <v>80</v>
       </c>
       <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="3"/>
         <v>158.08695652173913</v>
       </c>
       <c r="Q5" s="1">
         <v>440</v>
       </c>
       <c r="R5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7832783278327833</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="4"/>
-        <v>2.7832783278327833</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="5"/>
         <v>0.96149614961496144</v>
       </c>
       <c r="T5" s="1">
         <v>30.5</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17568</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -1112,40 +1113,41 @@
         <v>369</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8267326732673268</v>
       </c>
       <c r="N6" s="1">
         <v>231</v>
       </c>
       <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="3"/>
         <v>75.544715447154474</v>
       </c>
       <c r="Q6" s="1">
         <v>210</v>
       </c>
       <c r="R6" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7798105897546277</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>2.7798105897546277</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="5"/>
         <v>0.95307791648730089</v>
       </c>
       <c r="T6" s="1">
         <v>21</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12096</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -1183,40 +1185,40 @@
         <v>441</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N7" s="1">
         <v>266</v>
       </c>
       <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="3"/>
         <v>80.158730158730151</v>
       </c>
       <c r="Q7" s="1">
         <v>300</v>
       </c>
       <c r="R7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7425742574257428</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="4"/>
-        <v>3.7425742574257428</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="5"/>
         <v>1.5594059405940595</v>
       </c>
       <c r="T7" s="1">
         <v>17.5</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -1254,40 +1256,40 @@
         <v>221</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0940594059405941</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>221</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="3"/>
         <v>201.99999999999997</v>
       </c>
       <c r="Q8" s="1">
         <v>360</v>
       </c>
       <c r="R8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7821782178217824</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="4"/>
-        <v>1.7821782178217824</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="5"/>
         <v>0.68811881188118829</v>
       </c>
       <c r="T8" s="1">
         <v>22.5</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12960</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -1325,40 +1327,40 @@
         <v>441</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N9" s="1">
         <v>257</v>
       </c>
       <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="3"/>
         <v>84.281179138321988</v>
       </c>
       <c r="Q9" s="1">
         <v>350</v>
       </c>
       <c r="R9" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1527658200602673</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>4.1527658200602673</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="5"/>
         <v>1.969597503228584</v>
       </c>
       <c r="T9" s="1">
         <v>16</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -1396,40 +1398,40 @@
         <v>441</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N10" s="1">
         <v>282</v>
       </c>
       <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="3"/>
         <v>72.829931972789112</v>
       </c>
       <c r="Q10" s="1">
         <v>300</v>
       </c>
       <c r="R10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1191855034560065</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>4.1191855034560065</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="5"/>
         <v>1.9360171866243232</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11520</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -1467,40 +1469,41 @@
         <v>451</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.2326732673267329</v>
       </c>
       <c r="N11" s="1">
         <v>154</v>
       </c>
       <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>297</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="3"/>
         <v>133.02439024390242</v>
       </c>
       <c r="Q11" s="1">
         <v>510</v>
       </c>
       <c r="R11" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8338833883388346</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>3.8338833883388346</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="5"/>
         <v>1.6012101210121017</v>
       </c>
       <c r="T11" s="1">
         <v>27.5</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15840</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -1538,40 +1541,40 @@
         <v>415</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0544554455445545</v>
       </c>
       <c r="N12" s="1">
         <v>273</v>
       </c>
       <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="3"/>
         <v>69.118072289156629</v>
       </c>
       <c r="Q12" s="1">
         <v>229</v>
       </c>
       <c r="R12" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3131711058429785</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="4"/>
-        <v>3.3131711058429785</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="5"/>
         <v>1.258715660298424</v>
       </c>
       <c r="T12" s="1">
         <v>21.5</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12384</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1609,40 +1612,40 @@
         <v>419</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0742574257425743</v>
       </c>
       <c r="N13" s="1">
         <v>207</v>
       </c>
       <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>212</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="3"/>
         <v>102.20525059665871</v>
       </c>
       <c r="Q13" s="1">
         <v>329</v>
       </c>
       <c r="R13" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2190127031571079</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="4"/>
-        <v>3.2190127031571079</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
         <v>1.1447552774145335</v>
       </c>
       <c r="T13" s="1">
         <v>21.25</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12240</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>2025</v>
       </c>
@@ -1680,40 +1683,40 @@
         <v>413</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N14" s="1">
         <v>114</v>
       </c>
       <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="3"/>
         <v>146.24213075060533</v>
       </c>
       <c r="Q14" s="1">
         <v>508</v>
       </c>
       <c r="R14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4736911818272129</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="4"/>
-        <v>3.4736911818272129</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="5"/>
         <v>1.4291367263816683</v>
       </c>
       <c r="T14" s="1">
         <v>25.65</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14774.4</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>2025</v>
       </c>
@@ -1751,40 +1754,40 @@
         <v>413</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N15" s="1">
         <v>241</v>
       </c>
       <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="3"/>
         <v>84.125907990314772</v>
       </c>
       <c r="Q15" s="1">
         <v>300</v>
       </c>
       <c r="R15" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5660833525212987</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="4"/>
-        <v>3.5660833525212987</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="5"/>
         <v>1.5215288970757541</v>
       </c>
       <c r="T15" s="1">
         <v>15.75</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9072</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
@@ -1822,38 +1825,39 @@
         <v>412</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0396039603960396</v>
       </c>
       <c r="N16" s="1">
         <v>251</v>
       </c>
       <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="3"/>
         <v>78.9368932038835</v>
       </c>
       <c r="Q16" s="1">
         <v>294</v>
       </c>
       <c r="R16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7244941885492895</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="4"/>
-        <v>3.7244941885492895</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="5"/>
         <v>1.6848902281532498</v>
       </c>
       <c r="T16" s="1">
         <v>8.75</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5040</v>
       </c>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="2">
@@ -1891,7 +1895,7 @@
         <v>323</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0695364238410596</v>
       </c>
       <c r="N17" s="1">
@@ -1902,7 +1906,7 @@
         <v>154</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>143.9876160990712</v>
       </c>
       <c r="Q17" s="1">
@@ -1920,7 +1924,7 @@
         <v>18.25</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10512</v>
       </c>
     </row>
@@ -1960,7 +1964,7 @@
         <v>327</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0827814569536425</v>
       </c>
       <c r="N18" s="1">
@@ -1971,7 +1975,7 @@
         <v>202</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>186.55657492354737</v>
       </c>
       <c r="Q18" s="1">
@@ -1989,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
@@ -2027,7 +2031,7 @@
         <v>326</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0794701986754967</v>
       </c>
       <c r="N19" s="1">
@@ -2038,7 +2042,7 @@
         <v>213</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>197.31901840490798</v>
       </c>
       <c r="Q19" s="1">
@@ -2056,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
@@ -2094,7 +2098,7 @@
         <v>324</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0728476821192052</v>
       </c>
       <c r="N20" s="1"/>
@@ -2103,7 +2107,7 @@
         <v>324</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>302</v>
       </c>
       <c r="Q20" s="1"/>
@@ -2117,7 +2121,7 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2153,7 +2157,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N21" s="1"/>
@@ -2162,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q21" s="1"/>
@@ -2176,7 +2180,7 @@
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2212,7 +2216,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N22" s="1"/>
@@ -2221,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q22" s="1"/>
@@ -2235,7 +2239,7 @@
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2271,7 +2275,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23" s="1"/>
@@ -2280,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q23" s="1"/>
@@ -2294,7 +2298,7 @@
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2334,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="1"/>
@@ -2339,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q24" s="1"/>
@@ -2353,7 +2357,7 @@
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2393,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N25" s="1"/>
@@ -2398,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q25" s="1"/>
@@ -2412,7 +2416,7 @@
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2451,7 +2455,7 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N26" s="1"/>
@@ -2460,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q26" s="1"/>
@@ -2474,7 +2478,7 @@
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20EDCC-8983-45CE-9D47-4695E35C11EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11753B0-464F-464E-A571-3F707AD9D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -408,7 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -696,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -726,7 +725,7 @@
     <col min="21" max="21" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -829,8 +828,8 @@
         <v>760</v>
       </c>
       <c r="M2" s="4">
-        <f>(L2/(H2+2))/2</f>
-        <v>1.8811881188118811</v>
+        <f>L2/(H2+2)</f>
+        <v>3.7623762376237622</v>
       </c>
       <c r="N2" s="1">
         <v>478</v>
@@ -841,18 +840,18 @@
       </c>
       <c r="P2" s="4">
         <f>IFERROR(O2/M2,"")</f>
-        <v>149.90526315789475</v>
+        <v>74.952631578947376</v>
       </c>
       <c r="Q2" s="1">
         <v>400</v>
       </c>
       <c r="R2" s="4">
         <f>IFERROR(Q2/P2,"")</f>
-        <v>2.6683519415771362</v>
+        <v>5.3367038831542724</v>
       </c>
       <c r="S2" s="4">
         <f>IFERROR(R2-M2,"")</f>
-        <v>0.78716382276525509</v>
+        <v>1.5743276455305102</v>
       </c>
       <c r="T2" s="1">
         <v>22.5</v>
@@ -862,7 +861,7 @@
         <v>12960</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
@@ -900,40 +899,40 @@
         <v>735</v>
       </c>
       <c r="M3" s="4">
-        <f>(L3/(H3+2))/2</f>
-        <v>1.8193069306930694</v>
+        <f t="shared" ref="M3:M26" si="1">L3/(H3+2)</f>
+        <v>3.6386138613861387</v>
       </c>
       <c r="N3" s="1">
         <v>570</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O16" si="1">L3-N3</f>
+        <f t="shared" ref="O3:O16" si="2">L3-N3</f>
         <v>165</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P26" si="2">IFERROR(O3/M3,"")</f>
-        <v>90.693877551020407</v>
+        <f t="shared" ref="P3:P26" si="3">IFERROR(O3/M3,"")</f>
+        <v>45.346938775510203</v>
       </c>
       <c r="Q3" s="1">
         <v>260</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R16" si="3">IFERROR(Q3/P3,"")</f>
-        <v>2.8667866786678666</v>
+        <f t="shared" ref="R3:R16" si="4">IFERROR(Q3/P3,"")</f>
+        <v>5.7335733573357333</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S16" si="4">IFERROR(R3-M3,"")</f>
-        <v>1.0474797479747973</v>
+        <f t="shared" ref="S3:S16" si="5">IFERROR(R3-M3,"")</f>
+        <v>2.0949594959495945</v>
       </c>
       <c r="T3" s="1">
         <v>19</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
+        <f t="shared" ref="U3:U26" si="6">32*18*T3</f>
         <v>10944</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -971,40 +970,40 @@
         <v>369</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M3:M26" si="6">L4/(H4+2)</f>
+        <f t="shared" si="1"/>
         <v>1.8267326732673268</v>
       </c>
       <c r="N4" s="1">
         <v>202</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.420054200541998</v>
       </c>
       <c r="Q4" s="1">
         <v>270</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9534001304322053</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1266674571648785</v>
       </c>
       <c r="T4" s="1">
         <v>23.5</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13536</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -1042,40 +1041,40 @@
         <v>368</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.8217821782178218</v>
       </c>
       <c r="N5" s="1">
         <v>80</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158.08695652173913</v>
       </c>
       <c r="Q5" s="1">
         <v>440</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7832783278327833</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96149614961496144</v>
       </c>
       <c r="T5" s="1">
         <v>30.5</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17568</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -1113,41 +1112,40 @@
         <v>369</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.8267326732673268</v>
       </c>
       <c r="N6" s="1">
         <v>231</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.544715447154474</v>
       </c>
       <c r="Q6" s="1">
         <v>210</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7798105897546277</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95307791648730089</v>
       </c>
       <c r="T6" s="1">
         <v>21</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12096</v>
       </c>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -1185,40 +1183,40 @@
         <v>441</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N7" s="1">
         <v>266</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80.158730158730151</v>
       </c>
       <c r="Q7" s="1">
         <v>300</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7425742574257428</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5594059405940595</v>
       </c>
       <c r="T7" s="1">
         <v>17.5</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -1256,40 +1254,40 @@
         <v>221</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0940594059405941</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>221</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201.99999999999997</v>
       </c>
       <c r="Q8" s="1">
         <v>360</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7821782178217824</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68811881188118829</v>
       </c>
       <c r="T8" s="1">
         <v>22.5</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12960</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -1327,40 +1325,40 @@
         <v>441</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N9" s="1">
         <v>257</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.281179138321988</v>
       </c>
       <c r="Q9" s="1">
         <v>350</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1527658200602673</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.969597503228584</v>
       </c>
       <c r="T9" s="1">
         <v>16</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -1398,40 +1396,40 @@
         <v>441</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N10" s="1">
         <v>282</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72.829931972789112</v>
       </c>
       <c r="Q10" s="1">
         <v>300</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1191855034560065</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9360171866243232</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11520</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -1469,41 +1467,40 @@
         <v>451</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.2326732673267329</v>
       </c>
       <c r="N11" s="1">
         <v>154</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.02439024390242</v>
       </c>
       <c r="Q11" s="1">
         <v>510</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8338833883388346</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6012101210121017</v>
       </c>
       <c r="T11" s="1">
         <v>27.5</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15840</v>
       </c>
-      <c r="Z11" s="9"/>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -1541,40 +1538,40 @@
         <v>415</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0544554455445545</v>
       </c>
       <c r="N12" s="1">
         <v>273</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69.118072289156629</v>
       </c>
       <c r="Q12" s="1">
         <v>229</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3131711058429785</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.258715660298424</v>
       </c>
       <c r="T12" s="1">
         <v>21.5</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12384</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1612,40 +1609,40 @@
         <v>419</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0742574257425743</v>
       </c>
       <c r="N13" s="1">
         <v>207</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102.20525059665871</v>
       </c>
       <c r="Q13" s="1">
         <v>329</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2190127031571079</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1447552774145335</v>
       </c>
       <c r="T13" s="1">
         <v>21.25</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12240</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>2025</v>
       </c>
@@ -1683,40 +1680,40 @@
         <v>413</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N14" s="1">
         <v>114</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146.24213075060533</v>
       </c>
       <c r="Q14" s="1">
         <v>508</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4736911818272129</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4291367263816683</v>
       </c>
       <c r="T14" s="1">
         <v>25.65</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14774.4</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>2025</v>
       </c>
@@ -1754,40 +1751,40 @@
         <v>413</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N15" s="1">
         <v>241</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.125907990314772</v>
       </c>
       <c r="Q15" s="1">
         <v>300</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5660833525212987</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5215288970757541</v>
       </c>
       <c r="T15" s="1">
         <v>15.75</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9072</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
@@ -1825,39 +1822,38 @@
         <v>412</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0396039603960396</v>
       </c>
       <c r="N16" s="1">
         <v>251</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.9368932038835</v>
       </c>
       <c r="Q16" s="1">
         <v>294</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7244941885492895</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6848902281532498</v>
       </c>
       <c r="T16" s="1">
         <v>8.75</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5040</v>
       </c>
-      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="2">
@@ -1895,7 +1891,7 @@
         <v>323</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0695364238410596</v>
       </c>
       <c r="N17" s="1">
@@ -1906,7 +1902,7 @@
         <v>154</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143.9876160990712</v>
       </c>
       <c r="Q17" s="1">
@@ -1924,7 +1920,7 @@
         <v>18.25</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10512</v>
       </c>
     </row>
@@ -1964,7 +1960,7 @@
         <v>327</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0827814569536425</v>
       </c>
       <c r="N18" s="1">
@@ -1975,7 +1971,7 @@
         <v>202</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186.55657492354737</v>
       </c>
       <c r="Q18" s="1">
@@ -1993,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9216</v>
       </c>
     </row>
@@ -2031,7 +2027,7 @@
         <v>326</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0794701986754967</v>
       </c>
       <c r="N19" s="1">
@@ -2042,7 +2038,7 @@
         <v>213</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>197.31901840490798</v>
       </c>
       <c r="Q19" s="1">
@@ -2060,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9216</v>
       </c>
     </row>
@@ -2098,7 +2094,7 @@
         <v>324</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0728476821192052</v>
       </c>
       <c r="N20" s="1"/>
@@ -2107,7 +2103,7 @@
         <v>324</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302</v>
       </c>
       <c r="Q20" s="1"/>
@@ -2121,7 +2117,7 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2157,7 +2153,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="1"/>
@@ -2166,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q21" s="1"/>
@@ -2180,7 +2176,7 @@
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2216,7 +2212,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="1"/>
@@ -2225,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q22" s="1"/>
@@ -2239,7 +2235,7 @@
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2275,7 +2271,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="1"/>
@@ -2284,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q23" s="1"/>
@@ -2298,7 +2294,7 @@
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2334,7 +2330,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="1"/>
@@ -2343,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q24" s="1"/>
@@ -2357,7 +2353,7 @@
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2393,7 +2389,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="1"/>
@@ -2402,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q25" s="1"/>
@@ -2416,7 +2412,7 @@
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2455,7 +2451,7 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="1"/>
@@ -2464,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q26" s="1"/>
@@ -2478,7 +2474,7 @@
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11753B0-464F-464E-A571-3F707AD9D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20EDCC-8983-45CE-9D47-4695E35C11EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -408,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -695,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -725,7 +726,7 @@
     <col min="21" max="21" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -790,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -828,8 +829,8 @@
         <v>760</v>
       </c>
       <c r="M2" s="4">
-        <f>L2/(H2+2)</f>
-        <v>3.7623762376237622</v>
+        <f>(L2/(H2+2))/2</f>
+        <v>1.8811881188118811</v>
       </c>
       <c r="N2" s="1">
         <v>478</v>
@@ -840,18 +841,18 @@
       </c>
       <c r="P2" s="4">
         <f>IFERROR(O2/M2,"")</f>
-        <v>74.952631578947376</v>
+        <v>149.90526315789475</v>
       </c>
       <c r="Q2" s="1">
         <v>400</v>
       </c>
       <c r="R2" s="4">
         <f>IFERROR(Q2/P2,"")</f>
-        <v>5.3367038831542724</v>
+        <v>2.6683519415771362</v>
       </c>
       <c r="S2" s="4">
         <f>IFERROR(R2-M2,"")</f>
-        <v>1.5743276455305102</v>
+        <v>0.78716382276525509</v>
       </c>
       <c r="T2" s="1">
         <v>22.5</v>
@@ -861,7 +862,7 @@
         <v>12960</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
@@ -899,40 +900,40 @@
         <v>735</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M26" si="1">L3/(H3+2)</f>
-        <v>3.6386138613861387</v>
+        <f>(L3/(H3+2))/2</f>
+        <v>1.8193069306930694</v>
       </c>
       <c r="N3" s="1">
         <v>570</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O16" si="2">L3-N3</f>
+        <f t="shared" ref="O3:O16" si="1">L3-N3</f>
         <v>165</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P26" si="3">IFERROR(O3/M3,"")</f>
-        <v>45.346938775510203</v>
+        <f t="shared" ref="P3:P26" si="2">IFERROR(O3/M3,"")</f>
+        <v>90.693877551020407</v>
       </c>
       <c r="Q3" s="1">
         <v>260</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R16" si="4">IFERROR(Q3/P3,"")</f>
-        <v>5.7335733573357333</v>
+        <f t="shared" ref="R3:R16" si="3">IFERROR(Q3/P3,"")</f>
+        <v>2.8667866786678666</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S16" si="5">IFERROR(R3-M3,"")</f>
-        <v>2.0949594959495945</v>
+        <f t="shared" ref="S3:S16" si="4">IFERROR(R3-M3,"")</f>
+        <v>1.0474797479747973</v>
       </c>
       <c r="T3" s="1">
         <v>19</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" ref="U3:U26" si="6">32*18*T3</f>
+        <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
         <v>10944</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -970,40 +971,40 @@
         <v>369</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3:M26" si="6">L4/(H4+2)</f>
         <v>1.8267326732673268</v>
       </c>
       <c r="N4" s="1">
         <v>202</v>
       </c>
       <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="3"/>
         <v>91.420054200541998</v>
       </c>
       <c r="Q4" s="1">
         <v>270</v>
       </c>
       <c r="R4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9534001304322053</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="4"/>
-        <v>2.9534001304322053</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="5"/>
         <v>1.1266674571648785</v>
       </c>
       <c r="T4" s="1">
         <v>23.5</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13536</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -1041,40 +1042,40 @@
         <v>368</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8217821782178218</v>
       </c>
       <c r="N5" s="1">
         <v>80</v>
       </c>
       <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="3"/>
         <v>158.08695652173913</v>
       </c>
       <c r="Q5" s="1">
         <v>440</v>
       </c>
       <c r="R5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7832783278327833</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="4"/>
-        <v>2.7832783278327833</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="5"/>
         <v>0.96149614961496144</v>
       </c>
       <c r="T5" s="1">
         <v>30.5</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17568</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -1112,40 +1113,41 @@
         <v>369</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8267326732673268</v>
       </c>
       <c r="N6" s="1">
         <v>231</v>
       </c>
       <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="3"/>
         <v>75.544715447154474</v>
       </c>
       <c r="Q6" s="1">
         <v>210</v>
       </c>
       <c r="R6" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7798105897546277</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>2.7798105897546277</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="5"/>
         <v>0.95307791648730089</v>
       </c>
       <c r="T6" s="1">
         <v>21</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12096</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -1183,40 +1185,40 @@
         <v>441</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N7" s="1">
         <v>266</v>
       </c>
       <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="3"/>
         <v>80.158730158730151</v>
       </c>
       <c r="Q7" s="1">
         <v>300</v>
       </c>
       <c r="R7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7425742574257428</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="4"/>
-        <v>3.7425742574257428</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="5"/>
         <v>1.5594059405940595</v>
       </c>
       <c r="T7" s="1">
         <v>17.5</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -1254,40 +1256,40 @@
         <v>221</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0940594059405941</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>221</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="3"/>
         <v>201.99999999999997</v>
       </c>
       <c r="Q8" s="1">
         <v>360</v>
       </c>
       <c r="R8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7821782178217824</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="4"/>
-        <v>1.7821782178217824</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="5"/>
         <v>0.68811881188118829</v>
       </c>
       <c r="T8" s="1">
         <v>22.5</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12960</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -1325,40 +1327,40 @@
         <v>441</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N9" s="1">
         <v>257</v>
       </c>
       <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="3"/>
         <v>84.281179138321988</v>
       </c>
       <c r="Q9" s="1">
         <v>350</v>
       </c>
       <c r="R9" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1527658200602673</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>4.1527658200602673</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="5"/>
         <v>1.969597503228584</v>
       </c>
       <c r="T9" s="1">
         <v>16</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -1396,40 +1398,40 @@
         <v>441</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N10" s="1">
         <v>282</v>
       </c>
       <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="3"/>
         <v>72.829931972789112</v>
       </c>
       <c r="Q10" s="1">
         <v>300</v>
       </c>
       <c r="R10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1191855034560065</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>4.1191855034560065</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="5"/>
         <v>1.9360171866243232</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11520</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -1467,40 +1469,41 @@
         <v>451</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.2326732673267329</v>
       </c>
       <c r="N11" s="1">
         <v>154</v>
       </c>
       <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>297</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="3"/>
         <v>133.02439024390242</v>
       </c>
       <c r="Q11" s="1">
         <v>510</v>
       </c>
       <c r="R11" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8338833883388346</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>3.8338833883388346</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="5"/>
         <v>1.6012101210121017</v>
       </c>
       <c r="T11" s="1">
         <v>27.5</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15840</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -1538,40 +1541,40 @@
         <v>415</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0544554455445545</v>
       </c>
       <c r="N12" s="1">
         <v>273</v>
       </c>
       <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="3"/>
         <v>69.118072289156629</v>
       </c>
       <c r="Q12" s="1">
         <v>229</v>
       </c>
       <c r="R12" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3131711058429785</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="4"/>
-        <v>3.3131711058429785</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="5"/>
         <v>1.258715660298424</v>
       </c>
       <c r="T12" s="1">
         <v>21.5</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12384</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1609,40 +1612,40 @@
         <v>419</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0742574257425743</v>
       </c>
       <c r="N13" s="1">
         <v>207</v>
       </c>
       <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>212</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="3"/>
         <v>102.20525059665871</v>
       </c>
       <c r="Q13" s="1">
         <v>329</v>
       </c>
       <c r="R13" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2190127031571079</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="4"/>
-        <v>3.2190127031571079</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
         <v>1.1447552774145335</v>
       </c>
       <c r="T13" s="1">
         <v>21.25</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12240</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>2025</v>
       </c>
@@ -1680,40 +1683,40 @@
         <v>413</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N14" s="1">
         <v>114</v>
       </c>
       <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="3"/>
         <v>146.24213075060533</v>
       </c>
       <c r="Q14" s="1">
         <v>508</v>
       </c>
       <c r="R14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4736911818272129</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="4"/>
-        <v>3.4736911818272129</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="5"/>
         <v>1.4291367263816683</v>
       </c>
       <c r="T14" s="1">
         <v>25.65</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14774.4</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>2025</v>
       </c>
@@ -1751,40 +1754,40 @@
         <v>413</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N15" s="1">
         <v>241</v>
       </c>
       <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="3"/>
         <v>84.125907990314772</v>
       </c>
       <c r="Q15" s="1">
         <v>300</v>
       </c>
       <c r="R15" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5660833525212987</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="4"/>
-        <v>3.5660833525212987</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="5"/>
         <v>1.5215288970757541</v>
       </c>
       <c r="T15" s="1">
         <v>15.75</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9072</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
@@ -1822,38 +1825,39 @@
         <v>412</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0396039603960396</v>
       </c>
       <c r="N16" s="1">
         <v>251</v>
       </c>
       <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="3"/>
         <v>78.9368932038835</v>
       </c>
       <c r="Q16" s="1">
         <v>294</v>
       </c>
       <c r="R16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7244941885492895</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="4"/>
-        <v>3.7244941885492895</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="5"/>
         <v>1.6848902281532498</v>
       </c>
       <c r="T16" s="1">
         <v>8.75</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5040</v>
       </c>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="2">
@@ -1891,7 +1895,7 @@
         <v>323</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0695364238410596</v>
       </c>
       <c r="N17" s="1">
@@ -1902,7 +1906,7 @@
         <v>154</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>143.9876160990712</v>
       </c>
       <c r="Q17" s="1">
@@ -1920,7 +1924,7 @@
         <v>18.25</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10512</v>
       </c>
     </row>
@@ -1960,7 +1964,7 @@
         <v>327</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0827814569536425</v>
       </c>
       <c r="N18" s="1">
@@ -1971,7 +1975,7 @@
         <v>202</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>186.55657492354737</v>
       </c>
       <c r="Q18" s="1">
@@ -1989,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
@@ -2027,7 +2031,7 @@
         <v>326</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0794701986754967</v>
       </c>
       <c r="N19" s="1">
@@ -2038,7 +2042,7 @@
         <v>213</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>197.31901840490798</v>
       </c>
       <c r="Q19" s="1">
@@ -2056,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
@@ -2094,7 +2098,7 @@
         <v>324</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0728476821192052</v>
       </c>
       <c r="N20" s="1"/>
@@ -2103,7 +2107,7 @@
         <v>324</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>302</v>
       </c>
       <c r="Q20" s="1"/>
@@ -2117,7 +2121,7 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2153,7 +2157,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N21" s="1"/>
@@ -2162,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q21" s="1"/>
@@ -2176,7 +2180,7 @@
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2212,7 +2216,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N22" s="1"/>
@@ -2221,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q22" s="1"/>
@@ -2235,7 +2239,7 @@
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2271,7 +2275,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23" s="1"/>
@@ -2280,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q23" s="1"/>
@@ -2294,7 +2298,7 @@
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2334,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="1"/>
@@ -2339,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q24" s="1"/>
@@ -2353,7 +2357,7 @@
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2393,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N25" s="1"/>
@@ -2398,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q25" s="1"/>
@@ -2412,7 +2416,7 @@
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2451,7 +2455,7 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N26" s="1"/>
@@ -2460,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q26" s="1"/>
@@ -2474,7 +2478,7 @@
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20EDCC-8983-45CE-9D47-4695E35C11EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C6132-09B4-4ABA-8BE2-DA2DC908A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -408,7 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -696,37 +695,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.9140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -829,8 +828,8 @@
         <v>760</v>
       </c>
       <c r="M2" s="4">
-        <f>(L2/(H2+2))/2</f>
-        <v>1.8811881188118811</v>
+        <f>L2/(H2+2)</f>
+        <v>3.7623762376237622</v>
       </c>
       <c r="N2" s="1">
         <v>478</v>
@@ -841,18 +840,18 @@
       </c>
       <c r="P2" s="4">
         <f>IFERROR(O2/M2,"")</f>
-        <v>149.90526315789475</v>
+        <v>74.952631578947376</v>
       </c>
       <c r="Q2" s="1">
         <v>400</v>
       </c>
       <c r="R2" s="4">
         <f>IFERROR(Q2/P2,"")</f>
-        <v>2.6683519415771362</v>
+        <v>5.3367038831542724</v>
       </c>
       <c r="S2" s="4">
         <f>IFERROR(R2-M2,"")</f>
-        <v>0.78716382276525509</v>
+        <v>1.5743276455305102</v>
       </c>
       <c r="T2" s="1">
         <v>22.5</v>
@@ -862,7 +861,7 @@
         <v>12960</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
@@ -900,40 +899,40 @@
         <v>735</v>
       </c>
       <c r="M3" s="4">
-        <f>(L3/(H3+2))/2</f>
-        <v>1.8193069306930694</v>
+        <f t="shared" ref="M3:M26" si="1">L3/(H3+2)</f>
+        <v>3.6386138613861387</v>
       </c>
       <c r="N3" s="1">
         <v>570</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O16" si="1">L3-N3</f>
+        <f t="shared" ref="O3:O16" si="2">L3-N3</f>
         <v>165</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P26" si="2">IFERROR(O3/M3,"")</f>
-        <v>90.693877551020407</v>
+        <f t="shared" ref="P3:P26" si="3">IFERROR(O3/M3,"")</f>
+        <v>45.346938775510203</v>
       </c>
       <c r="Q3" s="1">
         <v>260</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R16" si="3">IFERROR(Q3/P3,"")</f>
-        <v>2.8667866786678666</v>
+        <f t="shared" ref="R3:R16" si="4">IFERROR(Q3/P3,"")</f>
+        <v>5.7335733573357333</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S16" si="4">IFERROR(R3-M3,"")</f>
-        <v>1.0474797479747973</v>
+        <f t="shared" ref="S3:S16" si="5">IFERROR(R3-M3,"")</f>
+        <v>2.0949594959495945</v>
       </c>
       <c r="T3" s="1">
         <v>19</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
+        <f t="shared" ref="U3:U26" si="6">32*18*T3</f>
         <v>10944</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -971,40 +970,40 @@
         <v>369</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M3:M26" si="6">L4/(H4+2)</f>
+        <f t="shared" si="1"/>
         <v>1.8267326732673268</v>
       </c>
       <c r="N4" s="1">
         <v>202</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.420054200541998</v>
       </c>
       <c r="Q4" s="1">
         <v>270</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9534001304322053</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1266674571648785</v>
       </c>
       <c r="T4" s="1">
         <v>23.5</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13536</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -1042,40 +1041,40 @@
         <v>368</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.8217821782178218</v>
       </c>
       <c r="N5" s="1">
         <v>80</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158.08695652173913</v>
       </c>
       <c r="Q5" s="1">
         <v>440</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7832783278327833</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96149614961496144</v>
       </c>
       <c r="T5" s="1">
         <v>30.5</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17568</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -1113,41 +1112,40 @@
         <v>369</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.8267326732673268</v>
       </c>
       <c r="N6" s="1">
         <v>231</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.544715447154474</v>
       </c>
       <c r="Q6" s="1">
         <v>210</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7798105897546277</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95307791648730089</v>
       </c>
       <c r="T6" s="1">
         <v>21</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12096</v>
       </c>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -1185,40 +1183,40 @@
         <v>441</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N7" s="1">
         <v>266</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80.158730158730151</v>
       </c>
       <c r="Q7" s="1">
         <v>300</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7425742574257428</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5594059405940595</v>
       </c>
       <c r="T7" s="1">
         <v>17.5</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -1256,40 +1254,40 @@
         <v>221</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0940594059405941</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>221</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201.99999999999997</v>
       </c>
       <c r="Q8" s="1">
         <v>360</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7821782178217824</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68811881188118829</v>
       </c>
       <c r="T8" s="1">
         <v>22.5</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12960</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -1327,40 +1325,40 @@
         <v>441</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N9" s="1">
         <v>257</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.281179138321988</v>
       </c>
       <c r="Q9" s="1">
         <v>350</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1527658200602673</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.969597503228584</v>
       </c>
       <c r="T9" s="1">
         <v>16</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -1398,40 +1396,40 @@
         <v>441</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N10" s="1">
         <v>282</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72.829931972789112</v>
       </c>
       <c r="Q10" s="1">
         <v>300</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1191855034560065</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9360171866243232</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11520</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -1469,41 +1467,40 @@
         <v>451</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.2326732673267329</v>
       </c>
       <c r="N11" s="1">
         <v>154</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.02439024390242</v>
       </c>
       <c r="Q11" s="1">
         <v>510</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8338833883388346</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6012101210121017</v>
       </c>
       <c r="T11" s="1">
         <v>27.5</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15840</v>
       </c>
-      <c r="Z11" s="9"/>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -1541,40 +1538,40 @@
         <v>415</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0544554455445545</v>
       </c>
       <c r="N12" s="1">
         <v>273</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69.118072289156629</v>
       </c>
       <c r="Q12" s="1">
         <v>229</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3131711058429785</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.258715660298424</v>
       </c>
       <c r="T12" s="1">
         <v>21.5</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12384</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1612,40 +1609,40 @@
         <v>419</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0742574257425743</v>
       </c>
       <c r="N13" s="1">
         <v>207</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102.20525059665871</v>
       </c>
       <c r="Q13" s="1">
         <v>329</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2190127031571079</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1447552774145335</v>
       </c>
       <c r="T13" s="1">
         <v>21.25</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12240</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>2025</v>
       </c>
@@ -1683,40 +1680,40 @@
         <v>413</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N14" s="1">
         <v>114</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146.24213075060533</v>
       </c>
       <c r="Q14" s="1">
         <v>508</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4736911818272129</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4291367263816683</v>
       </c>
       <c r="T14" s="1">
         <v>25.65</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14774.4</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>2025</v>
       </c>
@@ -1754,40 +1751,40 @@
         <v>413</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N15" s="1">
         <v>241</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.125907990314772</v>
       </c>
       <c r="Q15" s="1">
         <v>300</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5660833525212987</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5215288970757541</v>
       </c>
       <c r="T15" s="1">
         <v>15.75</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9072</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
@@ -1825,39 +1822,38 @@
         <v>412</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2.0396039603960396</v>
       </c>
       <c r="N16" s="1">
         <v>251</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.9368932038835</v>
       </c>
       <c r="Q16" s="1">
         <v>294</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7244941885492895</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6848902281532498</v>
       </c>
       <c r="T16" s="1">
         <v>8.75</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5040</v>
       </c>
-      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="2">
@@ -1895,7 +1891,7 @@
         <v>323</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0695364238410596</v>
       </c>
       <c r="N17" s="1">
@@ -1906,7 +1902,7 @@
         <v>154</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143.9876160990712</v>
       </c>
       <c r="Q17" s="1">
@@ -1924,7 +1920,7 @@
         <v>18.25</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10512</v>
       </c>
     </row>
@@ -1964,7 +1960,7 @@
         <v>327</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0827814569536425</v>
       </c>
       <c r="N18" s="1">
@@ -1975,7 +1971,7 @@
         <v>202</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186.55657492354737</v>
       </c>
       <c r="Q18" s="1">
@@ -1993,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9216</v>
       </c>
     </row>
@@ -2026,12 +2022,14 @@
       <c r="J19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>17</v>
+      </c>
       <c r="L19" s="1">
         <v>326</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0794701986754967</v>
       </c>
       <c r="N19" s="1">
@@ -2042,7 +2040,7 @@
         <v>213</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>197.31901840490798</v>
       </c>
       <c r="Q19" s="1">
@@ -2060,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9216</v>
       </c>
     </row>
@@ -2098,7 +2096,7 @@
         <v>324</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.0728476821192052</v>
       </c>
       <c r="N20" s="1"/>
@@ -2107,7 +2105,7 @@
         <v>324</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302</v>
       </c>
       <c r="Q20" s="1"/>
@@ -2121,7 +2119,7 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2157,7 +2155,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="1"/>
@@ -2166,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q21" s="1"/>
@@ -2180,7 +2178,7 @@
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2216,7 +2214,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="1"/>
@@ -2225,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q22" s="1"/>
@@ -2239,7 +2237,7 @@
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2275,7 +2273,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="1"/>
@@ -2284,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q23" s="1"/>
@@ -2298,7 +2296,7 @@
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2334,7 +2332,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="1"/>
@@ -2343,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q24" s="1"/>
@@ -2357,7 +2355,7 @@
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2393,7 +2391,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="1"/>
@@ -2402,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q25" s="1"/>
@@ -2416,7 +2414,7 @@
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2449,13 +2447,10 @@
       <c r="J26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="1"/>
@@ -2464,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q26" s="1"/>
@@ -2478,7 +2473,7 @@
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\paper-towel-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C6132-09B4-4ABA-8BE2-DA2DC908A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28251DAB-AC0E-43C5-8DCC-08C0718E4F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,8 +698,8 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -828,8 +828,7 @@
         <v>760</v>
       </c>
       <c r="M2" s="4">
-        <f>L2/(H2+2)</f>
-        <v>3.7623762376237622</v>
+        <v>1.88</v>
       </c>
       <c r="N2" s="1">
         <v>478</v>
@@ -840,18 +839,18 @@
       </c>
       <c r="P2" s="4">
         <f>IFERROR(O2/M2,"")</f>
-        <v>74.952631578947376</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="1">
         <v>400</v>
       </c>
       <c r="R2" s="4">
         <f>IFERROR(Q2/P2,"")</f>
-        <v>5.3367038831542724</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="S2" s="4">
         <f>IFERROR(R2-M2,"")</f>
-        <v>1.5743276455305102</v>
+        <v>0.78666666666666663</v>
       </c>
       <c r="T2" s="1">
         <v>22.5</v>
@@ -899,36 +898,35 @@
         <v>735</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M26" si="1">L3/(H3+2)</f>
-        <v>3.6386138613861387</v>
+        <v>1.82</v>
       </c>
       <c r="N3" s="1">
         <v>570</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O16" si="2">L3-N3</f>
+        <f t="shared" ref="O3:O16" si="1">L3-N3</f>
         <v>165</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P26" si="3">IFERROR(O3/M3,"")</f>
-        <v>45.346938775510203</v>
+        <f t="shared" ref="P3:P26" si="2">IFERROR(O3/M3,"")</f>
+        <v>90.659340659340657</v>
       </c>
       <c r="Q3" s="1">
         <v>260</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R16" si="4">IFERROR(Q3/P3,"")</f>
-        <v>5.7335733573357333</v>
+        <f t="shared" ref="R3:R16" si="3">IFERROR(Q3/P3,"")</f>
+        <v>2.8678787878787881</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S16" si="5">IFERROR(R3-M3,"")</f>
-        <v>2.0949594959495945</v>
+        <f t="shared" ref="S3:S16" si="4">IFERROR(R3-M3,"")</f>
+        <v>1.0478787878787881</v>
       </c>
       <c r="T3" s="1">
         <v>19</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" ref="U3:U26" si="6">32*18*T3</f>
+        <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
         <v>10944</v>
       </c>
     </row>
@@ -970,36 +968,36 @@
         <v>369</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3:M26" si="6">L4/(H4+2)</f>
         <v>1.8267326732673268</v>
       </c>
       <c r="N4" s="1">
         <v>202</v>
       </c>
       <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="3"/>
         <v>91.420054200541998</v>
       </c>
       <c r="Q4" s="1">
         <v>270</v>
       </c>
       <c r="R4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9534001304322053</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="4"/>
-        <v>2.9534001304322053</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="5"/>
         <v>1.1266674571648785</v>
       </c>
       <c r="T4" s="1">
         <v>23.5</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13536</v>
       </c>
     </row>
@@ -1041,36 +1039,36 @@
         <v>368</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8217821782178218</v>
       </c>
       <c r="N5" s="1">
         <v>80</v>
       </c>
       <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="3"/>
         <v>158.08695652173913</v>
       </c>
       <c r="Q5" s="1">
         <v>440</v>
       </c>
       <c r="R5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7832783278327833</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="4"/>
-        <v>2.7832783278327833</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="5"/>
         <v>0.96149614961496144</v>
       </c>
       <c r="T5" s="1">
         <v>30.5</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17568</v>
       </c>
     </row>
@@ -1112,36 +1110,36 @@
         <v>369</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8267326732673268</v>
       </c>
       <c r="N6" s="1">
         <v>231</v>
       </c>
       <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="3"/>
         <v>75.544715447154474</v>
       </c>
       <c r="Q6" s="1">
         <v>210</v>
       </c>
       <c r="R6" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7798105897546277</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>2.7798105897546277</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="5"/>
         <v>0.95307791648730089</v>
       </c>
       <c r="T6" s="1">
         <v>21</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12096</v>
       </c>
     </row>
@@ -1183,36 +1181,36 @@
         <v>441</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N7" s="1">
         <v>266</v>
       </c>
       <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="3"/>
         <v>80.158730158730151</v>
       </c>
       <c r="Q7" s="1">
         <v>300</v>
       </c>
       <c r="R7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7425742574257428</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="4"/>
-        <v>3.7425742574257428</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="5"/>
         <v>1.5594059405940595</v>
       </c>
       <c r="T7" s="1">
         <v>17.5</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10080</v>
       </c>
     </row>
@@ -1254,36 +1252,36 @@
         <v>221</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0940594059405941</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>221</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="3"/>
         <v>201.99999999999997</v>
       </c>
       <c r="Q8" s="1">
         <v>360</v>
       </c>
       <c r="R8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7821782178217824</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="4"/>
-        <v>1.7821782178217824</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="5"/>
         <v>0.68811881188118829</v>
       </c>
       <c r="T8" s="1">
         <v>22.5</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12960</v>
       </c>
     </row>
@@ -1325,36 +1323,36 @@
         <v>441</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N9" s="1">
         <v>257</v>
       </c>
       <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="3"/>
         <v>84.281179138321988</v>
       </c>
       <c r="Q9" s="1">
         <v>350</v>
       </c>
       <c r="R9" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1527658200602673</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>4.1527658200602673</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="5"/>
         <v>1.969597503228584</v>
       </c>
       <c r="T9" s="1">
         <v>16</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
@@ -1396,36 +1394,36 @@
         <v>441</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.1831683168316833</v>
       </c>
       <c r="N10" s="1">
         <v>282</v>
       </c>
       <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="3"/>
         <v>72.829931972789112</v>
       </c>
       <c r="Q10" s="1">
         <v>300</v>
       </c>
       <c r="R10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1191855034560065</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>4.1191855034560065</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="5"/>
         <v>1.9360171866243232</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11520</v>
       </c>
     </row>
@@ -1467,36 +1465,36 @@
         <v>451</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.2326732673267329</v>
       </c>
       <c r="N11" s="1">
         <v>154</v>
       </c>
       <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>297</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="3"/>
         <v>133.02439024390242</v>
       </c>
       <c r="Q11" s="1">
         <v>510</v>
       </c>
       <c r="R11" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8338833883388346</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>3.8338833883388346</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="5"/>
         <v>1.6012101210121017</v>
       </c>
       <c r="T11" s="1">
         <v>27.5</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15840</v>
       </c>
     </row>
@@ -1538,36 +1536,36 @@
         <v>415</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0544554455445545</v>
       </c>
       <c r="N12" s="1">
         <v>273</v>
       </c>
       <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="3"/>
         <v>69.118072289156629</v>
       </c>
       <c r="Q12" s="1">
         <v>229</v>
       </c>
       <c r="R12" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3131711058429785</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="4"/>
-        <v>3.3131711058429785</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="5"/>
         <v>1.258715660298424</v>
       </c>
       <c r="T12" s="1">
         <v>21.5</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12384</v>
       </c>
     </row>
@@ -1609,36 +1607,36 @@
         <v>419</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0742574257425743</v>
       </c>
       <c r="N13" s="1">
         <v>207</v>
       </c>
       <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>212</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="3"/>
         <v>102.20525059665871</v>
       </c>
       <c r="Q13" s="1">
         <v>329</v>
       </c>
       <c r="R13" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2190127031571079</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="4"/>
-        <v>3.2190127031571079</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
         <v>1.1447552774145335</v>
       </c>
       <c r="T13" s="1">
         <v>21.25</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12240</v>
       </c>
     </row>
@@ -1680,36 +1678,36 @@
         <v>413</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N14" s="1">
         <v>114</v>
       </c>
       <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="3"/>
         <v>146.24213075060533</v>
       </c>
       <c r="Q14" s="1">
         <v>508</v>
       </c>
       <c r="R14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4736911818272129</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="4"/>
-        <v>3.4736911818272129</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="5"/>
         <v>1.4291367263816683</v>
       </c>
       <c r="T14" s="1">
         <v>25.65</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14774.4</v>
       </c>
     </row>
@@ -1751,36 +1749,36 @@
         <v>413</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0445544554455446</v>
       </c>
       <c r="N15" s="1">
         <v>241</v>
       </c>
       <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="3"/>
         <v>84.125907990314772</v>
       </c>
       <c r="Q15" s="1">
         <v>300</v>
       </c>
       <c r="R15" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5660833525212987</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="4"/>
-        <v>3.5660833525212987</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="5"/>
         <v>1.5215288970757541</v>
       </c>
       <c r="T15" s="1">
         <v>15.75</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9072</v>
       </c>
     </row>
@@ -1822,36 +1820,36 @@
         <v>412</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0396039603960396</v>
       </c>
       <c r="N16" s="1">
         <v>251</v>
       </c>
       <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="3"/>
         <v>78.9368932038835</v>
       </c>
       <c r="Q16" s="1">
         <v>294</v>
       </c>
       <c r="R16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7244941885492895</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="4"/>
-        <v>3.7244941885492895</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="5"/>
         <v>1.6848902281532498</v>
       </c>
       <c r="T16" s="1">
         <v>8.75</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5040</v>
       </c>
     </row>
@@ -1891,7 +1889,7 @@
         <v>323</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0695364238410596</v>
       </c>
       <c r="N17" s="1">
@@ -1902,7 +1900,7 @@
         <v>154</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>143.9876160990712</v>
       </c>
       <c r="Q17" s="1">
@@ -1920,7 +1918,7 @@
         <v>18.25</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10512</v>
       </c>
     </row>
@@ -1960,7 +1958,7 @@
         <v>327</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0827814569536425</v>
       </c>
       <c r="N18" s="1">
@@ -1971,7 +1969,7 @@
         <v>202</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>186.55657492354737</v>
       </c>
       <c r="Q18" s="1">
@@ -1989,7 +1987,7 @@
         <v>16</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
@@ -2029,7 +2027,7 @@
         <v>326</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0794701986754967</v>
       </c>
       <c r="N19" s="1">
@@ -2040,7 +2038,7 @@
         <v>213</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>197.31901840490798</v>
       </c>
       <c r="Q19" s="1">
@@ -2058,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9216</v>
       </c>
     </row>
@@ -2096,7 +2094,7 @@
         <v>324</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0728476821192052</v>
       </c>
       <c r="N20" s="1"/>
@@ -2105,7 +2103,7 @@
         <v>324</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>302</v>
       </c>
       <c r="Q20" s="1"/>
@@ -2119,7 +2117,7 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2155,7 +2153,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N21" s="1"/>
@@ -2164,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q21" s="1"/>
@@ -2178,7 +2176,7 @@
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2214,7 +2212,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N22" s="1"/>
@@ -2223,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q22" s="1"/>
@@ -2237,7 +2235,7 @@
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2273,7 +2271,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23" s="1"/>
@@ -2282,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q23" s="1"/>
@@ -2296,7 +2294,7 @@
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2330,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="1"/>
@@ -2341,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q24" s="1"/>
@@ -2355,7 +2353,7 @@
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2391,7 +2389,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N25" s="1"/>
@@ -2400,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q25" s="1"/>
@@ -2414,7 +2412,7 @@
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2450,7 +2448,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N26" s="1"/>
@@ -2459,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q26" s="1"/>
@@ -2473,7 +2471,7 @@
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\paper-towel-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28251DAB-AC0E-43C5-8DCC-08C0718E4F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C63049-BA98-42A7-BDBB-52C90780A481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -968,7 +968,7 @@
         <v>369</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M3:M26" si="6">L4/(H4+2)</f>
+        <f t="shared" ref="M4:M26" si="6">L4/(H4+2)</f>
         <v>1.8267326732673268</v>
       </c>
       <c r="N4" s="1">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\paper-towel-cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C63049-BA98-42A7-BDBB-52C90780A481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A017E-D6D6-4192-9E38-BCBE0DF9FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -697,32 +697,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2089,7 +2089,9 @@
       <c r="J20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>16</v>
+      </c>
       <c r="L20" s="1">
         <v>324</v>
       </c>
@@ -2097,28 +2099,34 @@
         <f t="shared" si="6"/>
         <v>1.0728476821192052</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>141</v>
+      </c>
       <c r="O20" s="5">
         <f t="shared" si="7"/>
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="2"/>
-        <v>302</v>
-      </c>
-      <c r="Q20" s="1"/>
+        <v>170.57407407407408</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>325</v>
+      </c>
       <c r="R20" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.9053305829985887</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="9"/>
-        <v>-1.0728476821192052</v>
-      </c>
-      <c r="T20" s="1"/>
+        <v>0.83248290087938348</v>
+      </c>
+      <c r="T20" s="1">
+        <v>12.1</v>
+      </c>
       <c r="U20" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6969.5999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2151,28 +2159,30 @@
         <v>29</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <v>325</v>
+      </c>
       <c r="M21" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.076158940397351</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
+        <v>325</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S21" s="4" t="str">
+      <c r="S21" s="4">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1.076158940397351</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A017E-D6D6-4192-9E38-BCBE0DF9FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCA5FC-2F31-45C8-A584-66348485C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,9 +697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2158,7 +2158,9 @@
       <c r="J21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>17</v>
+      </c>
       <c r="L21" s="1">
         <v>325</v>
       </c>
@@ -2166,28 +2168,34 @@
         <f t="shared" si="6"/>
         <v>1.076158940397351</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>156</v>
+      </c>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="2"/>
-        <v>302</v>
-      </c>
-      <c r="Q21" s="1"/>
+        <v>157.04</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>317</v>
+      </c>
       <c r="R21" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.0185939887926643</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="9"/>
-        <v>-1.076158940397351</v>
-      </c>
-      <c r="T21" s="1"/>
+        <v>0.94243504839531322</v>
+      </c>
+      <c r="T21" s="1">
+        <v>11.5</v>
+      </c>
       <c r="U21" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2220,28 +2228,30 @@
         <v>31</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <v>319</v>
+      </c>
       <c r="M22" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.5792079207920793</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="5">
         <f t="shared" si="7"/>
+        <v>319</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S22" s="4" t="str">
+      <c r="S22" s="4">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1.5792079207920793</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCA5FC-2F31-45C8-A584-66348485C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C7F596-A98A-4DE1-B69C-439BE27BBA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2227,36 +2227,44 @@
       <c r="J22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1">
+        <v>16</v>
+      </c>
       <c r="L22" s="1">
         <v>319</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="6"/>
+        <f>L22/(H22+2)</f>
         <v>1.5792079207920793</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>62</v>
+      </c>
       <c r="O22" s="5">
-        <f t="shared" si="7"/>
-        <v>319</v>
+        <f>L22-N22</f>
+        <v>257</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="Q22" s="1"/>
+        <v>162.73981191222569</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>441</v>
+      </c>
       <c r="R22" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.7098470547443854</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="9"/>
-        <v>-1.5792079207920793</v>
-      </c>
-      <c r="T22" s="1"/>
+        <v>1.1306391339523061</v>
+      </c>
+      <c r="T22" s="1">
+        <v>25</v>
+      </c>
       <c r="U22" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2289,28 +2297,30 @@
         <v>31</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1">
+        <v>331</v>
+      </c>
       <c r="M23" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6386138613861385</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
+        <v>331</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S23" s="4" t="str">
+      <c r="S23" s="4">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1.6386138613861385</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C7F596-A98A-4DE1-B69C-439BE27BBA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2BFD5E-9591-4C07-80A7-4065D6A997FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="50">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -314,6 +314,74 @@
   </si>
   <si>
     <t>35gパルプ200枚</t>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recona(ﾚｺﾅ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社オフィス司</t>
+    <rPh sb="0" eb="4">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30gパルプ200枚</t>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <rPh sb="0" eb="2">
+      <t>チュウゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>225×210</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾍﾟｰﾊﾟｰﾀｵﾙ（ｴｺﾉﾐｰﾀｲﾌﾟ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大和物産株式会社</t>
+    <rPh sb="0" eb="4">
+      <t>ダイワブッサン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26gパルプ200枚</t>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>225×220</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾍﾟｰﾊﾟｰﾀｵﾙ（ﾚｷﾞｭﾗｰﾀｲﾌﾟ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36gパルプ200枚</t>
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
@@ -695,11 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -968,7 +1038,7 @@
         <v>369</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M26" si="6">L4/(H4+2)</f>
+        <f t="shared" ref="M4:M41" si="6">L4/(H4+2)</f>
         <v>1.8267326732673268</v>
       </c>
       <c r="N4" s="1">
@@ -2296,7 +2366,9 @@
       <c r="J23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>18</v>
+      </c>
       <c r="L23" s="1">
         <v>331</v>
       </c>
@@ -2304,28 +2376,34 @@
         <f t="shared" si="6"/>
         <v>1.6386138613861385</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>126</v>
+      </c>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
-        <v>331</v>
+        <v>205</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="Q23" s="1"/>
+        <v>125.10574018126889</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>276</v>
+      </c>
       <c r="R23" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.2061337841101181</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="9"/>
-        <v>-1.6386138613861385</v>
-      </c>
-      <c r="T23" s="1"/>
+        <v>0.56751992272397955</v>
+      </c>
+      <c r="T23" s="1">
+        <v>13.7</v>
+      </c>
       <c r="U23" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7891.2</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2358,28 +2436,30 @@
         <v>31</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1">
+        <v>328</v>
+      </c>
       <c r="M24" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.6237623762376239</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="4" t="str">
+        <v>328</v>
+      </c>
+      <c r="P24" s="4">
         <f t="shared" si="2"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="4" t="str">
+      <c r="R24" s="4">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S24" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1.6237623762376239</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="5">
@@ -2502,6 +2582,891 @@
       <c r="T26" s="1"/>
       <c r="U26" s="5">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45819</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1">
+        <v>200</v>
+      </c>
+      <c r="I27" s="1">
+        <v>35</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="5">
+        <f t="shared" ref="O27:O41" si="10">L27-N27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <f t="shared" ref="P27:P41" si="11">IFERROR(O27/M27,"")</f>
+        <v/>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="4" t="str">
+        <f t="shared" ref="R27:R41" si="12">IFERROR(Q27/P27,"")</f>
+        <v/>
+      </c>
+      <c r="S27" s="4" t="str">
+        <f t="shared" ref="S27:S41" si="13">IFERROR(R27-M27,"")</f>
+        <v/>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="5">
+        <f t="shared" ref="U27:U41" si="14">32*18*T27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45820</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="1">
+        <v>200</v>
+      </c>
+      <c r="I28" s="1">
+        <v>35</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S28" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45821</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="1">
+        <v>200</v>
+      </c>
+      <c r="I29" s="1">
+        <v>35</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S29" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45824</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1">
+        <v>200</v>
+      </c>
+      <c r="I30" s="1">
+        <v>35</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S30" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45825</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1">
+        <v>200</v>
+      </c>
+      <c r="I31" s="1">
+        <v>35</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S31" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45826</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="1">
+        <v>200</v>
+      </c>
+      <c r="I32" s="1">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S32" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45827</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1">
+        <v>200</v>
+      </c>
+      <c r="I33" s="1">
+        <v>30</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S33" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1">
+        <v>200</v>
+      </c>
+      <c r="I34" s="1">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S34" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45831</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="1">
+        <v>200</v>
+      </c>
+      <c r="I35" s="1">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S35" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45832</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1">
+        <v>200</v>
+      </c>
+      <c r="I36" s="1">
+        <v>30</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S36" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45833</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1">
+        <v>200</v>
+      </c>
+      <c r="I37" s="1">
+        <v>30</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S37" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1">
+        <v>200</v>
+      </c>
+      <c r="I38" s="1">
+        <v>30</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S38" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45835</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="1">
+        <v>200</v>
+      </c>
+      <c r="I39" s="1">
+        <v>30</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S39" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45838</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1">
+        <v>200</v>
+      </c>
+      <c r="I40" s="1">
+        <v>30</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S40" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45839</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1">
+        <v>200</v>
+      </c>
+      <c r="I41" s="1">
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S41" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="5">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2BFD5E-9591-4C07-80A7-4065D6A997FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4E106-2B25-4770-B382-3A27771E15F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,10 +766,10 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2435,7 +2435,9 @@
       <c r="J24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1">
+        <v>11</v>
+      </c>
       <c r="L24" s="1">
         <v>328</v>
       </c>
@@ -2443,28 +2445,34 @@
         <f t="shared" si="6"/>
         <v>1.6237623762376239</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>134</v>
+      </c>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
-        <v>328</v>
+        <v>194</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="Q24" s="1"/>
+        <v>119.47560975609755</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>345</v>
+      </c>
       <c r="R24" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.8876186587730941</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="9"/>
-        <v>-1.6237623762376239</v>
-      </c>
-      <c r="T24" s="1"/>
+        <v>1.2638562825354702</v>
+      </c>
+      <c r="T24" s="1">
+        <v>8.5</v>
+      </c>
       <c r="U24" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2497,28 +2505,30 @@
         <v>31</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <v>343</v>
+      </c>
       <c r="M25" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.698019801980198</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="4" t="str">
+        <v>343</v>
+      </c>
+      <c r="P25" s="4">
         <f t="shared" si="2"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="4" t="str">
+      <c r="R25" s="4">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S25" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1.698019801980198</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\paper-towel-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4E106-2B25-4770-B382-3A27771E15F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B171E5E6-CABA-4025-8F47-7E5FC6ABA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="60" windowWidth="13740" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -766,33 +766,33 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1251,8 +1251,7 @@
         <v>441</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="6"/>
-        <v>2.1831683168316833</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N7" s="1">
         <v>266</v>
@@ -1263,18 +1262,18 @@
       </c>
       <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>80.158730158730151</v>
+        <v>160.55045871559631</v>
       </c>
       <c r="Q7" s="1">
         <v>300</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="3"/>
-        <v>3.7425742574257428</v>
+        <v>1.8685714285714288</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="4"/>
-        <v>1.5594059405940595</v>
+        <v>0.77857142857142869</v>
       </c>
       <c r="T7" s="1">
         <v>17.5</v>
@@ -1393,8 +1392,7 @@
         <v>441</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="6"/>
-        <v>2.1831683168316833</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N9" s="1">
         <v>257</v>
@@ -1405,18 +1403,18 @@
       </c>
       <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>84.281179138321988</v>
+        <v>168.80733944954127</v>
       </c>
       <c r="Q9" s="1">
         <v>350</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="3"/>
-        <v>4.1527658200602673</v>
+        <v>2.0733695652173916</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>1.969597503228584</v>
+        <v>0.98336956521739149</v>
       </c>
       <c r="T9" s="1">
         <v>16</v>
@@ -1464,8 +1462,7 @@
         <v>441</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="6"/>
-        <v>2.1831683168316833</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N10" s="1">
         <v>282</v>
@@ -1476,18 +1473,18 @@
       </c>
       <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>72.829931972789112</v>
+        <v>145.87155963302752</v>
       </c>
       <c r="Q10" s="1">
         <v>300</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="3"/>
-        <v>4.1191855034560065</v>
+        <v>2.0566037735849059</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>1.9360171866243232</v>
+        <v>0.96660377358490579</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
@@ -1535,8 +1532,7 @@
         <v>451</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="6"/>
-        <v>2.2326732673267329</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N11" s="1">
         <v>154</v>
@@ -1547,18 +1543,18 @@
       </c>
       <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>133.02439024390242</v>
+        <v>265.17857142857139</v>
       </c>
       <c r="Q11" s="1">
         <v>510</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" si="3"/>
-        <v>3.8338833883388346</v>
+        <v>1.9232323232323236</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>1.6012101210121017</v>
+        <v>0.80323232323232352</v>
       </c>
       <c r="T11" s="1">
         <v>27.5</v>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\paper-towel-cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B171E5E6-CABA-4025-8F47-7E5FC6ABA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A062AA37-FF75-496D-A0BA-BF90F1BE836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="60" windowWidth="13740" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -766,10 +766,10 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2500,7 +2500,9 @@
       <c r="J25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>16</v>
+      </c>
       <c r="L25" s="1">
         <v>343</v>
       </c>
@@ -2508,28 +2510,34 @@
         <f t="shared" si="6"/>
         <v>1.698019801980198</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>147</v>
+      </c>
       <c r="O25" s="5">
         <f t="shared" si="7"/>
-        <v>343</v>
+        <v>196</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="Q25" s="1"/>
+        <v>115.42857142857143</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>357</v>
+      </c>
       <c r="R25" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.0928217821782176</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="9"/>
-        <v>-1.698019801980198</v>
-      </c>
-      <c r="T25" s="1"/>
+        <v>1.3948019801980196</v>
+      </c>
+      <c r="T25" s="1">
+        <v>17.5</v>
+      </c>
       <c r="U25" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2561,34 +2569,44 @@
       <c r="J26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="K26" s="1">
+        <v>14</v>
+      </c>
+      <c r="L26" s="1">
+        <v>355</v>
+      </c>
       <c r="M26" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="1"/>
+        <v>1.7574257425742574</v>
+      </c>
+      <c r="N26" s="1">
+        <v>160</v>
+      </c>
       <c r="O26" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4" t="str">
+        <v>195</v>
+      </c>
+      <c r="P26" s="4">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="4" t="str">
+        <v>110.95774647887323</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>306</v>
+      </c>
+      <c r="R26" s="4">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S26" s="4" t="str">
+        <v>2.7578065498857578</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T26" s="1"/>
+        <v>1.0003808073115004</v>
+      </c>
+      <c r="T26" s="1">
+        <v>9.5</v>
+      </c>
       <c r="U26" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2621,28 +2639,30 @@
         <v>43</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <v>289</v>
+      </c>
       <c r="M27" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4306930693069306</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="5">
         <f t="shared" ref="O27:O41" si="10">L27-N27</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="4" t="str">
+        <v>289</v>
+      </c>
+      <c r="P27" s="4">
         <f t="shared" ref="P27:P41" si="11">IFERROR(O27/M27,"")</f>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="4" t="str">
+      <c r="R27" s="4">
         <f t="shared" ref="R27:R41" si="12">IFERROR(Q27/P27,"")</f>
-        <v/>
-      </c>
-      <c r="S27" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" ref="S27:S41" si="13">IFERROR(R27-M27,"")</f>
-        <v/>
+        <v>-1.4306930693069306</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A062AA37-FF75-496D-A0BA-BF90F1BE836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C4474-8E83-4880-AB92-854CF7C83239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -766,10 +766,10 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2638,7 +2638,9 @@
       <c r="J27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>14</v>
+      </c>
       <c r="L27" s="1">
         <v>289</v>
       </c>
@@ -2646,28 +2648,34 @@
         <f t="shared" si="6"/>
         <v>1.4306930693069306</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>142</v>
+      </c>
       <c r="O27" s="5">
         <f t="shared" ref="O27:O41" si="10">L27-N27</f>
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" ref="P27:P41" si="11">IFERROR(O27/M27,"")</f>
-        <v>202</v>
-      </c>
-      <c r="Q27" s="1"/>
+        <v>102.74740484429066</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>264</v>
+      </c>
       <c r="R27" s="4">
         <f t="shared" ref="R27:R41" si="12">IFERROR(Q27/P27,"")</f>
-        <v>0</v>
+        <v>2.5694079612042837</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" ref="S27:S41" si="13">IFERROR(R27-M27,"")</f>
-        <v>-1.4306930693069306</v>
-      </c>
-      <c r="T27" s="1"/>
+        <v>1.1387148918973531</v>
+      </c>
+      <c r="T27" s="1">
+        <v>8.25</v>
+      </c>
       <c r="U27" s="5">
         <f t="shared" ref="U27:U41" si="14">32*18*T27</f>
-        <v>0</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2700,28 +2708,30 @@
         <v>43</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1">
+        <v>287</v>
+      </c>
       <c r="M28" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4207920792079207</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="4" t="str">
+        <v>287</v>
+      </c>
+      <c r="P28" s="4">
         <f t="shared" si="11"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="4" t="str">
+      <c r="R28" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S28" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.4207920792079207</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C4474-8E83-4880-AB92-854CF7C83239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20F651-985B-4723-A835-EA59D43FC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,13 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30gパルプ200枚</t>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中国</t>
     <rPh sb="0" eb="2">
       <t>チュウゴク</t>
@@ -382,6 +375,16 @@
   </si>
   <si>
     <t>36gパルプ200枚</t>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30g再生紙200枚</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
@@ -766,10 +769,10 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2624,10 +2627,10 @@
         <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H27" s="1">
         <v>200</v>
@@ -2636,7 +2639,7 @@
         <v>35</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27" s="1">
         <v>14</v>
@@ -2693,10 +2696,10 @@
         <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H28" s="1">
         <v>200</v>
@@ -2705,9 +2708,11 @@
         <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="K28" s="1">
+        <v>13</v>
+      </c>
       <c r="L28" s="1">
         <v>287</v>
       </c>
@@ -2715,28 +2720,34 @@
         <f t="shared" si="6"/>
         <v>1.4207920792079207</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>124</v>
+      </c>
       <c r="O28" s="5">
         <f t="shared" si="10"/>
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q28" s="1"/>
+        <v>114.72473867595819</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>294</v>
+      </c>
       <c r="R28" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.5626556520682744</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="13"/>
-        <v>-1.4207920792079207</v>
-      </c>
-      <c r="T28" s="1"/>
+        <v>1.1418635728603537</v>
+      </c>
+      <c r="T28" s="1">
+        <v>9.4</v>
+      </c>
       <c r="U28" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5414.4000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2754,10 +2765,10 @@
         <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H29" s="1">
         <v>200</v>
@@ -2766,31 +2777,33 @@
         <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1">
+        <v>287</v>
+      </c>
       <c r="M29" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4207920792079207</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="4" t="str">
+        <v>287</v>
+      </c>
+      <c r="P29" s="4">
         <f t="shared" si="11"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="4" t="str">
+      <c r="R29" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S29" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.4207920792079207</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="5">
@@ -2813,10 +2826,10 @@
         <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H30" s="1">
         <v>200</v>
@@ -2825,7 +2838,7 @@
         <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2872,10 +2885,10 @@
         <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H31" s="1">
         <v>200</v>
@@ -2884,7 +2897,7 @@
         <v>35</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2925,16 +2938,16 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" s="1">
         <v>200</v>
@@ -2943,7 +2956,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2984,16 +2997,16 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="1">
         <v>200</v>
@@ -3002,7 +3015,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3043,16 +3056,16 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="1">
         <v>200</v>
@@ -3061,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3102,16 +3115,16 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="1">
         <v>200</v>
@@ -3120,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3161,16 +3174,16 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36" s="1">
         <v>200</v>
@@ -3179,7 +3192,7 @@
         <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3220,16 +3233,16 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" s="1">
         <v>200</v>
@@ -3238,7 +3251,7 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3279,16 +3292,16 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" s="1">
         <v>200</v>
@@ -3297,7 +3310,7 @@
         <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3338,16 +3351,16 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="1">
         <v>200</v>
@@ -3356,7 +3369,7 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3397,16 +3410,16 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" s="1">
         <v>200</v>
@@ -3415,7 +3428,7 @@
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3456,16 +3469,16 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="1">
         <v>200</v>
@@ -3474,7 +3487,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20F651-985B-4723-A835-EA59D43FC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B284F-BA43-43E4-82B3-AAAFB4A98D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -769,33 +769,33 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2779,7 +2779,9 @@
       <c r="J29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1">
+        <v>12</v>
+      </c>
       <c r="L29" s="1">
         <v>287</v>
       </c>
@@ -2787,28 +2789,34 @@
         <f t="shared" si="6"/>
         <v>1.4207920792079207</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>137</v>
+      </c>
       <c r="O29" s="5">
         <f t="shared" si="10"/>
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q29" s="1"/>
+        <v>105.57491289198607</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>279</v>
+      </c>
       <c r="R29" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.6426732673267326</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="13"/>
-        <v>-1.4207920792079207</v>
-      </c>
-      <c r="T29" s="1"/>
+        <v>1.2218811881188119</v>
+      </c>
+      <c r="T29" s="1">
+        <v>13.8</v>
+      </c>
       <c r="U29" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7948.8</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2841,28 +2849,30 @@
         <v>42</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1">
+        <v>286</v>
+      </c>
       <c r="M30" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4158415841584158</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="4" t="str">
+        <v>286</v>
+      </c>
+      <c r="P30" s="4">
         <f t="shared" si="11"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="4" t="str">
+      <c r="R30" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S30" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.4158415841584158</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B284F-BA43-43E4-82B3-AAAFB4A98D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76141258-8727-4E5B-944F-9C025450ADD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2848,7 +2848,9 @@
       <c r="J30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1">
+        <v>7</v>
+      </c>
       <c r="L30" s="1">
         <v>286</v>
       </c>
@@ -2856,28 +2858,34 @@
         <f t="shared" si="6"/>
         <v>1.4158415841584158</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>109</v>
+      </c>
       <c r="O30" s="5">
         <f t="shared" si="10"/>
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q30" s="1"/>
+        <v>125.01398601398603</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>307</v>
+      </c>
       <c r="R30" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.4557252335403028</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="13"/>
-        <v>-1.4158415841584158</v>
-      </c>
-      <c r="T30" s="1"/>
+        <v>1.039883649381887</v>
+      </c>
+      <c r="T30" s="1">
+        <v>17.8</v>
+      </c>
       <c r="U30" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10252.800000000001</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2910,28 +2918,30 @@
         <v>42</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>285</v>
+      </c>
       <c r="M31" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4108910891089108</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="5">
         <f t="shared" si="10"/>
+        <v>285</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P31" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S31" s="4" t="str">
+      <c r="S31" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.4108910891089108</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76141258-8727-4E5B-944F-9C025450ADD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D00C2A-B717-4E7E-8430-2BCCE8023A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -772,30 +772,30 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2917,7 +2917,9 @@
       <c r="J31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>14</v>
+      </c>
       <c r="L31" s="1">
         <v>285</v>
       </c>
@@ -2925,28 +2927,34 @@
         <f t="shared" si="6"/>
         <v>1.4108910891089108</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>86</v>
+      </c>
       <c r="O31" s="5">
         <f t="shared" si="10"/>
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q31" s="1"/>
+        <v>141.04561403508774</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>341</v>
+      </c>
       <c r="R31" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.417657594905219</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="13"/>
-        <v>-1.4108910891089108</v>
-      </c>
-      <c r="T31" s="1"/>
+        <v>1.0067665057963082</v>
+      </c>
+      <c r="T31" s="1">
+        <v>10.75</v>
+      </c>
       <c r="U31" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2978,34 +2986,44 @@
       <c r="J32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="K32" s="1">
+        <v>13</v>
+      </c>
+      <c r="L32" s="1">
+        <v>263</v>
+      </c>
       <c r="M32" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="1"/>
+        <v>1.301980198019802</v>
+      </c>
+      <c r="N32" s="1">
+        <v>78</v>
+      </c>
       <c r="O32" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="4" t="str">
+        <v>185</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="4" t="str">
+        <v>142.09125475285171</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>309</v>
+      </c>
+      <c r="R32" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S32" s="4" t="str">
+        <v>2.1746588172330745</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T32" s="1"/>
+        <v>0.8726786192132725</v>
+      </c>
+      <c r="T32" s="1">
+        <v>9.5</v>
+      </c>
       <c r="U32" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3038,28 +3056,30 @@
         <v>46</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <v>264</v>
+      </c>
       <c r="M33" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.306930693069307</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="5">
         <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P33" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S33" s="4" t="str">
+      <c r="S33" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.306930693069307</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D00C2A-B717-4E7E-8430-2BCCE8023A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E94B8-A9A1-4BCE-AE9B-548C59487FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3055,7 +3055,9 @@
       <c r="J33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1">
+        <v>14</v>
+      </c>
       <c r="L33" s="1">
         <v>264</v>
       </c>
@@ -3063,28 +3065,34 @@
         <f t="shared" si="6"/>
         <v>1.306930693069307</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>81</v>
+      </c>
       <c r="O33" s="5">
         <f t="shared" si="10"/>
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q33" s="1"/>
+        <v>140.02272727272728</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>383</v>
+      </c>
       <c r="R33" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.7352702483363087</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="13"/>
-        <v>-1.306930693069307</v>
-      </c>
-      <c r="T33" s="1"/>
+        <v>1.4283395552670017</v>
+      </c>
+      <c r="T33" s="1">
+        <v>10.1</v>
+      </c>
       <c r="U33" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5817.5999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3117,28 +3125,30 @@
         <v>46</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <v>261</v>
+      </c>
       <c r="M34" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2920792079207921</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="5">
         <f t="shared" si="10"/>
+        <v>261</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P34" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S34" s="4" t="str">
+      <c r="S34" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.2920792079207921</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E94B8-A9A1-4BCE-AE9B-548C59487FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C534E6E-7C60-49F1-8D5C-C35A6BD35F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="60">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -389,6 +389,91 @@
       <t>マイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸水度（秒）</t>
+    <rPh sb="0" eb="3">
+      <t>キュウスイド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸水度（分）</t>
+    <rPh sb="0" eb="3">
+      <t>キュウスイド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乾燥引張（縦）</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッパリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乾燥引張（横）</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッパリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿潤引張（縦）</t>
+    <rPh sb="0" eb="2">
+      <t>シツジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッパリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿潤引張（横）</t>
+    <rPh sb="0" eb="2">
+      <t>シツジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッパリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1’53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1’41</t>
+  </si>
+  <si>
+    <t>1’42</t>
+  </si>
+  <si>
+    <t>5’06</t>
   </si>
 </sst>
 </file>
@@ -425,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -461,11 +546,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -479,6 +577,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -766,39 +879,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -862,8 +977,26 @@
       <c r="U1" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -932,8 +1065,14 @@
         <f>32*18*T2</f>
         <v>12960</v>
       </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
@@ -1002,8 +1141,14 @@
         <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
         <v>10944</v>
       </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -1073,8 +1218,14 @@
         <f t="shared" si="5"/>
         <v>13536</v>
       </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -1144,8 +1295,14 @@
         <f t="shared" si="5"/>
         <v>17568</v>
       </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -1215,8 +1372,14 @@
         <f t="shared" si="5"/>
         <v>12096</v>
       </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -1285,8 +1448,14 @@
         <f t="shared" si="5"/>
         <v>10080</v>
       </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -1356,8 +1525,14 @@
         <f t="shared" si="5"/>
         <v>12960</v>
       </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -1426,8 +1601,14 @@
         <f t="shared" si="5"/>
         <v>9216</v>
       </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -1496,8 +1677,14 @@
         <f t="shared" si="5"/>
         <v>11520</v>
       </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -1566,8 +1753,14 @@
         <f t="shared" si="5"/>
         <v>15840</v>
       </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -1637,8 +1830,18 @@
         <f t="shared" si="5"/>
         <v>12384</v>
       </c>
+      <c r="V12" s="14">
+        <v>113.2</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1708,8 +1911,18 @@
         <f t="shared" si="5"/>
         <v>12240</v>
       </c>
+      <c r="V13" s="14">
+        <v>113.2</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>2025</v>
       </c>
@@ -1779,8 +1992,18 @@
         <f t="shared" si="5"/>
         <v>14774.4</v>
       </c>
+      <c r="V14" s="14">
+        <v>113.2</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>2025</v>
       </c>
@@ -1850,8 +2073,18 @@
         <f t="shared" si="5"/>
         <v>9072</v>
       </c>
+      <c r="V15" s="14">
+        <v>113.2</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
@@ -1921,8 +2154,18 @@
         <f t="shared" si="5"/>
         <v>5040</v>
       </c>
+      <c r="V16" s="15">
+        <v>113.2</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:27">
       <c r="A17" s="2">
         <v>2025</v>
       </c>
@@ -1990,8 +2233,26 @@
         <f t="shared" si="5"/>
         <v>10512</v>
       </c>
+      <c r="V17" s="12">
+        <v>101</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" s="12">
+        <v>6.1833333333333336</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>1.0599999999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>2025</v>
       </c>
@@ -2059,8 +2320,26 @@
         <f t="shared" si="5"/>
         <v>9216</v>
       </c>
+      <c r="V18" s="12">
+        <v>101</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" s="12">
+        <v>6.1833333333333336</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>1.0599999999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>2025</v>
       </c>
@@ -2128,8 +2407,26 @@
         <f t="shared" si="5"/>
         <v>9216</v>
       </c>
+      <c r="V19" s="12">
+        <v>101</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" s="12">
+        <v>6.1833333333333336</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>1.0599999999999998</v>
+      </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>2025</v>
       </c>
@@ -2197,8 +2494,26 @@
         <f t="shared" si="5"/>
         <v>6969.5999999999995</v>
       </c>
+      <c r="V20" s="12">
+        <v>101</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" s="12">
+        <v>6.1833333333333336</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>1.0599999999999998</v>
+      </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>2025</v>
       </c>
@@ -2266,8 +2581,26 @@
         <f t="shared" si="5"/>
         <v>6624</v>
       </c>
+      <c r="V21" s="13">
+        <v>101</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" s="13">
+        <v>6.1833333333333336</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>1.0599999999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>2025</v>
       </c>
@@ -2335,8 +2668,26 @@
         <f t="shared" si="5"/>
         <v>14400</v>
       </c>
+      <c r="V22" s="12">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X22" s="12">
+        <v>12.29</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>7.06</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>3.6533333333333338</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>1.6366666666666667</v>
+      </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>2025</v>
       </c>
@@ -2404,8 +2755,26 @@
         <f t="shared" si="5"/>
         <v>7891.2</v>
       </c>
+      <c r="V23" s="12">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X23" s="12">
+        <v>12.29</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>7.06</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>3.6533333333333338</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>1.6366666666666667</v>
+      </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>2025</v>
       </c>
@@ -2473,8 +2842,26 @@
         <f t="shared" si="5"/>
         <v>4896</v>
       </c>
+      <c r="V24" s="12">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X24" s="12">
+        <v>12.29</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>7.06</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>3.6533333333333338</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>1.6366666666666667</v>
+      </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>2025</v>
       </c>
@@ -2542,8 +2929,26 @@
         <f t="shared" si="5"/>
         <v>10080</v>
       </c>
+      <c r="V25" s="12">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X25" s="12">
+        <v>12.29</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>7.06</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>3.6533333333333338</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>1.6366666666666667</v>
+      </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>2025</v>
       </c>
@@ -2611,8 +3016,26 @@
         <f t="shared" si="5"/>
         <v>5472</v>
       </c>
+      <c r="V26" s="13">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X26" s="13">
+        <v>12.29</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>7.06</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>3.6533333333333338</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>1.6366666666666667</v>
+      </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
@@ -2680,8 +3103,26 @@
         <f t="shared" ref="U27:U41" si="14">32*18*T27</f>
         <v>4752</v>
       </c>
+      <c r="V27" s="12">
+        <v>306</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X27" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>2025</v>
       </c>
@@ -2749,8 +3190,26 @@
         <f t="shared" si="14"/>
         <v>5414.4000000000005</v>
       </c>
+      <c r="V28" s="12">
+        <v>306</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X28" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>2025</v>
       </c>
@@ -2818,8 +3277,26 @@
         <f t="shared" si="14"/>
         <v>7948.8</v>
       </c>
+      <c r="V29" s="12">
+        <v>306</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X29" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>2025</v>
       </c>
@@ -2887,8 +3364,26 @@
         <f t="shared" si="14"/>
         <v>10252.800000000001</v>
       </c>
+      <c r="V30" s="12">
+        <v>306</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X30" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>2025</v>
       </c>
@@ -2956,8 +3451,26 @@
         <f t="shared" si="14"/>
         <v>6192</v>
       </c>
+      <c r="V31" s="12">
+        <v>306</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X31" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>2025</v>
       </c>
@@ -3025,8 +3538,14 @@
         <f t="shared" si="14"/>
         <v>5472</v>
       </c>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>2025</v>
       </c>
@@ -3094,8 +3613,14 @@
         <f t="shared" si="14"/>
         <v>5817.5999999999995</v>
       </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>2025</v>
       </c>
@@ -3124,7 +3649,9 @@
       <c r="J34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1">
+        <v>17</v>
+      </c>
       <c r="L34" s="1">
         <v>261</v>
       </c>
@@ -3132,31 +3659,43 @@
         <f t="shared" si="6"/>
         <v>1.2920792079207921</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>45</v>
+      </c>
       <c r="O34" s="5">
         <f t="shared" si="10"/>
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q34" s="1"/>
+        <v>167.17241379310343</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>402</v>
+      </c>
       <c r="R34" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.4047029702970302</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="13"/>
-        <v>-1.2920792079207921</v>
-      </c>
-      <c r="T34" s="1"/>
+        <v>1.1126237623762381</v>
+      </c>
+      <c r="T34" s="1">
+        <v>11</v>
+      </c>
       <c r="U34" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <v>6336</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>2025</v>
       </c>
@@ -3186,36 +3725,44 @@
         <v>46</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1">
+        <v>265</v>
+      </c>
       <c r="M35" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.3118811881188119</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="5">
         <f t="shared" si="10"/>
+        <v>265</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P35" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S35" s="4" t="str">
+      <c r="S35" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.3118811881188119</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -3273,8 +3820,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>2025</v>
       </c>
@@ -3332,8 +3885,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>2025</v>
       </c>
@@ -3391,8 +3950,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>2025</v>
       </c>
@@ -3450,8 +4015,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>2025</v>
       </c>
@@ -3509,8 +4080,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>2025</v>
       </c>
@@ -3568,6 +4145,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C534E6E-7C60-49F1-8D5C-C35A6BD35F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582982C0-9AEE-4931-9A8C-25ABFA3DEE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="62">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -474,6 +474,13 @@
   </si>
   <si>
     <t>5’06</t>
+  </si>
+  <si>
+    <t>7’50</t>
+  </si>
+  <si>
+    <t>7’50</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -882,10 +889,10 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1065,8 +1072,12 @@
         <f>32*18*T2</f>
         <v>12960</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="14">
+        <v>469.7</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -1141,8 +1152,12 @@
         <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
         <v>10944</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="V3" s="14">
+        <v>469.7</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1218,8 +1233,12 @@
         <f t="shared" si="5"/>
         <v>13536</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="V4" s="14">
+        <v>469.7</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1295,8 +1314,12 @@
         <f t="shared" si="5"/>
         <v>17568</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="V5" s="14">
+        <v>469.7</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1372,8 +1395,12 @@
         <f t="shared" si="5"/>
         <v>12096</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="V6" s="14">
+        <v>469.7</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -3724,36 +3751,43 @@
       <c r="J35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1">
+        <v>18</v>
+      </c>
       <c r="L35" s="1">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3118811881188119</v>
-      </c>
-      <c r="N35" s="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="N35" s="1">
+        <v>128</v>
+      </c>
       <c r="O35" s="5">
         <f t="shared" si="10"/>
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="P35" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q35" s="1"/>
+        <v>229.23076923076923</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>500</v>
+      </c>
       <c r="R35" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(Q35/P35,"")</f>
+        <v>2.1812080536912752</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="13"/>
-        <v>-1.3118811881188119</v>
-      </c>
-      <c r="T35" s="1"/>
+        <v>0.88120805369127519</v>
+      </c>
+      <c r="T35" s="1">
+        <v>16.899999999999999</v>
+      </c>
       <c r="U35" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9734.4</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -3792,28 +3826,30 @@
         <v>46</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1">
+        <v>264</v>
+      </c>
       <c r="M36" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.306930693069307</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="5">
         <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P36" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S36" s="4" t="str">
+      <c r="S36" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.306930693069307</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582982C0-9AEE-4931-9A8C-25ABFA3DEE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1108AB3A-07D1-493B-B1E5-098161330388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -463,23 +463,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1’53</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1’41</t>
-  </si>
-  <si>
-    <t>1’42</t>
-  </si>
-  <si>
-    <t>5’06</t>
-  </si>
-  <si>
-    <t>7’50</t>
-  </si>
-  <si>
-    <t>7’50</t>
+    <t>紙ﾀｵﾙ ﾊﾟﾋﾟｰ(200枚) HR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38g再生紙</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙ﾀｵﾙ ﾚﾅｰｼﾞｭEX(200枚) 35入 HR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31g再生紙</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴﾙｳﾞｪｰﾙｴｺｽﾏｰﾄ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大王製紙株式会社</t>
+    <rPh sb="0" eb="4">
+      <t>ダイオウセイシ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30.5g再生紙</t>
+    <rPh sb="5" eb="8">
+      <t>サイセイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>230×210</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2'07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰｴｺﾏｯｸｽM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本製紙クレシア株式会社</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンセイシ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30g(段)再生紙200枚</t>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7'50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'42</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5'06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7'58</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -599,6 +689,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -886,13 +979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1005,22 +1098,22 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="3">
-        <v>45742</v>
+        <v>45875</v>
       </c>
       <c r="C2" s="1">
-        <v>9962860</v>
+        <v>1062460</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>35</v>
@@ -1034,73 +1127,52 @@
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1">
-        <v>760</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="N2" s="1">
-        <v>478</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="shared" ref="O2" si="0">L2-N2</f>
-        <v>282</v>
-      </c>
-      <c r="P2" s="4">
-        <f>IFERROR(O2/M2,"")</f>
-        <v>150</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>400</v>
-      </c>
-      <c r="R2" s="4">
-        <f>IFERROR(Q2/P2,"")</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="S2" s="4">
-        <f>IFERROR(R2-M2,"")</f>
-        <v>0.78666666666666663</v>
-      </c>
-      <c r="T2" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="U2" s="5">
-        <f>32*18*T2</f>
-        <v>12960</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
       <c r="V2" s="14">
-        <v>469.7</v>
+        <v>84</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="X2" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="3">
-        <v>45743</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9962860</v>
-      </c>
+        <v>45875</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>35</v>
@@ -1112,63 +1184,44 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1">
-        <v>735</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="N3" s="1">
-        <v>570</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O16" si="1">L3-N3</f>
-        <v>165</v>
-      </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:P26" si="2">IFERROR(O3/M3,"")</f>
-        <v>90.659340659340657</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>260</v>
-      </c>
-      <c r="R3" s="4">
-        <f t="shared" ref="R3:R16" si="3">IFERROR(Q3/P3,"")</f>
-        <v>2.8678787878787881</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S16" si="4">IFERROR(R3-M3,"")</f>
-        <v>1.0478787878787881</v>
-      </c>
-      <c r="T3" s="1">
-        <v>19</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" ref="U3:U26" si="5">32*18*T3</f>
-        <v>10944</v>
-      </c>
-      <c r="V3" s="14">
-        <v>469.7</v>
+        <v>63</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="1">
+        <v>126.9</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="X3" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
       <c r="B4" s="3">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="C4" s="1">
         <v>9962860</v>
@@ -1195,61 +1248,68 @@
         <v>25</v>
       </c>
       <c r="K4" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1">
-        <v>369</v>
+        <v>760</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M41" si="6">L4/(H4+2)</f>
-        <v>1.8267326732673268</v>
+        <v>1.88</v>
       </c>
       <c r="N4" s="1">
-        <v>202</v>
+        <v>478</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="1"/>
-        <v>167</v>
+        <f t="shared" ref="O4" si="0">L4-N4</f>
+        <v>282</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="2"/>
-        <v>91.420054200541998</v>
+        <f>IFERROR(O4/M4,"")</f>
+        <v>150</v>
       </c>
       <c r="Q4" s="1">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" si="3"/>
-        <v>2.9534001304322053</v>
+        <f>IFERROR(Q4/P4,"")</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="4"/>
-        <v>1.1266674571648785</v>
+        <f>IFERROR(R4-M4,"")</f>
+        <v>0.78666666666666663</v>
       </c>
       <c r="T4" s="1">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="5"/>
-        <v>13536</v>
+        <f>32*18*T4</f>
+        <v>12960</v>
       </c>
       <c r="V4" s="14">
         <v>469.7</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="X4" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
       <c r="B5" s="3">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="C5" s="1">
         <v>9962860</v>
@@ -1276,61 +1336,68 @@
         <v>25</v>
       </c>
       <c r="K5" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" s="1">
-        <v>368</v>
+        <v>735</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="6"/>
-        <v>1.8217821782178218</v>
+        <v>1.82</v>
       </c>
       <c r="N5" s="1">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="1"/>
-        <v>288</v>
+        <f t="shared" ref="O5:O19" si="1">L5-N5</f>
+        <v>165</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="2"/>
-        <v>158.08695652173913</v>
+        <f t="shared" ref="P5:P29" si="2">IFERROR(O5/M5,"")</f>
+        <v>90.659340659340657</v>
       </c>
       <c r="Q5" s="1">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="3"/>
-        <v>2.7832783278327833</v>
+        <f t="shared" ref="R5:R19" si="3">IFERROR(Q5/P5,"")</f>
+        <v>2.8678787878787881</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.96149614961496144</v>
+        <f t="shared" ref="S5:S19" si="4">IFERROR(R5-M5,"")</f>
+        <v>1.0478787878787881</v>
       </c>
       <c r="T5" s="1">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="5"/>
-        <v>17568</v>
+        <f t="shared" ref="U5:U29" si="5">32*18*T5</f>
+        <v>10944</v>
       </c>
       <c r="V5" s="14">
         <v>469.7</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="X5" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
       <c r="B6" s="3">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="C6" s="1">
         <v>9962860</v>
@@ -1357,73 +1424,81 @@
         <v>25</v>
       </c>
       <c r="K6" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L6" s="1">
         <v>369</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M6:M45" si="6">L6/(H6+2)</f>
         <v>1.8267326732673268</v>
       </c>
       <c r="N6" s="1">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>75.544715447154474</v>
+        <v>91.420054200541998</v>
       </c>
       <c r="Q6" s="1">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="3"/>
-        <v>2.7798105897546277</v>
+        <v>2.9534001304322053</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>0.95307791648730089</v>
+        <v>1.1266674571648785</v>
       </c>
       <c r="T6" s="1">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="U6" s="5">
         <f t="shared" si="5"/>
-        <v>12096</v>
+        <v>13536</v>
       </c>
       <c r="V6" s="14">
         <v>469.7</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="X6" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
       <c r="B7" s="3">
-        <v>45792</v>
+        <v>45745</v>
       </c>
       <c r="C7" s="1">
-        <v>9963200</v>
+        <v>9962860</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>35</v>
@@ -1435,71 +1510,84 @@
         <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1">
-        <v>441</v>
+        <v>368</v>
       </c>
       <c r="M7" s="4">
-        <v>1.0900000000000001</v>
+        <f t="shared" si="6"/>
+        <v>1.8217821782178218</v>
       </c>
       <c r="N7" s="1">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>160.55045871559631</v>
+        <v>158.08695652173913</v>
       </c>
       <c r="Q7" s="1">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="3"/>
-        <v>1.8685714285714288</v>
+        <v>2.7832783278327833</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="4"/>
-        <v>0.77857142857142869</v>
+        <v>0.96149614961496144</v>
       </c>
       <c r="T7" s="1">
-        <v>17.5</v>
+        <v>30.5</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" si="5"/>
-        <v>10080</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+        <v>17568</v>
+      </c>
+      <c r="V7" s="14">
+        <v>469.7</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
       <c r="B8" s="3">
-        <v>45793</v>
+        <v>45746</v>
       </c>
       <c r="C8" s="1">
-        <v>9963200</v>
+        <v>9962860</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>35</v>
@@ -1511,60 +1599,72 @@
         <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L8" s="1">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>1.0940594059405941</v>
+        <v>1.8267326732673268</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>201.99999999999997</v>
+        <v>75.544715447154474</v>
       </c>
       <c r="Q8" s="1">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="3"/>
-        <v>1.7821782178217824</v>
+        <v>2.7798105897546277</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="4"/>
-        <v>0.68811881188118829</v>
+        <v>0.95307791648730089</v>
       </c>
       <c r="T8" s="1">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="U8" s="5">
         <f t="shared" si="5"/>
-        <v>12960</v>
-      </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+        <v>12096</v>
+      </c>
+      <c r="V8" s="14">
+        <v>469.7</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
       <c r="B9" s="3">
-        <v>45796</v>
+        <v>45792</v>
       </c>
       <c r="C9" s="1">
         <v>9963200</v>
@@ -1600,33 +1700,33 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>168.80733944954127</v>
+        <v>160.55045871559631</v>
       </c>
       <c r="Q9" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="3"/>
-        <v>2.0733695652173916</v>
+        <v>1.8685714285714288</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>0.98336956521739149</v>
+        <v>0.77857142857142869</v>
       </c>
       <c r="T9" s="1">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" si="5"/>
-        <v>9216</v>
+        <v>10080</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1640,7 +1740,7 @@
         <v>2024</v>
       </c>
       <c r="B10" s="3">
-        <v>45797</v>
+        <v>45793</v>
       </c>
       <c r="C10" s="1">
         <v>9963200</v>
@@ -1667,42 +1767,43 @@
         <v>26</v>
       </c>
       <c r="K10" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1">
-        <v>441</v>
+        <v>221</v>
       </c>
       <c r="M10" s="4">
-        <v>1.0900000000000001</v>
+        <f t="shared" si="6"/>
+        <v>1.0940594059405941</v>
       </c>
       <c r="N10" s="1">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>145.87155963302752</v>
+        <v>201.99999999999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="3"/>
-        <v>2.0566037735849059</v>
+        <v>1.7821782178217824</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>0.96660377358490579</v>
+        <v>0.68811881188118829</v>
       </c>
       <c r="T10" s="1">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="U10" s="5">
         <f t="shared" si="5"/>
-        <v>11520</v>
+        <v>12960</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1716,7 +1817,7 @@
         <v>2024</v>
       </c>
       <c r="B11" s="3">
-        <v>45798</v>
+        <v>45796</v>
       </c>
       <c r="C11" s="1">
         <v>9963200</v>
@@ -1743,42 +1844,42 @@
         <v>26</v>
       </c>
       <c r="K11" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M11" s="4">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>265.17857142857139</v>
+        <v>168.80733944954127</v>
       </c>
       <c r="Q11" s="1">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" si="3"/>
-        <v>1.9232323232323236</v>
+        <v>2.0733695652173916</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>0.80323232323232352</v>
+        <v>0.98336956521739149</v>
       </c>
       <c r="T11" s="1">
-        <v>27.5</v>
+        <v>16</v>
       </c>
       <c r="U11" s="5">
         <f t="shared" si="5"/>
-        <v>15840</v>
+        <v>9216</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1789,22 +1890,22 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B12" s="3">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="C12" s="1">
-        <v>1062300</v>
+        <v>9963200</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>35</v>
@@ -1816,53 +1917,48 @@
         <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="6"/>
-        <v>2.0544554455445545</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="2"/>
-        <v>69.118072289156629</v>
+        <v>145.87155963302752</v>
       </c>
       <c r="Q12" s="1">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" si="3"/>
-        <v>3.3131711058429785</v>
+        <v>2.0566037735849059</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="4"/>
-        <v>1.258715660298424</v>
+        <v>0.96660377358490579</v>
       </c>
       <c r="T12" s="1">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="U12" s="5">
         <f t="shared" si="5"/>
-        <v>12384</v>
-      </c>
-      <c r="V12" s="14">
-        <v>113.2</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>11520</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1870,22 +1966,22 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B13" s="3">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="C13" s="1">
-        <v>1062300</v>
+        <v>9963200</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>35</v>
@@ -1897,53 +1993,48 @@
         <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="6"/>
-        <v>2.0742574257425743</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>102.20525059665871</v>
+        <v>265.17857142857139</v>
       </c>
       <c r="Q13" s="1">
-        <v>329</v>
+        <v>510</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" si="3"/>
-        <v>3.2190127031571079</v>
+        <v>1.9232323232323236</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" si="4"/>
-        <v>1.1447552774145335</v>
+        <v>0.80323232323232352</v>
       </c>
       <c r="T13" s="1">
-        <v>21.25</v>
+        <v>27.5</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" si="5"/>
-        <v>12240</v>
-      </c>
-      <c r="V13" s="14">
-        <v>113.2</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>15840</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -1954,19 +2045,19 @@
         <v>2025</v>
       </c>
       <c r="B14" s="3">
-        <v>45796</v>
+        <v>45763</v>
       </c>
       <c r="C14" s="1">
-        <v>1062300</v>
+        <v>9962240</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>35</v>
@@ -1975,55 +2066,27 @@
         <v>200</v>
       </c>
       <c r="I14" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="1">
-        <v>17</v>
-      </c>
-      <c r="L14" s="1">
-        <v>413</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="6"/>
-        <v>2.0445544554455446</v>
-      </c>
-      <c r="N14" s="1">
-        <v>114</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" si="1"/>
-        <v>299</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="2"/>
-        <v>146.24213075060533</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>508</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="3"/>
-        <v>3.4736911818272129</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="4"/>
-        <v>1.4291367263816683</v>
-      </c>
-      <c r="T14" s="1">
-        <v>25.65</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="5"/>
-        <v>14774.4</v>
-      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="14">
-        <v>113.2</v>
+        <v>71</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -2035,7 +2098,7 @@
         <v>2025</v>
       </c>
       <c r="B15" s="3">
-        <v>45797</v>
+        <v>45792</v>
       </c>
       <c r="C15" s="1">
         <v>1062300</v>
@@ -2065,46 +2128,46 @@
         <v>14</v>
       </c>
       <c r="L15" s="1">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="6"/>
-        <v>2.0445544554455446</v>
+        <v>2.0544554455445545</v>
       </c>
       <c r="N15" s="1">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="2"/>
-        <v>84.125907990314772</v>
+        <v>69.118072289156629</v>
       </c>
       <c r="Q15" s="1">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="3"/>
-        <v>3.5660833525212987</v>
+        <v>3.3131711058429785</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="4"/>
-        <v>1.5215288970757541</v>
+        <v>1.258715660298424</v>
       </c>
       <c r="T15" s="1">
-        <v>15.75</v>
+        <v>21.5</v>
       </c>
       <c r="U15" s="5">
         <f t="shared" si="5"/>
-        <v>9072</v>
+        <v>12384</v>
       </c>
       <c r="V15" s="14">
         <v>113.2</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -2116,7 +2179,7 @@
         <v>2025</v>
       </c>
       <c r="B16" s="3">
-        <v>45798</v>
+        <v>45793</v>
       </c>
       <c r="C16" s="1">
         <v>1062300</v>
@@ -2143,325 +2206,307 @@
         <v>25</v>
       </c>
       <c r="K16" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L16" s="1">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="6"/>
-        <v>2.0396039603960396</v>
+        <v>2.0742574257425743</v>
       </c>
       <c r="N16" s="1">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>78.9368932038835</v>
+        <v>102.20525059665871</v>
       </c>
       <c r="Q16" s="1">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="3"/>
-        <v>3.7244941885492895</v>
+        <v>3.2190127031571079</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="4"/>
-        <v>1.6848902281532498</v>
+        <v>1.1447552774145335</v>
       </c>
       <c r="T16" s="1">
-        <v>8.75</v>
+        <v>21.25</v>
       </c>
       <c r="U16" s="5">
         <f t="shared" si="5"/>
-        <v>5040</v>
-      </c>
-      <c r="V16" s="15">
+        <v>12240</v>
+      </c>
+      <c r="V16" s="14">
         <v>113.2</v>
       </c>
-      <c r="W16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
+      <c r="W16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>2025</v>
       </c>
-      <c r="B17" s="6">
-        <v>45805</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="2">
-        <v>300</v>
-      </c>
-      <c r="I17" s="2">
-        <v>40</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="2">
-        <v>14</v>
+      <c r="B17" s="3">
+        <v>45796</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1062300</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+      <c r="I17" s="1">
+        <v>35</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="1">
+        <v>17</v>
       </c>
       <c r="L17" s="1">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="6"/>
-        <v>1.0695364238410596</v>
+        <v>2.0445544554455446</v>
       </c>
       <c r="N17" s="1">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" ref="O17:O26" si="7">L17-N17</f>
-        <v>154</v>
+        <f t="shared" si="1"/>
+        <v>299</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="2"/>
-        <v>143.9876160990712</v>
+        <v>146.24213075060533</v>
       </c>
       <c r="Q17" s="1">
-        <v>283</v>
+        <v>508</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" ref="R17:R26" si="8">IFERROR(Q17/P17,"")</f>
-        <v>1.9654468048507785</v>
+        <f t="shared" si="3"/>
+        <v>3.4736911818272129</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" ref="S17:S26" si="9">IFERROR(R17-M17,"")</f>
-        <v>0.89591038100971887</v>
+        <f t="shared" si="4"/>
+        <v>1.4291367263816683</v>
       </c>
       <c r="T17" s="1">
-        <v>18.25</v>
+        <v>25.65</v>
       </c>
       <c r="U17" s="5">
         <f t="shared" si="5"/>
-        <v>10512</v>
-      </c>
-      <c r="V17" s="12">
-        <v>101</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" s="12">
-        <v>6.1833333333333336</v>
-      </c>
-      <c r="Y17" s="12">
-        <v>3.64</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="AA17" s="12">
-        <v>1.0599999999999998</v>
-      </c>
+        <v>14774.4</v>
+      </c>
+      <c r="V17" s="14">
+        <v>113.2</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>2025</v>
       </c>
       <c r="B18" s="3">
-        <v>45806</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>45797</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1062300</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H18" s="1">
-        <v>300</v>
-      </c>
-      <c r="I18" s="2">
-        <v>40</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>200</v>
+      </c>
+      <c r="I18" s="1">
+        <v>35</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="K18" s="1">
         <v>14</v>
       </c>
       <c r="L18" s="1">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="6"/>
-        <v>1.0827814569536425</v>
+        <v>2.0445544554455446</v>
       </c>
       <c r="N18" s="1">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="7"/>
-        <v>202</v>
+        <f t="shared" si="1"/>
+        <v>172</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="2"/>
-        <v>186.55657492354737</v>
+        <v>84.125907990314772</v>
       </c>
       <c r="Q18" s="1">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="8"/>
-        <v>1.8225034423972202</v>
+        <f t="shared" si="3"/>
+        <v>3.5660833525212987</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="9"/>
-        <v>0.7397219854435777</v>
+        <f t="shared" si="4"/>
+        <v>1.5215288970757541</v>
       </c>
       <c r="T18" s="1">
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="U18" s="5">
         <f t="shared" si="5"/>
-        <v>9216</v>
-      </c>
-      <c r="V18" s="12">
-        <v>101</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="12">
-        <v>6.1833333333333336</v>
-      </c>
-      <c r="Y18" s="12">
-        <v>3.64</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="AA18" s="12">
-        <v>1.0599999999999998</v>
-      </c>
+        <v>9072</v>
+      </c>
+      <c r="V18" s="14">
+        <v>113.2</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>2025</v>
       </c>
       <c r="B19" s="3">
-        <v>45807</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>45798</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1062300</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H19" s="1">
-        <v>300</v>
-      </c>
-      <c r="I19" s="2">
-        <v>40</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>200</v>
+      </c>
+      <c r="I19" s="1">
+        <v>35</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="K19" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L19" s="1">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="6"/>
-        <v>1.0794701986754967</v>
+        <v>2.0396039603960396</v>
       </c>
       <c r="N19" s="1">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="7"/>
-        <v>213</v>
+        <f t="shared" si="1"/>
+        <v>161</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="2"/>
-        <v>197.31901840490798</v>
+        <v>78.9368932038835</v>
       </c>
       <c r="Q19" s="1">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="8"/>
-        <v>1.9714267947641699</v>
+        <f t="shared" si="3"/>
+        <v>3.7244941885492895</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="9"/>
-        <v>0.89195659608867328</v>
+        <f t="shared" si="4"/>
+        <v>1.6848902281532498</v>
       </c>
       <c r="T19" s="1">
-        <v>16</v>
+        <v>8.75</v>
       </c>
       <c r="U19" s="5">
         <f t="shared" si="5"/>
-        <v>9216</v>
-      </c>
-      <c r="V19" s="12">
-        <v>101</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="12">
-        <v>6.1833333333333336</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>3.64</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>1.0599999999999998</v>
-      </c>
+        <v>5040</v>
+      </c>
+      <c r="V19" s="15">
+        <v>113.2</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>2025</v>
       </c>
-      <c r="B20" s="3">
-        <v>45810</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="6">
+        <v>45805</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2473,7 +2518,7 @@
       <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>300</v>
       </c>
       <c r="I20" s="2">
@@ -2482,50 +2527,50 @@
       <c r="J20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="1">
-        <v>16</v>
+      <c r="K20" s="2">
+        <v>14</v>
       </c>
       <c r="L20" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="6"/>
-        <v>1.0728476821192052</v>
+        <v>1.0695364238410596</v>
       </c>
       <c r="N20" s="1">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="7"/>
-        <v>183</v>
+        <f t="shared" ref="O20:O29" si="7">L20-N20</f>
+        <v>154</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="2"/>
-        <v>170.57407407407408</v>
+        <v>143.9876160990712</v>
       </c>
       <c r="Q20" s="1">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="8"/>
-        <v>1.9053305829985887</v>
+        <f t="shared" ref="R20:R29" si="8">IFERROR(Q20/P20,"")</f>
+        <v>1.9654468048507785</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="9"/>
-        <v>0.83248290087938348</v>
+        <f t="shared" ref="S20:S29" si="9">IFERROR(R20-M20,"")</f>
+        <v>0.89591038100971887</v>
       </c>
       <c r="T20" s="1">
-        <v>12.1</v>
+        <v>18.25</v>
       </c>
       <c r="U20" s="5">
         <f t="shared" si="5"/>
-        <v>6969.5999999999995</v>
+        <v>10512</v>
       </c>
       <c r="V20" s="12">
         <v>101</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="X20" s="12">
         <v>6.1833333333333336</v>
@@ -2545,7 +2590,7 @@
         <v>2025</v>
       </c>
       <c r="B21" s="3">
-        <v>45811</v>
+        <v>45806</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -2570,60 +2615,60 @@
         <v>29</v>
       </c>
       <c r="K21" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L21" s="1">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="6"/>
-        <v>1.076158940397351</v>
+        <v>1.0827814569536425</v>
       </c>
       <c r="N21" s="1">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="2"/>
-        <v>157.04</v>
+        <v>186.55657492354737</v>
       </c>
       <c r="Q21" s="1">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="8"/>
-        <v>2.0185939887926643</v>
+        <v>1.8225034423972202</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="9"/>
-        <v>0.94243504839531322</v>
+        <v>0.7397219854435777</v>
       </c>
       <c r="T21" s="1">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="U21" s="5">
         <f t="shared" si="5"/>
-        <v>6624</v>
-      </c>
-      <c r="V21" s="13">
+        <v>9216</v>
+      </c>
+      <c r="V21" s="12">
         <v>101</v>
       </c>
-      <c r="W21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X21" s="13">
+      <c r="W21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X21" s="12">
         <v>6.1833333333333336</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="Y21" s="12">
         <v>3.64</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="Z21" s="12">
         <v>2.3499999999999996</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="12">
         <v>1.0599999999999998</v>
       </c>
     </row>
@@ -2632,86 +2677,86 @@
         <v>2025</v>
       </c>
       <c r="B22" s="3">
-        <v>45812</v>
+        <v>45807</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>38</v>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" s="1">
+        <v>300</v>
+      </c>
+      <c r="I22" s="2">
         <v>40</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>31</v>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K22" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" s="1">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M22" s="4">
-        <f>L22/(H22+2)</f>
-        <v>1.5792079207920793</v>
+        <f t="shared" si="6"/>
+        <v>1.0794701986754967</v>
       </c>
       <c r="N22" s="1">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="O22" s="5">
-        <f>L22-N22</f>
-        <v>257</v>
+        <f t="shared" si="7"/>
+        <v>213</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="2"/>
-        <v>162.73981191222569</v>
+        <v>197.31901840490798</v>
       </c>
       <c r="Q22" s="1">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="R22" s="4">
         <f t="shared" si="8"/>
-        <v>2.7098470547443854</v>
+        <v>1.9714267947641699</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="9"/>
-        <v>1.1306391339523061</v>
+        <v>0.89195659608867328</v>
       </c>
       <c r="T22" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U22" s="5">
         <f t="shared" si="5"/>
-        <v>14400</v>
+        <v>9216</v>
       </c>
       <c r="V22" s="12">
-        <v>102.33333333333333</v>
+        <v>101</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="X22" s="12">
-        <v>12.29</v>
+        <v>6.1833333333333336</v>
       </c>
       <c r="Y22" s="12">
-        <v>7.06</v>
+        <v>3.64</v>
       </c>
       <c r="Z22" s="12">
-        <v>3.6533333333333338</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="AA22" s="12">
-        <v>1.6366666666666667</v>
+        <v>1.0599999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2719,86 +2764,86 @@
         <v>2025</v>
       </c>
       <c r="B23" s="3">
-        <v>45813</v>
+        <v>45810</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="1">
+        <v>300</v>
+      </c>
+      <c r="I23" s="2">
         <v>40</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>31</v>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K23" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L23" s="1">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="6"/>
-        <v>1.6386138613861385</v>
+        <v>1.0728476821192052</v>
       </c>
       <c r="N23" s="1">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="2"/>
-        <v>125.10574018126889</v>
+        <v>170.57407407407408</v>
       </c>
       <c r="Q23" s="1">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" si="8"/>
-        <v>2.2061337841101181</v>
+        <v>1.9053305829985887</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="9"/>
-        <v>0.56751992272397955</v>
+        <v>0.83248290087938348</v>
       </c>
       <c r="T23" s="1">
-        <v>13.7</v>
+        <v>12.1</v>
       </c>
       <c r="U23" s="5">
         <f t="shared" si="5"/>
-        <v>7891.2</v>
+        <v>6969.5999999999995</v>
       </c>
       <c r="V23" s="12">
-        <v>102.33333333333333</v>
+        <v>101</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="X23" s="12">
-        <v>12.29</v>
+        <v>6.1833333333333336</v>
       </c>
       <c r="Y23" s="12">
-        <v>7.06</v>
+        <v>3.64</v>
       </c>
       <c r="Z23" s="12">
-        <v>3.6533333333333338</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="AA23" s="12">
-        <v>1.6366666666666667</v>
+        <v>1.0599999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2806,86 +2851,86 @@
         <v>2025</v>
       </c>
       <c r="B24" s="3">
-        <v>45814</v>
+        <v>45811</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>38</v>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="1">
+        <v>300</v>
+      </c>
+      <c r="I24" s="2">
         <v>40</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K24" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L24" s="1">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="6"/>
-        <v>1.6237623762376239</v>
+        <v>1.076158940397351</v>
       </c>
       <c r="N24" s="1">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="2"/>
-        <v>119.47560975609755</v>
+        <v>157.04</v>
       </c>
       <c r="Q24" s="1">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="8"/>
-        <v>2.8876186587730941</v>
+        <v>2.0185939887926643</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="9"/>
-        <v>1.2638562825354702</v>
+        <v>0.94243504839531322</v>
       </c>
       <c r="T24" s="1">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="U24" s="5">
         <f t="shared" si="5"/>
-        <v>4896</v>
-      </c>
-      <c r="V24" s="12">
-        <v>102.33333333333333</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="12">
-        <v>12.29</v>
-      </c>
-      <c r="Y24" s="12">
-        <v>7.06</v>
-      </c>
-      <c r="Z24" s="12">
-        <v>3.6533333333333338</v>
-      </c>
-      <c r="AA24" s="12">
-        <v>1.6366666666666667</v>
+        <v>6624</v>
+      </c>
+      <c r="V24" s="13">
+        <v>101</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X24" s="13">
+        <v>6.1833333333333336</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>1.0599999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2893,7 +2938,7 @@
         <v>2025</v>
       </c>
       <c r="B25" s="3">
-        <v>45817</v>
+        <v>45812</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -2921,46 +2966,46 @@
         <v>16</v>
       </c>
       <c r="L25" s="1">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="6"/>
-        <v>1.698019801980198</v>
+        <f>L25/(H25+2)</f>
+        <v>1.5792079207920793</v>
       </c>
       <c r="N25" s="1">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="7"/>
-        <v>196</v>
+        <f>L25-N25</f>
+        <v>257</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="2"/>
-        <v>115.42857142857143</v>
+        <v>162.73981191222569</v>
       </c>
       <c r="Q25" s="1">
-        <v>357</v>
+        <v>441</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="8"/>
-        <v>3.0928217821782176</v>
+        <v>2.7098470547443854</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="9"/>
-        <v>1.3948019801980196</v>
+        <v>1.1306391339523061</v>
       </c>
       <c r="T25" s="1">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="U25" s="5">
         <f t="shared" si="5"/>
-        <v>10080</v>
+        <v>14400</v>
       </c>
       <c r="V25" s="12">
         <v>102.33333333333333</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="X25" s="12">
         <v>12.29</v>
@@ -2980,7 +3025,7 @@
         <v>2025</v>
       </c>
       <c r="B26" s="3">
-        <v>45818</v>
+        <v>45813</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -3005,60 +3050,60 @@
         <v>31</v>
       </c>
       <c r="K26" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L26" s="1">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="6"/>
-        <v>1.7574257425742574</v>
+        <v>1.6386138613861385</v>
       </c>
       <c r="N26" s="1">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="2"/>
-        <v>110.95774647887323</v>
+        <v>125.10574018126889</v>
       </c>
       <c r="Q26" s="1">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="8"/>
-        <v>2.7578065498857578</v>
+        <v>2.2061337841101181</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="9"/>
-        <v>1.0003808073115004</v>
+        <v>0.56751992272397955</v>
       </c>
       <c r="T26" s="1">
-        <v>9.5</v>
+        <v>13.7</v>
       </c>
       <c r="U26" s="5">
         <f t="shared" si="5"/>
-        <v>5472</v>
-      </c>
-      <c r="V26" s="13">
+        <v>7891.2</v>
+      </c>
+      <c r="V26" s="12">
         <v>102.33333333333333</v>
       </c>
-      <c r="W26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="13">
+      <c r="W26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" s="12">
         <v>12.29</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="Y26" s="12">
         <v>7.06</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="Z26" s="12">
         <v>3.6533333333333338</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="12">
         <v>1.6366666666666667</v>
       </c>
     </row>
@@ -3067,86 +3112,86 @@
         <v>2025</v>
       </c>
       <c r="B27" s="3">
-        <v>45819</v>
+        <v>45814</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H27" s="1">
         <v>200</v>
       </c>
       <c r="I27" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K27" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L27" s="1">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="6"/>
-        <v>1.4306930693069306</v>
+        <v>1.6237623762376239</v>
       </c>
       <c r="N27" s="1">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ref="O27:O41" si="10">L27-N27</f>
-        <v>147</v>
+        <f t="shared" si="7"/>
+        <v>194</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:P41" si="11">IFERROR(O27/M27,"")</f>
-        <v>102.74740484429066</v>
+        <f t="shared" si="2"/>
+        <v>119.47560975609755</v>
       </c>
       <c r="Q27" s="1">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" ref="R27:R41" si="12">IFERROR(Q27/P27,"")</f>
-        <v>2.5694079612042837</v>
+        <f t="shared" si="8"/>
+        <v>2.8876186587730941</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" ref="S27:S41" si="13">IFERROR(R27-M27,"")</f>
-        <v>1.1387148918973531</v>
+        <f t="shared" si="9"/>
+        <v>1.2638562825354702</v>
       </c>
       <c r="T27" s="1">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" ref="U27:U41" si="14">32*18*T27</f>
-        <v>4752</v>
+        <f t="shared" si="5"/>
+        <v>4896</v>
       </c>
       <c r="V27" s="12">
-        <v>306</v>
+        <v>102.33333333333333</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="X27" s="12">
-        <v>6.0799999999999992</v>
+        <v>12.29</v>
       </c>
       <c r="Y27" s="12">
-        <v>4.1633333333333331</v>
+        <v>7.06</v>
       </c>
       <c r="Z27" s="12">
-        <v>1.4200000000000002</v>
+        <v>3.6533333333333338</v>
       </c>
       <c r="AA27" s="12">
-        <v>1.0733333333333333</v>
+        <v>1.6366666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3154,86 +3199,86 @@
         <v>2025</v>
       </c>
       <c r="B28" s="3">
-        <v>45820</v>
+        <v>45817</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H28" s="1">
         <v>200</v>
       </c>
       <c r="I28" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K28" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L28" s="1">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="6"/>
-        <v>1.4207920792079207</v>
+        <v>1.698019801980198</v>
       </c>
       <c r="N28" s="1">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="10"/>
-        <v>163</v>
+        <f t="shared" si="7"/>
+        <v>196</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="11"/>
-        <v>114.72473867595819</v>
+        <f t="shared" si="2"/>
+        <v>115.42857142857143</v>
       </c>
       <c r="Q28" s="1">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="12"/>
-        <v>2.5626556520682744</v>
+        <f t="shared" si="8"/>
+        <v>3.0928217821782176</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="13"/>
-        <v>1.1418635728603537</v>
+        <f t="shared" si="9"/>
+        <v>1.3948019801980196</v>
       </c>
       <c r="T28" s="1">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="14"/>
-        <v>5414.4000000000005</v>
+        <f t="shared" si="5"/>
+        <v>10080</v>
       </c>
       <c r="V28" s="12">
-        <v>306</v>
+        <v>102.33333333333333</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="X28" s="12">
-        <v>6.0799999999999992</v>
+        <v>12.29</v>
       </c>
       <c r="Y28" s="12">
-        <v>4.1633333333333331</v>
+        <v>7.06</v>
       </c>
       <c r="Z28" s="12">
-        <v>1.4200000000000002</v>
+        <v>3.6533333333333338</v>
       </c>
       <c r="AA28" s="12">
-        <v>1.0733333333333333</v>
+        <v>1.6366666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3241,86 +3286,86 @@
         <v>2025</v>
       </c>
       <c r="B29" s="3">
-        <v>45821</v>
+        <v>45818</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="1">
         <v>200</v>
       </c>
       <c r="I29" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K29" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L29" s="1">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="6"/>
-        <v>1.4207920792079207</v>
+        <v>1.7574257425742574</v>
       </c>
       <c r="N29" s="1">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="10"/>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>195</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="11"/>
-        <v>105.57491289198607</v>
+        <f t="shared" si="2"/>
+        <v>110.95774647887323</v>
       </c>
       <c r="Q29" s="1">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="12"/>
-        <v>2.6426732673267326</v>
+        <f t="shared" si="8"/>
+        <v>2.7578065498857578</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="13"/>
-        <v>1.2218811881188119</v>
+        <f t="shared" si="9"/>
+        <v>1.0003808073115004</v>
       </c>
       <c r="T29" s="1">
-        <v>13.8</v>
+        <v>9.5</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="14"/>
-        <v>7948.8</v>
-      </c>
-      <c r="V29" s="12">
-        <v>306</v>
-      </c>
-      <c r="W29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="X29" s="12">
-        <v>6.0799999999999992</v>
-      </c>
-      <c r="Y29" s="12">
-        <v>4.1633333333333331</v>
-      </c>
-      <c r="Z29" s="12">
-        <v>1.4200000000000002</v>
-      </c>
-      <c r="AA29" s="12">
-        <v>1.0733333333333333</v>
+        <f t="shared" si="5"/>
+        <v>5472</v>
+      </c>
+      <c r="V29" s="13">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X29" s="13">
+        <v>12.29</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>7.06</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>3.6533333333333338</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>1.6366666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3328,7 +3373,7 @@
         <v>2025</v>
       </c>
       <c r="B30" s="3">
-        <v>45824</v>
+        <v>45819</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -3353,49 +3398,49 @@
         <v>42</v>
       </c>
       <c r="K30" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L30" s="1">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="6"/>
-        <v>1.4158415841584158</v>
+        <v>1.4306930693069306</v>
       </c>
       <c r="N30" s="1">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="10"/>
-        <v>177</v>
+        <f t="shared" ref="O30:O45" si="10">L30-N30</f>
+        <v>147</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="11"/>
-        <v>125.01398601398603</v>
+        <f t="shared" ref="P30:P45" si="11">IFERROR(O30/M30,"")</f>
+        <v>102.74740484429066</v>
       </c>
       <c r="Q30" s="1">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="12"/>
-        <v>2.4557252335403028</v>
+        <f t="shared" ref="R30:R45" si="12">IFERROR(Q30/P30,"")</f>
+        <v>2.5694079612042837</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="13"/>
-        <v>1.039883649381887</v>
+        <f t="shared" ref="S30:S45" si="13">IFERROR(R30-M30,"")</f>
+        <v>1.1387148918973531</v>
       </c>
       <c r="T30" s="1">
-        <v>17.8</v>
+        <v>8.25</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="14"/>
-        <v>10252.800000000001</v>
+        <f t="shared" ref="U30:U45" si="14">32*18*T30</f>
+        <v>4752</v>
       </c>
       <c r="V30" s="12">
         <v>306</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X30" s="12">
         <v>6.0799999999999992</v>
@@ -3415,7 +3460,7 @@
         <v>2025</v>
       </c>
       <c r="B31" s="3">
-        <v>45825</v>
+        <v>45820</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -3440,49 +3485,49 @@
         <v>42</v>
       </c>
       <c r="K31" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M31" s="4">
         <f t="shared" si="6"/>
-        <v>1.4108910891089108</v>
+        <v>1.4207920792079207</v>
       </c>
       <c r="N31" s="1">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" si="10"/>
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="11"/>
-        <v>141.04561403508774</v>
+        <v>114.72473867595819</v>
       </c>
       <c r="Q31" s="1">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" si="12"/>
-        <v>2.417657594905219</v>
+        <v>2.5626556520682744</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="13"/>
-        <v>1.0067665057963082</v>
+        <v>1.1418635728603537</v>
       </c>
       <c r="T31" s="1">
-        <v>10.75</v>
+        <v>9.4</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" si="14"/>
-        <v>6192</v>
+        <v>5414.4000000000005</v>
       </c>
       <c r="V31" s="12">
         <v>306</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X31" s="12">
         <v>6.0799999999999992</v>
@@ -3502,17 +3547,17 @@
         <v>2025</v>
       </c>
       <c r="B32" s="3">
-        <v>45826</v>
+        <v>45821</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>41</v>
@@ -3521,73 +3566,85 @@
         <v>200</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K32" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" s="1">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="M32" s="4">
         <f t="shared" si="6"/>
-        <v>1.301980198019802</v>
+        <v>1.4207920792079207</v>
       </c>
       <c r="N32" s="1">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="10"/>
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="11"/>
-        <v>142.09125475285171</v>
+        <v>105.57491289198607</v>
       </c>
       <c r="Q32" s="1">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="R32" s="4">
         <f t="shared" si="12"/>
-        <v>2.1746588172330745</v>
+        <v>2.6426732673267326</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="13"/>
-        <v>0.8726786192132725</v>
+        <v>1.2218811881188119</v>
       </c>
       <c r="T32" s="1">
-        <v>9.5</v>
+        <v>13.8</v>
       </c>
       <c r="U32" s="5">
         <f t="shared" si="14"/>
-        <v>5472</v>
-      </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
+        <v>7948.8</v>
+      </c>
+      <c r="V32" s="12">
+        <v>306</v>
+      </c>
+      <c r="W32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X32" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z32" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>2025</v>
       </c>
       <c r="B33" s="3">
-        <v>45827</v>
+        <v>45824</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>41</v>
@@ -3596,73 +3653,85 @@
         <v>200</v>
       </c>
       <c r="I33" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K33" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L33" s="1">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" si="6"/>
-        <v>1.306930693069307</v>
+        <v>1.4158415841584158</v>
       </c>
       <c r="N33" s="1">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="10"/>
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="11"/>
-        <v>140.02272727272728</v>
+        <v>125.01398601398603</v>
       </c>
       <c r="Q33" s="1">
-        <v>383</v>
+        <v>307</v>
       </c>
       <c r="R33" s="4">
         <f t="shared" si="12"/>
-        <v>2.7352702483363087</v>
+        <v>2.4557252335403028</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="13"/>
-        <v>1.4283395552670017</v>
+        <v>1.039883649381887</v>
       </c>
       <c r="T33" s="1">
-        <v>10.1</v>
+        <v>17.8</v>
       </c>
       <c r="U33" s="5">
         <f t="shared" si="14"/>
-        <v>5817.5999999999995</v>
-      </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
+        <v>10252.800000000001</v>
+      </c>
+      <c r="V33" s="12">
+        <v>306</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X33" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>2025</v>
       </c>
       <c r="B34" s="3">
-        <v>45828</v>
+        <v>45825</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>41</v>
@@ -3671,137 +3740,134 @@
         <v>200</v>
       </c>
       <c r="I34" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K34" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L34" s="1">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M34" s="4">
         <f t="shared" si="6"/>
-        <v>1.2920792079207921</v>
+        <v>1.4108910891089108</v>
       </c>
       <c r="N34" s="1">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="10"/>
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="11"/>
-        <v>167.17241379310343</v>
+        <v>141.04561403508774</v>
       </c>
       <c r="Q34" s="1">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="R34" s="4">
         <f t="shared" si="12"/>
-        <v>2.4047029702970302</v>
+        <v>2.417657594905219</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="13"/>
-        <v>1.1126237623762381</v>
+        <v>1.0067665057963082</v>
       </c>
       <c r="T34" s="1">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U34" s="5">
         <f t="shared" si="14"/>
-        <v>6336</v>
-      </c>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
+        <v>6192</v>
+      </c>
+      <c r="V34" s="12">
+        <v>306</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X34" s="12">
+        <v>6.0799999999999992</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AA34" s="12">
+        <v>1.0733333333333333</v>
+      </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>2025</v>
       </c>
       <c r="B35" s="3">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H35" s="1">
         <v>200</v>
       </c>
       <c r="I35" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="1">
-        <v>18</v>
-      </c>
-      <c r="L35" s="1">
-        <v>426</v>
-      </c>
-      <c r="M35" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="N35" s="1">
-        <v>128</v>
-      </c>
-      <c r="O35" s="5">
-        <f t="shared" si="10"/>
-        <v>298</v>
-      </c>
-      <c r="P35" s="4">
-        <f t="shared" si="11"/>
-        <v>229.23076923076923</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>500</v>
-      </c>
-      <c r="R35" s="4">
-        <f>IFERROR(Q35/P35,"")</f>
-        <v>2.1812080536912752</v>
-      </c>
-      <c r="S35" s="4">
-        <f t="shared" si="13"/>
-        <v>0.88120805369127519</v>
-      </c>
-      <c r="T35" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="U35" s="5">
-        <f t="shared" si="14"/>
-        <v>9734.4</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="16">
+        <v>418</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X35" s="16">
+        <v>11.39</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>4.53</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
       <c r="B36" s="3">
-        <v>45832</v>
+        <v>45826</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
@@ -3825,60 +3891,68 @@
       <c r="J36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1">
+        <v>13</v>
+      </c>
       <c r="L36" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M36" s="4">
         <f t="shared" si="6"/>
-        <v>1.306930693069307</v>
-      </c>
-      <c r="N36" s="1"/>
+        <v>1.301980198019802</v>
+      </c>
+      <c r="N36" s="1">
+        <v>78</v>
+      </c>
       <c r="O36" s="5">
         <f t="shared" si="10"/>
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="P36" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q36" s="1"/>
+        <v>142.09125475285171</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>309</v>
+      </c>
       <c r="R36" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.1746588172330745</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" si="13"/>
-        <v>-1.306930693069307</v>
-      </c>
-      <c r="T36" s="1"/>
+        <v>0.8726786192132725</v>
+      </c>
+      <c r="T36" s="1">
+        <v>9.5</v>
+      </c>
       <c r="U36" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
+        <v>5472</v>
+      </c>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>2025</v>
       </c>
       <c r="B37" s="3">
-        <v>45833</v>
+        <v>45827</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>41</v>
@@ -3892,34 +3966,44 @@
       <c r="J37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="K37" s="1">
+        <v>14</v>
+      </c>
+      <c r="L37" s="1">
+        <v>264</v>
+      </c>
       <c r="M37" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="1"/>
+        <v>1.306930693069307</v>
+      </c>
+      <c r="N37" s="1">
+        <v>81</v>
+      </c>
       <c r="O37" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="4" t="str">
+        <v>183</v>
+      </c>
+      <c r="P37" s="4">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="4" t="str">
+        <v>140.02272727272728</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>383</v>
+      </c>
+      <c r="R37" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S37" s="4" t="str">
+        <v>2.7352702483363087</v>
+      </c>
+      <c r="S37" s="4">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T37" s="1"/>
+        <v>1.4283395552670017</v>
+      </c>
+      <c r="T37" s="1">
+        <v>10.1</v>
+      </c>
       <c r="U37" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5817.5999999999995</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -3933,17 +4017,17 @@
         <v>2025</v>
       </c>
       <c r="B38" s="3">
-        <v>45834</v>
+        <v>45828</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>41</v>
@@ -3957,34 +4041,44 @@
       <c r="J38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="K38" s="1">
+        <v>17</v>
+      </c>
+      <c r="L38" s="1">
+        <v>261</v>
+      </c>
       <c r="M38" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="1"/>
+        <v>1.2920792079207921</v>
+      </c>
+      <c r="N38" s="1">
+        <v>45</v>
+      </c>
       <c r="O38" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="4" t="str">
+        <v>216</v>
+      </c>
+      <c r="P38" s="4">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="4" t="str">
+        <v>167.17241379310343</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>402</v>
+      </c>
+      <c r="R38" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S38" s="4" t="str">
+        <v>2.4047029702970302</v>
+      </c>
+      <c r="S38" s="4">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T38" s="1"/>
+        <v>1.1126237623762381</v>
+      </c>
+      <c r="T38" s="1">
+        <v>11</v>
+      </c>
       <c r="U38" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -3998,17 +4092,17 @@
         <v>2025</v>
       </c>
       <c r="B39" s="3">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>41</v>
@@ -4022,34 +4116,43 @@
       <c r="J39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="K39" s="1">
+        <v>18</v>
+      </c>
+      <c r="L39" s="1">
+        <v>426</v>
+      </c>
       <c r="M39" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="N39" s="1">
+        <v>128</v>
+      </c>
       <c r="O39" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="4" t="str">
+        <v>298</v>
+      </c>
+      <c r="P39" s="4">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S39" s="4" t="str">
+        <v>229.23076923076923</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>500</v>
+      </c>
+      <c r="R39" s="4">
+        <f>IFERROR(Q39/P39,"")</f>
+        <v>2.1812080536912752</v>
+      </c>
+      <c r="S39" s="4">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T39" s="1"/>
+        <v>0.88120805369127519</v>
+      </c>
+      <c r="T39" s="1">
+        <v>16.899999999999999</v>
+      </c>
       <c r="U39" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9734.4</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -4063,17 +4166,17 @@
         <v>2025</v>
       </c>
       <c r="B40" s="3">
-        <v>45838</v>
+        <v>45832</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>41</v>
@@ -4087,34 +4190,44 @@
       <c r="J40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="K40" s="1">
+        <v>16</v>
+      </c>
+      <c r="L40" s="1">
+        <v>264</v>
+      </c>
       <c r="M40" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="1"/>
+        <v>1.306930693069307</v>
+      </c>
+      <c r="N40" s="1">
+        <v>77</v>
+      </c>
       <c r="O40" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="4" t="str">
+        <v>187</v>
+      </c>
+      <c r="P40" s="4">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="4" t="str">
+        <v>143.08333333333331</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>321</v>
+      </c>
+      <c r="R40" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S40" s="4" t="str">
+        <v>2.2434478741991848</v>
+      </c>
+      <c r="S40" s="4">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T40" s="1"/>
+        <v>0.93651718112987781</v>
+      </c>
+      <c r="T40" s="1">
+        <v>7.25</v>
+      </c>
       <c r="U40" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4176</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -4128,7 +4241,7 @@
         <v>2025</v>
       </c>
       <c r="B41" s="3">
-        <v>45839</v>
+        <v>45833</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
@@ -4153,28 +4266,30 @@
         <v>46</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1">
+        <v>360</v>
+      </c>
       <c r="M41" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7821782178217822</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="5">
         <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P41" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S41" s="4" t="str">
+      <c r="S41" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.7821782178217822</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="5">
@@ -4188,6 +4303,266 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="1">
+        <v>200</v>
+      </c>
+      <c r="I42" s="1">
+        <v>30</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S42" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45835</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="1">
+        <v>200</v>
+      </c>
+      <c r="I43" s="1">
+        <v>30</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S43" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45838</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="1">
+        <v>200</v>
+      </c>
+      <c r="I44" s="1">
+        <v>30</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S44" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45839</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="1">
+        <v>200</v>
+      </c>
+      <c r="I45" s="1">
+        <v>30</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S45" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1108AB3A-07D1-493B-B1E5-098161330388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E6D4C-B8B1-4891-BDF1-885207984BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -982,35 +982,35 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -4265,7 +4265,9 @@
       <c r="J41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1">
+        <v>12</v>
+      </c>
       <c r="L41" s="1">
         <v>360</v>
       </c>
@@ -4273,28 +4275,34 @@
         <f t="shared" si="6"/>
         <v>1.7821782178217822</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>174</v>
+      </c>
       <c r="O41" s="5">
         <f t="shared" si="10"/>
-        <v>360</v>
+        <v>186</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q41" s="1"/>
+        <v>104.36666666666666</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>285</v>
+      </c>
       <c r="R41" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.7307569466624084</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="13"/>
-        <v>-1.7821782178217822</v>
-      </c>
-      <c r="T41" s="1"/>
+        <v>0.94857872884062622</v>
+      </c>
+      <c r="T41" s="1">
+        <v>12.9</v>
+      </c>
       <c r="U41" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7430.4000000000005</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
@@ -4332,34 +4340,44 @@
       <c r="J42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="K42" s="1">
+        <v>13</v>
+      </c>
+      <c r="L42" s="1">
+        <v>359</v>
+      </c>
       <c r="M42" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="1"/>
+        <v>1.7772277227722773</v>
+      </c>
+      <c r="N42" s="1">
+        <v>198</v>
+      </c>
       <c r="O42" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="4" t="str">
+        <v>161</v>
+      </c>
+      <c r="P42" s="4">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="4" t="str">
+        <v>90.590529247910865</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>263</v>
+      </c>
+      <c r="R42" s="4">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S42" s="4" t="str">
+        <v>2.9031732365783163</v>
+      </c>
+      <c r="S42" s="4">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T42" s="1"/>
+        <v>1.125945513806039</v>
+      </c>
+      <c r="T42" s="1">
+        <v>19.75</v>
+      </c>
       <c r="U42" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11376</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -4398,28 +4416,30 @@
         <v>46</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1">
+        <v>360</v>
+      </c>
       <c r="M43" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7821782178217822</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="5">
         <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P43" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S43" s="4" t="str">
+      <c r="S43" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.7821782178217822</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E6D4C-B8B1-4891-BDF1-885207984BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FDB41-7DB6-4D4A-854C-706AE900FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -982,35 +982,35 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -4415,7 +4415,9 @@
       <c r="J43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1">
+        <v>9</v>
+      </c>
       <c r="L43" s="1">
         <v>360</v>
       </c>
@@ -4423,28 +4425,34 @@
         <f t="shared" si="6"/>
         <v>1.7821782178217822</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>171</v>
+      </c>
       <c r="O43" s="5">
         <f t="shared" si="10"/>
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q43" s="1"/>
+        <v>106.05</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>318</v>
+      </c>
       <c r="R43" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.9985855728429986</v>
       </c>
       <c r="S43" s="4">
         <f t="shared" si="13"/>
-        <v>-1.7821782178217822</v>
-      </c>
-      <c r="T43" s="1"/>
+        <v>1.2164073550212164</v>
+      </c>
+      <c r="T43" s="1">
+        <v>12</v>
+      </c>
       <c r="U43" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6912</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -4483,28 +4491,30 @@
         <v>46</v>
       </c>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1">
+        <v>361</v>
+      </c>
       <c r="M44" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7871287128712872</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="5">
         <f t="shared" si="10"/>
+        <v>361</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P44" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S44" s="4" t="str">
+      <c r="S44" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.7871287128712872</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="5">
@@ -4548,28 +4558,30 @@
         <v>46</v>
       </c>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1">
+        <v>367</v>
+      </c>
       <c r="M45" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8168316831683169</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="5">
         <f t="shared" si="10"/>
+        <v>367</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P45" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S45" s="4" t="str">
+      <c r="S45" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.8168316831683169</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FDB41-7DB6-4D4A-854C-706AE900FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809B681-C84D-4A7B-8619-CEA1D6FCBD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,13 +979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4490,7 +4490,9 @@
       <c r="J44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1">
+        <v>14</v>
+      </c>
       <c r="L44" s="1">
         <v>361</v>
       </c>
@@ -4498,28 +4500,34 @@
         <f t="shared" si="6"/>
         <v>1.7871287128712872</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>159</v>
+      </c>
       <c r="O44" s="5">
         <f t="shared" si="10"/>
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="P44" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q44" s="1"/>
+        <v>113.03047091412742</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>308</v>
+      </c>
       <c r="R44" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.7249289285364182</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="13"/>
-        <v>-1.7871287128712872</v>
-      </c>
-      <c r="T44" s="1"/>
+        <v>0.93780021566513105</v>
+      </c>
+      <c r="T44" s="1">
+        <v>6.5</v>
+      </c>
       <c r="U44" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3744</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
@@ -4595,6 +4603,261 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45840</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="4">
+        <f t="shared" ref="M46" si="15">L46/(H46+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="5">
+        <f t="shared" ref="O46" si="16">L46-N46</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="4" t="str">
+        <f t="shared" ref="P46" si="17">IFERROR(O46/M46,"")</f>
+        <v/>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="4" t="str">
+        <f t="shared" ref="R46" si="18">IFERROR(Q46/P46,"")</f>
+        <v/>
+      </c>
+      <c r="S46" s="4" t="str">
+        <f t="shared" ref="S46" si="19">IFERROR(R46-M46,"")</f>
+        <v/>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="5">
+        <f t="shared" ref="U46" si="20">32*18*T46</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45841</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="4">
+        <f t="shared" ref="M47:M50" si="21">L47/(H47+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="5">
+        <f t="shared" ref="O47:O50" si="22">L47-N47</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="4" t="str">
+        <f t="shared" ref="P47:P50" si="23">IFERROR(O47/M47,"")</f>
+        <v/>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="4" t="str">
+        <f t="shared" ref="R47:R50" si="24">IFERROR(Q47/P47,"")</f>
+        <v/>
+      </c>
+      <c r="S47" s="4" t="str">
+        <f t="shared" ref="S47:S50" si="25">IFERROR(R47-M47,"")</f>
+        <v/>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="5">
+        <f t="shared" ref="U47:U50" si="26">32*18*T47</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45842</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S48" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45845</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S49" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45846</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="4">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S50" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809B681-C84D-4A7B-8619-CEA1D6FCBD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F32424-CC5A-4B20-B925-9486E0ED3643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,13 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="80">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
       <t>ホジュウヒン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1枚重量</t>
@@ -50,7 +50,7 @@
     <rPh sb="2" eb="4">
       <t>ジュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>未使用分回収</t>
@@ -60,7 +60,7 @@
     <rPh sb="4" eb="6">
       <t>カイシュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>使用重量</t>
@@ -70,7 +70,7 @@
     <rPh sb="2" eb="4">
       <t>ジュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>推定使用枚数</t>
@@ -83,7 +83,7 @@
     <rPh sb="4" eb="6">
       <t>マイスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾄｲﾚ後回収重量</t>
@@ -96,7 +96,7 @@
     <rPh sb="6" eb="8">
       <t>ジュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾄｲﾚ後1枚重量</t>
@@ -109,7 +109,7 @@
     <rPh sb="6" eb="8">
       <t>ジュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>吸水量</t>
@@ -119,7 +119,7 @@
     <rPh sb="2" eb="3">
       <t>リョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>平均高</t>
@@ -129,64 +129,64 @@
     <rPh sb="2" eb="3">
       <t>タカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>容積（32×18）</t>
     <rPh sb="0" eb="2">
       <t>ヨウセキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新エルナ</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>旧エルナ</t>
     <rPh sb="0" eb="1">
       <t>キュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>商品コード</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>商品名</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>略称</t>
     <rPh sb="0" eb="2">
       <t>リャクショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>紙ﾀｵﾙ ｴﾙﾅ(200枚) ER</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>紙ﾀｵﾙ ｴﾙﾅ(200枚) ER *</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>紙ﾀｵﾙ ｵｰｼｬﾝ(200枚) PO</t>
@@ -196,21 +196,21 @@
     <rPh sb="23" eb="24">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾘｳﾞｨﾍﾟｰﾊﾟｰﾀｵﾙ200枚</t>
     <rPh sb="16" eb="17">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾒｰｶｰ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>事務所人数</t>
@@ -220,7 +220,7 @@
     <rPh sb="3" eb="5">
       <t>ニンズウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>太洋紙業株式会社</t>
@@ -230,48 +230,48 @@
     <rPh sb="4" eb="8">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>サイズ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>230×220</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>230×176</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>枚数</t>
     <rPh sb="0" eb="2">
       <t>マイスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入数</t>
     <rPh sb="0" eb="2">
       <t>イリスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>205×220</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ユニバーサルペーパー株式会社</t>
     <rPh sb="10" eb="14">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>215×220</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>月日</t>
@@ -281,47 +281,47 @@
     <rPh sb="1" eb="2">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>26gパルプ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>24gパルプ300枚</t>
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>日本</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>インドネシア</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原産国</t>
     <rPh sb="0" eb="3">
       <t>ゲンサンコク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>35gパルプ200枚</t>
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Recona(ﾚｺﾅ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>株式会社オフィス司</t>
@@ -331,22 +331,22 @@
     <rPh sb="8" eb="9">
       <t>ツカサ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>中国</t>
     <rPh sb="0" eb="2">
       <t>チュウゴク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>225×210</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾍﾟｰﾊﾟｰﾀｵﾙ（ｴｺﾉﾐｰﾀｲﾌﾟ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大和物産株式会社</t>
@@ -356,29 +356,29 @@
     <rPh sb="4" eb="8">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>26gパルプ200枚</t>
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>225×220</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾍﾟｰﾊﾟｰﾀｵﾙ（ﾚｷﾞｭﾗｰﾀｲﾌﾟ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>36gパルプ200枚</t>
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30g再生紙200枚</t>
@@ -388,7 +388,7 @@
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>吸水度（秒）</t>
@@ -398,7 +398,7 @@
     <rPh sb="4" eb="5">
       <t>ビョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>吸水度（分）</t>
@@ -408,7 +408,7 @@
     <rPh sb="4" eb="5">
       <t>フン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>乾燥引張（縦）</t>
@@ -421,7 +421,7 @@
     <rPh sb="5" eb="6">
       <t>タテ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>乾燥引張（横）</t>
@@ -434,7 +434,7 @@
     <rPh sb="5" eb="6">
       <t>ヨコ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>湿潤引張（縦）</t>
@@ -447,7 +447,7 @@
     <rPh sb="5" eb="6">
       <t>タテ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>湿潤引張（横）</t>
@@ -460,33 +460,33 @@
     <rPh sb="5" eb="6">
       <t>ヨコ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>紙ﾀｵﾙ ﾊﾟﾋﾟｰ(200枚) HR</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>38g再生紙</t>
     <rPh sb="3" eb="6">
       <t>サイセイシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>紙ﾀｵﾙ ﾚﾅｰｼﾞｭEX(200枚) 35入 HR</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>31g再生紙</t>
     <rPh sb="3" eb="6">
       <t>サイセイシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ｴﾙｳﾞｪｰﾙｴｺｽﾏｰﾄ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大王製紙株式会社</t>
@@ -496,26 +496,26 @@
     <rPh sb="4" eb="8">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30.5g再生紙</t>
     <rPh sb="5" eb="8">
       <t>サイセイシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>230×210</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2'07</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾀｳﾊﾟｰｴｺﾏｯｸｽM</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>日本製紙クレシア株式会社</t>
@@ -525,7 +525,7 @@
     <rPh sb="8" eb="12">
       <t>カブシキガイシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30g(段)再生紙200枚</t>
@@ -538,51 +538,89 @@
     <rPh sb="12" eb="13">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1'24</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7'50</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1'11</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1'53</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1'41</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1'42</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5'06</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7'58</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｸﾘｭﾎﾜｲﾄ(200枚)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春日製紙株式会社</t>
+    <rPh sb="0" eb="2">
+      <t>カスガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カブシキカイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40ｇ再生紙200枚</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09962690</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -657,10 +695,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -692,9 +733,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{D204B6F9-58FC-429E-848A-2A57A2F54D5F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,10 +1027,10 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4610,42 +4655,68 @@
       <c r="B46" s="3">
         <v>45840</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="C46" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1">
+        <v>200</v>
+      </c>
+      <c r="I46" s="1">
+        <v>30</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="1">
+        <v>18</v>
+      </c>
+      <c r="L46" s="1">
+        <v>410</v>
+      </c>
       <c r="M46" s="4">
         <f t="shared" ref="M46" si="15">L46/(H46+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>2.0297029702970297</v>
+      </c>
+      <c r="N46" s="1">
+        <v>207</v>
+      </c>
       <c r="O46" s="5">
         <f t="shared" ref="O46" si="16">L46-N46</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="4" t="str">
+        <v>203</v>
+      </c>
+      <c r="P46" s="4">
         <f t="shared" ref="P46" si="17">IFERROR(O46/M46,"")</f>
-        <v/>
-      </c>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="4" t="str">
+        <v>100.01463414634146</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>333</v>
+      </c>
+      <c r="R46" s="4">
         <f t="shared" ref="R46" si="18">IFERROR(Q46/P46,"")</f>
-        <v/>
-      </c>
-      <c r="S46" s="4" t="str">
+        <v>3.3295127542310881</v>
+      </c>
+      <c r="S46" s="4">
         <f t="shared" ref="S46" si="19">IFERROR(R46-M46,"")</f>
-        <v/>
-      </c>
-      <c r="T46" s="1"/>
+        <v>1.2998097839340583</v>
+      </c>
+      <c r="T46" s="1">
+        <v>17.05</v>
+      </c>
       <c r="U46" s="5">
         <f t="shared" ref="U46" si="20">32*18*T46</f>
-        <v>0</v>
+        <v>9820.8000000000011</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -4661,37 +4732,55 @@
       <c r="B47" s="3">
         <v>45841</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="C47" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="1">
+        <v>200</v>
+      </c>
+      <c r="I47" s="1">
+        <v>30</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1">
+        <v>410</v>
+      </c>
       <c r="M47" s="4">
         <f t="shared" ref="M47:M50" si="21">L47/(H47+2)</f>
-        <v>0</v>
+        <v>2.0297029702970297</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="5">
         <f t="shared" ref="O47:O50" si="22">L47-N47</f>
+        <v>410</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" ref="P47:P50" si="23">IFERROR(O47/M47,"")</f>
+        <v>202</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="4">
+        <f t="shared" ref="R47:R50" si="24">IFERROR(Q47/P47,"")</f>
         <v>0</v>
       </c>
-      <c r="P47" s="4" t="str">
-        <f t="shared" ref="P47:P50" si="23">IFERROR(O47/M47,"")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="4" t="str">
-        <f t="shared" ref="R47:R50" si="24">IFERROR(Q47/P47,"")</f>
-        <v/>
-      </c>
-      <c r="S47" s="4" t="str">
+      <c r="S47" s="4">
         <f t="shared" ref="S47:S50" si="25">IFERROR(R47-M47,"")</f>
-        <v/>
+        <v>-2.0297029702970297</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="5">
@@ -4859,7 +4948,7 @@
       <c r="AA50" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F32424-CC5A-4B20-B925-9486E0ED3643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A5AACC-2AF5-4C16-8118-928DE5BA745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="80">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -1027,10 +1027,10 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4756,7 +4756,9 @@
       <c r="J47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1">
+        <v>18</v>
+      </c>
       <c r="L47" s="1">
         <v>410</v>
       </c>
@@ -4764,28 +4766,34 @@
         <f t="shared" ref="M47:M50" si="21">L47/(H47+2)</f>
         <v>2.0297029702970297</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <v>179</v>
+      </c>
       <c r="O47" s="5">
         <f t="shared" ref="O47:O50" si="22">L47-N47</f>
-        <v>410</v>
+        <v>231</v>
       </c>
       <c r="P47" s="4">
         <f t="shared" ref="P47:P50" si="23">IFERROR(O47/M47,"")</f>
-        <v>202</v>
-      </c>
-      <c r="Q47" s="1"/>
+        <v>113.80975609756098</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>382</v>
+      </c>
       <c r="R47" s="4">
         <f t="shared" ref="R47:R50" si="24">IFERROR(Q47/P47,"")</f>
-        <v>0</v>
+        <v>3.3564785049933565</v>
       </c>
       <c r="S47" s="4">
         <f t="shared" ref="S47:S50" si="25">IFERROR(R47-M47,"")</f>
-        <v>-2.0297029702970297</v>
-      </c>
-      <c r="T47" s="1"/>
+        <v>1.3267755346963268</v>
+      </c>
+      <c r="T47" s="1">
+        <v>23.35</v>
+      </c>
       <c r="U47" s="5">
         <f t="shared" ref="U47:U50" si="26">32*18*T47</f>
-        <v>0</v>
+        <v>13449.6</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -4801,37 +4809,55 @@
       <c r="B48" s="3">
         <v>45842</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="C48" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="1">
+        <v>200</v>
+      </c>
+      <c r="I48" s="1">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1">
+        <v>418</v>
+      </c>
       <c r="M48" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.0693069306930694</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="5">
         <f t="shared" si="22"/>
+        <v>418</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="23"/>
+        <v>202</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="4">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P48" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="S48" s="4" t="str">
+      <c r="S48" s="4">
         <f t="shared" si="25"/>
-        <v/>
+        <v>-2.0693069306930694</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A5AACC-2AF5-4C16-8118-928DE5BA745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD99F05-5304-4CB4-A2D9-6737A84CEC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -1024,13 +1024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4833,7 +4833,9 @@
       <c r="J48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1">
+        <v>16</v>
+      </c>
       <c r="L48" s="1">
         <v>418</v>
       </c>
@@ -4841,28 +4843,34 @@
         <f t="shared" si="21"/>
         <v>2.0693069306930694</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>223</v>
+      </c>
       <c r="O48" s="5">
         <f t="shared" si="22"/>
-        <v>418</v>
+        <v>195</v>
       </c>
       <c r="P48" s="4">
         <f t="shared" si="23"/>
-        <v>202</v>
-      </c>
-      <c r="Q48" s="1"/>
+        <v>94.234449760765543</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>342</v>
+      </c>
       <c r="R48" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3.6292460015232297</v>
       </c>
       <c r="S48" s="4">
         <f t="shared" si="25"/>
-        <v>-2.0693069306930694</v>
-      </c>
-      <c r="T48" s="1"/>
+        <v>1.5599390708301604</v>
+      </c>
+      <c r="T48" s="1">
+        <v>13</v>
+      </c>
       <c r="U48" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>7488</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
@@ -4878,37 +4886,55 @@
       <c r="B49" s="3">
         <v>45845</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="C49" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="1">
+        <v>200</v>
+      </c>
+      <c r="I49" s="1">
+        <v>30</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1">
+        <v>417</v>
+      </c>
       <c r="M49" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.0643564356435644</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="5">
         <f t="shared" si="22"/>
+        <v>417</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="23"/>
+        <v>202</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="4">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P49" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="S49" s="4" t="str">
+      <c r="S49" s="4">
         <f t="shared" si="25"/>
-        <v/>
+        <v>-2.0643564356435644</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="5">
@@ -4973,6 +4999,159 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="4">
+        <f t="shared" ref="M51:M53" si="27">L51/(H51+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="5">
+        <f t="shared" ref="O51:O53" si="28">L51-N51</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="4" t="str">
+        <f t="shared" ref="P51:P53" si="29">IFERROR(O51/M51,"")</f>
+        <v/>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="4" t="str">
+        <f t="shared" ref="R51:R53" si="30">IFERROR(Q51/P51,"")</f>
+        <v/>
+      </c>
+      <c r="S51" s="4" t="str">
+        <f t="shared" ref="S51:S53" si="31">IFERROR(R51-M51,"")</f>
+        <v/>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="5">
+        <f t="shared" ref="U51:U53" si="32">32*18*T51</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45848</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="S52" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45849</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="S53" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="T53" s="1"/>
+      <c r="U53" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD99F05-5304-4CB4-A2D9-6737A84CEC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7795C6-9004-47E5-AD84-BF1A1783512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="91">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -601,6 +601,89 @@
   </si>
   <si>
     <t>09962690</t>
+  </si>
+  <si>
+    <t>アスクル株式会社</t>
+    <rPh sb="4" eb="8">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>33g再生紙200枚</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｱｽｸﾙ ﾍﾟｰﾊﾟｰﾀｵﾙ ｼﾝｸﾞﾙ中判（EBS）</t>
+    <rPh sb="20" eb="22">
+      <t>チュウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｱｽｸﾙ ﾍﾟｰﾊﾟｰﾀｵﾙ ｼﾝｸﾞﾙ中判ｸﾗﾌﾄ</t>
+    <rPh sb="20" eb="22">
+      <t>チュウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>28g再生紙300枚</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｱｽｸﾙ ﾍﾟｰﾊﾟｰﾀｵﾙ ｼﾝｸﾞﾙ小判（EBS）</t>
+    <rPh sb="20" eb="22">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>39g再生紙200枚</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>170×220</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｸﾘｭﾗｲﾄｴｺﾉﾐｰ（200枚）</t>
+    <rPh sb="16" eb="17">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>38g再生紙200枚</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09962830</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -701,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -736,6 +819,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1024,13 +1108,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
+      <selection pane="bottomRight" activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4910,7 +4994,9 @@
       <c r="J49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1">
+        <v>14</v>
+      </c>
       <c r="L49" s="1">
         <v>417</v>
       </c>
@@ -4918,28 +5004,34 @@
         <f t="shared" si="21"/>
         <v>2.0643564356435644</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>117</v>
+      </c>
       <c r="O49" s="5">
         <f t="shared" si="22"/>
-        <v>417</v>
+        <v>300</v>
       </c>
       <c r="P49" s="4">
         <f t="shared" si="23"/>
-        <v>202</v>
-      </c>
-      <c r="Q49" s="1"/>
+        <v>145.32374100719423</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>455</v>
+      </c>
       <c r="R49" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3.1309405940594064</v>
       </c>
       <c r="S49" s="4">
         <f t="shared" si="25"/>
-        <v>-2.0643564356435644</v>
-      </c>
-      <c r="T49" s="1"/>
+        <v>1.066584158415842</v>
+      </c>
+      <c r="T49" s="1">
+        <v>21.95</v>
+      </c>
       <c r="U49" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>12643.199999999999</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
@@ -4956,36 +5048,52 @@
         <v>45846</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="1">
+        <v>200</v>
+      </c>
+      <c r="I50" s="1">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="L50" s="1">
+        <v>336</v>
+      </c>
       <c r="M50" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.6633663366336633</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="4" t="str">
+        <v>336</v>
+      </c>
+      <c r="P50" s="4">
         <f t="shared" si="23"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q50" s="1"/>
-      <c r="R50" s="4" t="str">
+      <c r="R50" s="4">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="S50" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
         <f t="shared" si="25"/>
-        <v/>
+        <v>-1.6633663366336633</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="5">
@@ -5001,19 +5109,33 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B51" s="3">
         <v>45847</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="1">
+        <v>200</v>
+      </c>
+      <c r="I51" s="1">
+        <v>30</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="4">
@@ -5052,19 +5174,33 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B52" s="3">
         <v>45848</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1">
+        <v>200</v>
+      </c>
+      <c r="I52" s="1">
+        <v>30</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="4">
@@ -5103,19 +5239,33 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="B53" s="3">
         <v>45849</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1">
+        <v>200</v>
+      </c>
+      <c r="I53" s="1">
+        <v>30</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="4">
@@ -5152,6 +5302,1151 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45852</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="1">
+        <v>300</v>
+      </c>
+      <c r="I54" s="1">
+        <v>25</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="4">
+        <f t="shared" ref="M54:M61" si="33">L54/(H54+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="5">
+        <f t="shared" ref="O54:O61" si="34">L54-N54</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="4" t="str">
+        <f t="shared" ref="P54:P61" si="35">IFERROR(O54/M54,"")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="4" t="str">
+        <f t="shared" ref="R54:R61" si="36">IFERROR(Q54/P54,"")</f>
+        <v/>
+      </c>
+      <c r="S54" s="4" t="str">
+        <f t="shared" ref="S54:S61" si="37">IFERROR(R54-M54,"")</f>
+        <v/>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="5">
+        <f t="shared" ref="U54:U61" si="38">32*18*T54</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45853</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="1">
+        <v>300</v>
+      </c>
+      <c r="I55" s="1">
+        <v>25</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S55" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45854</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="1">
+        <v>300</v>
+      </c>
+      <c r="I56" s="1">
+        <v>25</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S56" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45855</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="1">
+        <v>300</v>
+      </c>
+      <c r="I57" s="1">
+        <v>25</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S57" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45856</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="1">
+        <v>200</v>
+      </c>
+      <c r="I58" s="1">
+        <v>42</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S58" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45860</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="1">
+        <v>200</v>
+      </c>
+      <c r="I59" s="1">
+        <v>42</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S59" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45861</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="1">
+        <v>200</v>
+      </c>
+      <c r="I60" s="1">
+        <v>42</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S60" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45862</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="1">
+        <v>200</v>
+      </c>
+      <c r="I61" s="1">
+        <v>42</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="4">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S61" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45863</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="1">
+        <v>200</v>
+      </c>
+      <c r="I62" s="1">
+        <v>42</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="4">
+        <f t="shared" ref="M62:M65" si="39">L62/(H62+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="5">
+        <f t="shared" ref="O62:O65" si="40">L62-N62</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="4" t="str">
+        <f t="shared" ref="P62:P65" si="41">IFERROR(O62/M62,"")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="4" t="str">
+        <f t="shared" ref="R62:R65" si="42">IFERROR(Q62/P62,"")</f>
+        <v/>
+      </c>
+      <c r="S62" s="4" t="str">
+        <f t="shared" ref="S62:S65" si="43">IFERROR(R62-M62,"")</f>
+        <v/>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="5">
+        <f t="shared" ref="U62:U65" si="44">32*18*T62</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45866</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="1">
+        <v>200</v>
+      </c>
+      <c r="I63" s="1">
+        <v>42</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="S63" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45867</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="1">
+        <v>200</v>
+      </c>
+      <c r="I64" s="1">
+        <v>42</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="S64" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B65" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="1">
+        <v>200</v>
+      </c>
+      <c r="I65" s="1">
+        <v>42</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="S65" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="A66" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B66" s="3">
+        <v>45869</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="4">
+        <f t="shared" ref="M66:M67" si="45">L66/(H66+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="5">
+        <f t="shared" ref="O66:O67" si="46">L66-N66</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4" t="str">
+        <f t="shared" ref="P66:P67" si="47">IFERROR(O66/M66,"")</f>
+        <v/>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="4" t="str">
+        <f t="shared" ref="R66:R67" si="48">IFERROR(Q66/P66,"")</f>
+        <v/>
+      </c>
+      <c r="S66" s="4" t="str">
+        <f t="shared" ref="S66:S67" si="49">IFERROR(R66-M66,"")</f>
+        <v/>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="5">
+        <f t="shared" ref="U66:U67" si="50">32*18*T66</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="A67" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="S67" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="5">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="A68" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45873</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="4">
+        <f t="shared" ref="M68:M70" si="51">L68/(H68+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="5">
+        <f t="shared" ref="O68:O70" si="52">L68-N68</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="4" t="str">
+        <f t="shared" ref="P68:P70" si="53">IFERROR(O68/M68,"")</f>
+        <v/>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="4" t="str">
+        <f t="shared" ref="R68:R70" si="54">IFERROR(Q68/P68,"")</f>
+        <v/>
+      </c>
+      <c r="S68" s="4" t="str">
+        <f t="shared" ref="S68:S70" si="55">IFERROR(R68-M68,"")</f>
+        <v/>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="5">
+        <f t="shared" ref="U68:U70" si="56">32*18*T68</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="3">
+        <v>45874</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="5">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="4" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="S69" s="4" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45875</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="5">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="4" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="S70" s="4" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45876</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="4">
+        <f t="shared" ref="M71:M72" si="57">L71/(H71+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="5">
+        <f t="shared" ref="O71:O72" si="58">L71-N71</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="4" t="str">
+        <f t="shared" ref="P71:P72" si="59">IFERROR(O71/M71,"")</f>
+        <v/>
+      </c>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="4" t="str">
+        <f t="shared" ref="R71:R72" si="60">IFERROR(Q71/P71,"")</f>
+        <v/>
+      </c>
+      <c r="S71" s="4" t="str">
+        <f t="shared" ref="S71:S72" si="61">IFERROR(R71-M71,"")</f>
+        <v/>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="5">
+        <f t="shared" ref="U71:U72" si="62">32*18*T71</f>
+        <v>0</v>
+      </c>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="5">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="4" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="S72" s="4" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="T72" s="1"/>
+      <c r="U72" s="5">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7795C6-9004-47E5-AD84-BF1A1783512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78028352-5673-4B28-8F8C-1E904AFFFBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,10 +1111,10 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T50" sqref="T50"/>
+      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5069,7 +5069,9 @@
       <c r="J50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1">
+        <v>18</v>
+      </c>
       <c r="L50" s="1">
         <v>336</v>
       </c>
@@ -5077,28 +5079,34 @@
         <f t="shared" si="21"/>
         <v>1.6633663366336633</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1">
+        <v>55</v>
+      </c>
       <c r="O50" s="5">
         <f t="shared" si="22"/>
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="P50" s="4">
         <f t="shared" si="23"/>
-        <v>202</v>
-      </c>
-      <c r="Q50" s="1"/>
+        <v>168.93452380952382</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>466</v>
+      </c>
       <c r="R50" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2.7584651703604521</v>
       </c>
       <c r="S50" s="4">
         <f t="shared" si="25"/>
-        <v>-1.6633663366336633</v>
-      </c>
-      <c r="T50" s="1"/>
+        <v>1.0950988337267888</v>
+      </c>
+      <c r="T50" s="1">
+        <v>21.6</v>
+      </c>
       <c r="U50" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>12441.6</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
@@ -5137,28 +5145,30 @@
         <v>25</v>
       </c>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1">
+        <v>337</v>
+      </c>
       <c r="M51" s="4">
         <f t="shared" ref="M51:M53" si="27">L51/(H51+2)</f>
-        <v>0</v>
+        <v>1.6683168316831682</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="5">
         <f t="shared" ref="O51:O53" si="28">L51-N51</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="4" t="str">
+        <v>337</v>
+      </c>
+      <c r="P51" s="4">
         <f t="shared" ref="P51:P53" si="29">IFERROR(O51/M51,"")</f>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="4" t="str">
+      <c r="R51" s="4">
         <f t="shared" ref="R51:R53" si="30">IFERROR(Q51/P51,"")</f>
-        <v/>
-      </c>
-      <c r="S51" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
         <f t="shared" ref="S51:S53" si="31">IFERROR(R51-M51,"")</f>
-        <v/>
+        <v>-1.6683168316831682</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78028352-5673-4B28-8F8C-1E904AFFFBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BFB7E-9FA6-4E99-8D24-869BE2684DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1111,35 +1111,35 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -5144,7 +5144,9 @@
       <c r="J51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1">
+        <v>15</v>
+      </c>
       <c r="L51" s="1">
         <v>337</v>
       </c>
@@ -5152,28 +5154,34 @@
         <f t="shared" ref="M51:M53" si="27">L51/(H51+2)</f>
         <v>1.6683168316831682</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>156</v>
+      </c>
       <c r="O51" s="5">
         <f t="shared" ref="O51:O53" si="28">L51-N51</f>
-        <v>337</v>
+        <v>181</v>
       </c>
       <c r="P51" s="4">
         <f t="shared" ref="P51:P53" si="29">IFERROR(O51/M51,"")</f>
-        <v>202</v>
-      </c>
-      <c r="Q51" s="1"/>
+        <v>108.49258160237389</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>323</v>
+      </c>
       <c r="R51" s="4">
         <f t="shared" ref="R51:R53" si="30">IFERROR(Q51/P51,"")</f>
-        <v>0</v>
+        <v>2.9771620808489687</v>
       </c>
       <c r="S51" s="4">
         <f t="shared" ref="S51:S53" si="31">IFERROR(R51-M51,"")</f>
-        <v>-1.6683168316831682</v>
-      </c>
-      <c r="T51" s="1"/>
+        <v>1.3088452491658005</v>
+      </c>
+      <c r="T51" s="1">
+        <v>13.75</v>
+      </c>
       <c r="U51" s="5">
         <f t="shared" ref="U51:U53" si="32">32*18*T51</f>
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
@@ -5212,28 +5220,30 @@
         <v>25</v>
       </c>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1">
+        <v>336</v>
+      </c>
       <c r="M52" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.6633663366336633</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="4" t="str">
+        <v>336</v>
+      </c>
+      <c r="P52" s="4">
         <f t="shared" si="29"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="4" t="str">
+      <c r="R52" s="4">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="S52" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
         <f t="shared" si="31"/>
-        <v/>
+        <v>-1.6633663366336633</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BFB7E-9FA6-4E99-8D24-869BE2684DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE57344-4A40-498E-95C4-A13ADB0CFB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1111,35 +1111,35 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -5219,7 +5219,9 @@
       <c r="J52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1">
+        <v>14</v>
+      </c>
       <c r="L52" s="1">
         <v>336</v>
       </c>
@@ -5227,28 +5229,34 @@
         <f t="shared" si="27"/>
         <v>1.6633663366336633</v>
       </c>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1">
+        <v>169</v>
+      </c>
       <c r="O52" s="5">
         <f t="shared" si="28"/>
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="P52" s="4">
         <f t="shared" si="29"/>
-        <v>202</v>
-      </c>
-      <c r="Q52" s="1"/>
+        <v>100.39880952380953</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>299</v>
+      </c>
       <c r="R52" s="4">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2.9781229619967982</v>
       </c>
       <c r="S52" s="4">
         <f t="shared" si="31"/>
-        <v>-1.6633663366336633</v>
-      </c>
-      <c r="T52" s="1"/>
+        <v>1.3147566253631349</v>
+      </c>
+      <c r="T52" s="1">
+        <v>20.7</v>
+      </c>
       <c r="U52" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>11923.199999999999</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
@@ -5286,34 +5294,44 @@
       <c r="J53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="K53" s="1">
+        <v>14</v>
+      </c>
+      <c r="L53" s="1">
+        <v>337</v>
+      </c>
       <c r="M53" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="1"/>
+        <v>1.6683168316831682</v>
+      </c>
+      <c r="N53" s="1">
+        <v>119</v>
+      </c>
       <c r="O53" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="4" t="str">
+        <v>218</v>
+      </c>
+      <c r="P53" s="4">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="4" t="str">
+        <v>130.67062314540061</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>366</v>
+      </c>
+      <c r="R53" s="4">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="S53" s="4" t="str">
+        <v>2.8009355981469701</v>
+      </c>
+      <c r="S53" s="4">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="T53" s="1"/>
+        <v>1.1326187664638019</v>
+      </c>
+      <c r="T53" s="1">
+        <v>14.25</v>
+      </c>
       <c r="U53" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>8208</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -5352,28 +5370,30 @@
         <v>25</v>
       </c>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="L54" s="1">
+        <v>440</v>
+      </c>
       <c r="M54" s="4">
         <f t="shared" ref="M54:M61" si="33">L54/(H54+2)</f>
-        <v>0</v>
+        <v>1.4569536423841059</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="5">
         <f t="shared" ref="O54:O61" si="34">L54-N54</f>
+        <v>440</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" ref="P54:P61" si="35">IFERROR(O54/M54,"")</f>
+        <v>302</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="4">
+        <f t="shared" ref="R54:R61" si="36">IFERROR(Q54/P54,"")</f>
         <v>0</v>
       </c>
-      <c r="P54" s="4" t="str">
-        <f t="shared" ref="P54:P61" si="35">IFERROR(O54/M54,"")</f>
-        <v/>
-      </c>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="4" t="str">
-        <f t="shared" ref="R54:R61" si="36">IFERROR(Q54/P54,"")</f>
-        <v/>
-      </c>
-      <c r="S54" s="4" t="str">
+      <c r="S54" s="4">
         <f t="shared" ref="S54:S61" si="37">IFERROR(R54-M54,"")</f>
-        <v/>
+        <v>-1.4569536423841059</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE57344-4A40-498E-95C4-A13ADB0CFB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33900791-41F1-4624-85DF-4673033F3E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T54" sqref="T54"/>
+      <selection pane="bottomRight" activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5369,7 +5369,9 @@
       <c r="J54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1">
+        <v>17</v>
+      </c>
       <c r="L54" s="1">
         <v>440</v>
       </c>
@@ -5377,28 +5379,34 @@
         <f t="shared" ref="M54:M61" si="33">L54/(H54+2)</f>
         <v>1.4569536423841059</v>
       </c>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1">
+        <v>197</v>
+      </c>
       <c r="O54" s="5">
         <f t="shared" ref="O54:O61" si="34">L54-N54</f>
-        <v>440</v>
+        <v>243</v>
       </c>
       <c r="P54" s="4">
         <f t="shared" ref="P54:P61" si="35">IFERROR(O54/M54,"")</f>
-        <v>302</v>
-      </c>
-      <c r="Q54" s="1"/>
+        <v>166.78636363636366</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>399</v>
+      </c>
       <c r="R54" s="4">
         <f t="shared" ref="R54:R61" si="36">IFERROR(Q54/P54,"")</f>
-        <v>0</v>
+        <v>2.392281906630692</v>
       </c>
       <c r="S54" s="4">
         <f t="shared" ref="S54:S61" si="37">IFERROR(R54-M54,"")</f>
-        <v>-1.4569536423841059</v>
-      </c>
-      <c r="T54" s="1"/>
+        <v>0.93532826424658611</v>
+      </c>
+      <c r="T54" s="1">
+        <v>15.5</v>
+      </c>
       <c r="U54" s="5">
         <f t="shared" ref="U54:U61" si="38">32*18*T54</f>
-        <v>0</v>
+        <v>8928</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
@@ -5437,28 +5445,30 @@
         <v>25</v>
       </c>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="L55" s="1">
+        <v>473</v>
+      </c>
       <c r="M55" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1.5662251655629138</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="5">
         <f t="shared" si="34"/>
+        <v>473</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="35"/>
+        <v>302</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="4">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="P55" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S55" s="4" t="str">
+      <c r="S55" s="4">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-1.5662251655629138</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33900791-41F1-4624-85DF-4673033F3E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A017DE-9F52-426C-BDB9-25C88E388DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,10 +1111,10 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5444,7 +5444,9 @@
       <c r="J55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="1"/>
+      <c r="K55" s="1">
+        <v>15</v>
+      </c>
       <c r="L55" s="1">
         <v>473</v>
       </c>
@@ -5452,28 +5454,34 @@
         <f t="shared" si="33"/>
         <v>1.5662251655629138</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>210</v>
+      </c>
       <c r="O55" s="5">
         <f t="shared" si="34"/>
-        <v>473</v>
+        <v>263</v>
       </c>
       <c r="P55" s="4">
         <f t="shared" si="35"/>
-        <v>302</v>
-      </c>
-      <c r="Q55" s="1"/>
+        <v>167.91966173361524</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>396</v>
+      </c>
       <c r="R55" s="4">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.358270591493969</v>
       </c>
       <c r="S55" s="4">
         <f t="shared" si="37"/>
-        <v>-1.5662251655629138</v>
-      </c>
-      <c r="T55" s="1"/>
+        <v>0.7920454259310552</v>
+      </c>
+      <c r="T55" s="1">
+        <v>26.4</v>
+      </c>
       <c r="U55" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>15206.4</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
@@ -5511,34 +5519,44 @@
       <c r="J56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="K56" s="1">
+        <v>12</v>
+      </c>
+      <c r="L56" s="1">
+        <v>440</v>
+      </c>
       <c r="M56" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="1"/>
+        <v>1.4569536423841059</v>
+      </c>
+      <c r="N56" s="1">
+        <v>329</v>
+      </c>
       <c r="O56" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="4" t="str">
+        <v>111</v>
+      </c>
+      <c r="P56" s="4">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="4" t="str">
+        <v>76.186363636363637</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>201</v>
+      </c>
+      <c r="R56" s="4">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S56" s="4" t="str">
+        <v>2.638267406479327</v>
+      </c>
+      <c r="S56" s="4">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="T56" s="1"/>
+        <v>1.1813137640952212</v>
+      </c>
+      <c r="T56" s="1">
+        <v>21.8</v>
+      </c>
       <c r="U56" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>12556.800000000001</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
@@ -5576,34 +5594,44 @@
       <c r="J57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="K57" s="1">
+        <v>12</v>
+      </c>
+      <c r="L57" s="1">
+        <v>477</v>
+      </c>
       <c r="M57" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="1"/>
+        <v>1.5794701986754967</v>
+      </c>
+      <c r="N57" s="1">
+        <v>339</v>
+      </c>
       <c r="O57" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="4" t="str">
+        <v>138</v>
+      </c>
+      <c r="P57" s="4">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="4" t="str">
+        <v>87.371069182389945</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>250</v>
+      </c>
+      <c r="R57" s="4">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S57" s="4" t="str">
+        <v>2.8613590555715516</v>
+      </c>
+      <c r="S57" s="4">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="T57" s="1"/>
+        <v>1.2818888568960549</v>
+      </c>
+      <c r="T57" s="1">
+        <v>14.7</v>
+      </c>
       <c r="U57" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>8467.1999999999989</v>
       </c>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
@@ -5641,34 +5669,44 @@
       <c r="J58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="K58" s="1">
+        <v>14</v>
+      </c>
+      <c r="L58" s="1">
+        <v>295</v>
+      </c>
       <c r="M58" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="1"/>
+        <v>1.4603960396039604</v>
+      </c>
+      <c r="N58" s="1">
+        <v>116</v>
+      </c>
       <c r="O58" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="4" t="str">
+        <v>179</v>
+      </c>
+      <c r="P58" s="4">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="4" t="str">
+        <v>122.56949152542373</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>317</v>
+      </c>
+      <c r="R58" s="4">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S58" s="4" t="str">
+        <v>2.5862879584047791</v>
+      </c>
+      <c r="S58" s="4">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="T58" s="1"/>
+        <v>1.1258919188008187</v>
+      </c>
+      <c r="T58" s="1">
+        <v>8.6</v>
+      </c>
       <c r="U58" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>4953.5999999999995</v>
       </c>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -5707,28 +5745,30 @@
         <v>87</v>
       </c>
       <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="L59" s="1">
+        <v>297</v>
+      </c>
       <c r="M59" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1.4702970297029703</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="5">
         <f t="shared" si="34"/>
+        <v>297</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="35"/>
+        <v>202</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="4">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="P59" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S59" s="4" t="str">
+      <c r="S59" s="4">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-1.4702970297029703</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A017DE-9F52-426C-BDB9-25C88E388DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D739C65-3DB1-463D-A511-B0203C7609F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>26gパルプ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>24gパルプ300枚</t>
     <rPh sb="9" eb="10">
       <t>マイ</t>
@@ -590,16 +586,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>40ｇ再生紙200枚</t>
-    <rPh sb="3" eb="6">
-      <t>サイセイシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>09962690</t>
   </si>
   <si>
@@ -634,16 +620,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>28g再生紙300枚</t>
-    <rPh sb="3" eb="6">
-      <t>サイセイシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ｱｽｸﾙ ﾍﾟｰﾊﾟｰﾀｵﾙ ｼﾝｸﾞﾙ小判（EBS）</t>
     <rPh sb="20" eb="22">
       <t>コバン</t>
@@ -651,16 +627,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>39g再生紙200枚</t>
-    <rPh sb="3" eb="6">
-      <t>サイセイシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>170×220</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -672,17 +638,54 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>38g再生紙200枚</t>
+    <t>09962830</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>28gクラフト300枚</t>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40ｇ新聞古紙200枚</t>
+    <rPh sb="3" eb="7">
+      <t>シンブンコシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>39g再生紙200枚(小)</t>
     <rPh sb="3" eb="6">
       <t>サイセイシ</t>
     </rPh>
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>09962830</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>38g新聞古紙200枚(小)</t>
+    <rPh sb="3" eb="7">
+      <t>シンブンコシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>26gパルプ(小)</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1111,35 +1114,35 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1162,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>27</v>
@@ -1207,22 +1210,22 @@
         <v>9</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1236,16 +1239,16 @@
         <v>1062460</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
         <v>200</v>
@@ -1271,7 +1274,7 @@
         <v>84</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X2" s="1">
         <v>16.53</v>
@@ -1295,16 +1298,16 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
@@ -1313,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="7"/>
@@ -1330,7 +1333,7 @@
         <v>126.9</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X3" s="1">
         <v>9.09</v>
@@ -1365,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1">
         <v>200</v>
@@ -1418,7 +1421,7 @@
         <v>469.7</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X4" s="1">
         <v>19.079999999999998</v>
@@ -1453,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1">
         <v>200</v>
@@ -1506,7 +1509,7 @@
         <v>469.7</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X5" s="1">
         <v>19.079999999999998</v>
@@ -1541,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1">
         <v>200</v>
@@ -1595,7 +1598,7 @@
         <v>469.7</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X6" s="1">
         <v>19.079999999999998</v>
@@ -1630,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1">
         <v>200</v>
@@ -1684,7 +1687,7 @@
         <v>469.7</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X7" s="1">
         <v>19.079999999999998</v>
@@ -1719,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1">
         <v>200</v>
@@ -1773,7 +1776,7 @@
         <v>469.7</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X8" s="1">
         <v>19.079999999999998</v>
@@ -1805,10 +1808,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1">
         <v>200</v>
@@ -1881,10 +1884,10 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1">
         <v>200</v>
@@ -1958,10 +1961,10 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1">
         <v>200</v>
@@ -2034,10 +2037,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1">
         <v>200</v>
@@ -2110,10 +2113,10 @@
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1">
         <v>200</v>
@@ -2180,16 +2183,16 @@
         <v>9962240</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1">
         <v>200</v>
@@ -2215,7 +2218,7 @@
         <v>71</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -2242,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1">
         <v>200</v>
@@ -2296,7 +2299,7 @@
         <v>113.2</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -2323,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1">
         <v>200</v>
@@ -2377,7 +2380,7 @@
         <v>113.2</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -2404,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1">
         <v>200</v>
@@ -2458,7 +2461,7 @@
         <v>113.2</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -2485,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1">
         <v>200</v>
@@ -2539,7 +2542,7 @@
         <v>113.2</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -2566,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1">
         <v>200</v>
@@ -2620,7 +2623,7 @@
         <v>113.2</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -2642,10 +2645,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2">
         <v>300</v>
@@ -2699,7 +2702,7 @@
         <v>101</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X20" s="12">
         <v>6.1833333333333336</v>
@@ -2729,10 +2732,10 @@
         <v>30</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1">
         <v>300</v>
@@ -2786,7 +2789,7 @@
         <v>101</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X21" s="12">
         <v>6.1833333333333336</v>
@@ -2816,10 +2819,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1">
         <v>300</v>
@@ -2873,7 +2876,7 @@
         <v>101</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X22" s="12">
         <v>6.1833333333333336</v>
@@ -2903,10 +2906,10 @@
         <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="1">
         <v>300</v>
@@ -2960,7 +2963,7 @@
         <v>101</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X23" s="12">
         <v>6.1833333333333336</v>
@@ -2990,10 +2993,10 @@
         <v>30</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1">
         <v>300</v>
@@ -3047,7 +3050,7 @@
         <v>101</v>
       </c>
       <c r="W24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X24" s="13">
         <v>6.1833333333333336</v>
@@ -3077,10 +3080,10 @@
         <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1">
         <v>200</v>
@@ -3134,7 +3137,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X25" s="12">
         <v>12.29</v>
@@ -3164,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1">
         <v>200</v>
@@ -3221,7 +3224,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X26" s="12">
         <v>12.29</v>
@@ -3251,10 +3254,10 @@
         <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1">
         <v>200</v>
@@ -3308,7 +3311,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X27" s="12">
         <v>12.29</v>
@@ -3338,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1">
         <v>200</v>
@@ -3395,7 +3398,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X28" s="12">
         <v>12.29</v>
@@ -3425,10 +3428,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1">
         <v>200</v>
@@ -3482,7 +3485,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X29" s="13">
         <v>12.29</v>
@@ -3506,16 +3509,16 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H30" s="1">
         <v>200</v>
@@ -3524,7 +3527,7 @@
         <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30" s="1">
         <v>14</v>
@@ -3569,7 +3572,7 @@
         <v>306</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X30" s="12">
         <v>6.0799999999999992</v>
@@ -3593,16 +3596,16 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H31" s="1">
         <v>200</v>
@@ -3611,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" s="1">
         <v>13</v>
@@ -3656,7 +3659,7 @@
         <v>306</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X31" s="12">
         <v>6.0799999999999992</v>
@@ -3680,16 +3683,16 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H32" s="1">
         <v>200</v>
@@ -3698,7 +3701,7 @@
         <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32" s="1">
         <v>12</v>
@@ -3743,7 +3746,7 @@
         <v>306</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X32" s="12">
         <v>6.0799999999999992</v>
@@ -3767,16 +3770,16 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H33" s="1">
         <v>200</v>
@@ -3785,7 +3788,7 @@
         <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33" s="1">
         <v>7</v>
@@ -3830,7 +3833,7 @@
         <v>306</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X33" s="12">
         <v>6.0799999999999992</v>
@@ -3854,16 +3857,16 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H34" s="1">
         <v>200</v>
@@ -3872,7 +3875,7 @@
         <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34" s="1">
         <v>14</v>
@@ -3917,7 +3920,7 @@
         <v>306</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X34" s="12">
         <v>6.0799999999999992</v>
@@ -3941,16 +3944,16 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35" s="1">
         <v>200</v>
@@ -3976,7 +3979,7 @@
         <v>418</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X35" s="16">
         <v>11.39</v>
@@ -4000,16 +4003,16 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1">
         <v>200</v>
@@ -4018,7 +4021,7 @@
         <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="1">
         <v>13</v>
@@ -4075,16 +4078,16 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1">
         <v>200</v>
@@ -4093,7 +4096,7 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37" s="1">
         <v>14</v>
@@ -4150,16 +4153,16 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" s="1">
         <v>200</v>
@@ -4168,7 +4171,7 @@
         <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38" s="1">
         <v>17</v>
@@ -4225,16 +4228,16 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" s="1">
         <v>200</v>
@@ -4243,7 +4246,7 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39" s="1">
         <v>18</v>
@@ -4299,16 +4302,16 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1">
         <v>200</v>
@@ -4317,7 +4320,7 @@
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40" s="1">
         <v>16</v>
@@ -4374,16 +4377,16 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1">
         <v>200</v>
@@ -4392,7 +4395,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" s="1">
         <v>12</v>
@@ -4449,16 +4452,16 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="1">
         <v>200</v>
@@ -4467,7 +4470,7 @@
         <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42" s="1">
         <v>13</v>
@@ -4524,16 +4527,16 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" s="1">
         <v>200</v>
@@ -4542,7 +4545,7 @@
         <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" s="1">
         <v>9</v>
@@ -4599,16 +4602,16 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1">
         <v>200</v>
@@ -4617,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44" s="1">
         <v>14</v>
@@ -4674,16 +4677,16 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" s="1">
         <v>200</v>
@@ -4692,7 +4695,7 @@
         <v>30</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
@@ -4740,19 +4743,19 @@
         <v>45840</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H46" s="1">
         <v>200</v>
@@ -4817,19 +4820,19 @@
         <v>45841</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47" s="1">
         <v>200</v>
@@ -4894,19 +4897,19 @@
         <v>45842</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48" s="1">
         <v>200</v>
@@ -4971,19 +4974,19 @@
         <v>45845</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49" s="1">
         <v>200</v>
@@ -5049,16 +5052,16 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50" s="1">
         <v>200</v>
@@ -5124,16 +5127,16 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51" s="1">
         <v>200</v>
@@ -5199,16 +5202,16 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52" s="1">
         <v>200</v>
@@ -5274,16 +5277,16 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53" s="1">
         <v>200</v>
@@ -5349,16 +5352,16 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54" s="1">
         <v>300</v>
@@ -5424,16 +5427,16 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55" s="1">
         <v>300</v>
@@ -5499,16 +5502,16 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56" s="1">
         <v>300</v>
@@ -5574,16 +5577,16 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57" s="1">
         <v>300</v>
@@ -5649,16 +5652,16 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58" s="1">
         <v>200</v>
@@ -5667,7 +5670,7 @@
         <v>42</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K58" s="1">
         <v>14</v>
@@ -5724,16 +5727,16 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59" s="1">
         <v>200</v>
@@ -5742,7 +5745,7 @@
         <v>42</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1">
@@ -5791,16 +5794,16 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60" s="1">
         <v>200</v>
@@ -5809,7 +5812,7 @@
         <v>42</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -5856,16 +5859,16 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61" s="1">
         <v>200</v>
@@ -5874,7 +5877,7 @@
         <v>42</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -5920,19 +5923,19 @@
         <v>45863</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62" s="1">
         <v>200</v>
@@ -5941,7 +5944,7 @@
         <v>42</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -5987,19 +5990,19 @@
         <v>45866</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63" s="1">
         <v>200</v>
@@ -6008,7 +6011,7 @@
         <v>42</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -6054,19 +6057,19 @@
         <v>45867</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64" s="1">
         <v>200</v>
@@ -6075,7 +6078,7 @@
         <v>42</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -6121,19 +6124,19 @@
         <v>45868</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65" s="1">
         <v>200</v>
@@ -6142,7 +6145,7 @@
         <v>42</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D739C65-3DB1-463D-A511-B0203C7609F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0FCA47-38D9-4B6A-ACE5-84126E8C61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,20 +642,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>28gクラフト300枚</t>
-    <rPh sb="10" eb="11">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>40ｇ新聞古紙200枚</t>
-    <rPh sb="3" eb="7">
-      <t>シンブンコシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>39g再生紙200枚(小)</t>
     <rPh sb="3" eb="6">
       <t>サイセイシ</t>
@@ -685,6 +671,26 @@
     <t>26gパルプ(小)</t>
     <rPh sb="7" eb="8">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30g(段)再生紙300枚</t>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40g新聞古紙200枚</t>
+    <rPh sb="3" eb="7">
+      <t>シンブンコシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1114,10 +1120,10 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1808,7 +1814,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -1884,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -1961,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -2037,7 +2043,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>34</v>
@@ -2113,7 +2119,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>34</v>
@@ -4752,7 +4758,7 @@
         <v>76</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>34</v>
@@ -4829,7 +4835,7 @@
         <v>76</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>34</v>
@@ -4906,7 +4912,7 @@
         <v>76</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>34</v>
@@ -4983,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>34</v>
@@ -5358,7 +5364,7 @@
         <v>78</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>34</v>
@@ -5433,7 +5439,7 @@
         <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>34</v>
@@ -5508,7 +5514,7 @@
         <v>78</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>34</v>
@@ -5583,7 +5589,7 @@
         <v>78</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>34</v>
@@ -5658,7 +5664,7 @@
         <v>78</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>34</v>
@@ -5733,7 +5739,7 @@
         <v>78</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>34</v>
@@ -5800,7 +5806,7 @@
         <v>78</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>34</v>
@@ -5865,7 +5871,7 @@
         <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>34</v>
@@ -5932,7 +5938,7 @@
         <v>76</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>34</v>
@@ -5999,7 +6005,7 @@
         <v>76</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>34</v>
@@ -6066,7 +6072,7 @@
         <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>34</v>
@@ -6133,7 +6139,7 @@
         <v>76</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>34</v>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0FCA47-38D9-4B6A-ACE5-84126E8C61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1ACCCC-730B-4DEC-9A4A-03BC5E701664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1120,35 +1120,35 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -5753,7 +5753,9 @@
       <c r="J59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1">
+        <v>16</v>
+      </c>
       <c r="L59" s="1">
         <v>297</v>
       </c>
@@ -5761,28 +5763,34 @@
         <f t="shared" si="33"/>
         <v>1.4702970297029703</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1">
+        <v>47</v>
+      </c>
       <c r="O59" s="5">
         <f t="shared" si="34"/>
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="P59" s="4">
         <f t="shared" si="35"/>
-        <v>202</v>
-      </c>
-      <c r="Q59" s="1"/>
+        <v>170.03367003367003</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>429</v>
+      </c>
       <c r="R59" s="4">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.5230297029702968</v>
       </c>
       <c r="S59" s="4">
         <f t="shared" si="37"/>
-        <v>-1.4702970297029703</v>
-      </c>
-      <c r="T59" s="1"/>
+        <v>1.0527326732673266</v>
+      </c>
+      <c r="T59" s="1">
+        <v>13.25</v>
+      </c>
       <c r="U59" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7632</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -5821,28 +5829,30 @@
         <v>83</v>
       </c>
       <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1">
+        <v>293</v>
+      </c>
       <c r="M60" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1.4504950495049505</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="5">
         <f t="shared" si="34"/>
+        <v>293</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="35"/>
+        <v>202</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="4">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="P60" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S60" s="4" t="str">
+      <c r="S60" s="4">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-1.4504950495049505</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1ACCCC-730B-4DEC-9A4A-03BC5E701664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE3A151-28FA-4CC9-98CC-3A0CF7EB7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomRight" activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5828,7 +5828,9 @@
       <c r="J60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1">
+        <v>18</v>
+      </c>
       <c r="L60" s="1">
         <v>293</v>
       </c>
@@ -5836,28 +5838,34 @@
         <f t="shared" si="33"/>
         <v>1.4504950495049505</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1">
+        <v>70</v>
+      </c>
       <c r="O60" s="5">
         <f t="shared" si="34"/>
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="P60" s="4">
         <f t="shared" si="35"/>
-        <v>202</v>
-      </c>
-      <c r="Q60" s="1"/>
+        <v>153.74061433447099</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>397</v>
+      </c>
       <c r="R60" s="4">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.5822714558451363</v>
       </c>
       <c r="S60" s="4">
         <f t="shared" si="37"/>
-        <v>-1.4504950495049505</v>
-      </c>
-      <c r="T60" s="1"/>
+        <v>1.1317764063401858</v>
+      </c>
+      <c r="T60" s="1">
+        <v>7.8</v>
+      </c>
       <c r="U60" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>4492.8</v>
       </c>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -5896,28 +5904,30 @@
         <v>83</v>
       </c>
       <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="L61" s="1">
+        <v>294</v>
+      </c>
       <c r="M61" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1.4554455445544554</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="5">
         <f t="shared" si="34"/>
+        <v>294</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="35"/>
+        <v>202</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="4">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="P61" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="S61" s="4" t="str">
+      <c r="S61" s="4">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-1.4554455445544554</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE3A151-28FA-4CC9-98CC-3A0CF7EB7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8845208-50FA-4D91-81EB-DEE8FE574330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="94">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -692,6 +692,18 @@
     <rPh sb="3" eb="7">
       <t>シンブンコシ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3'47</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2'58</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3'46</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -793,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -829,6 +841,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1120,10 +1135,10 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T62" sqref="T62"/>
+      <selection pane="bottomRight" activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4068,12 +4083,24 @@
         <f t="shared" si="14"/>
         <v>5472</v>
       </c>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
+      <c r="V36" s="2">
+        <v>227</v>
+      </c>
+      <c r="W36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X36" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1">
@@ -4143,12 +4170,24 @@
         <f t="shared" si="14"/>
         <v>5817.5999999999995</v>
       </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
+      <c r="V37" s="2">
+        <v>227</v>
+      </c>
+      <c r="W37" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X37" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="1">
@@ -4218,12 +4257,24 @@
         <f t="shared" si="14"/>
         <v>6336</v>
       </c>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
+      <c r="V38" s="2">
+        <v>227</v>
+      </c>
+      <c r="W38" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X38" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1">
@@ -4292,12 +4343,24 @@
         <f t="shared" si="14"/>
         <v>9734.4</v>
       </c>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
+      <c r="V39" s="2">
+        <v>227</v>
+      </c>
+      <c r="W39" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="1">
@@ -4367,12 +4430,24 @@
         <f t="shared" si="14"/>
         <v>4176</v>
       </c>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
+      <c r="V40" s="2">
+        <v>227</v>
+      </c>
+      <c r="W40" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="1">
@@ -4442,12 +4517,24 @@
         <f t="shared" si="14"/>
         <v>7430.4000000000005</v>
       </c>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
+      <c r="V41" s="1">
+        <v>178</v>
+      </c>
+      <c r="W41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X41" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="1">
@@ -4517,12 +4604,24 @@
         <f t="shared" si="14"/>
         <v>11376</v>
       </c>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
+      <c r="V42" s="1">
+        <v>178</v>
+      </c>
+      <c r="W42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X42" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="1">
@@ -4592,12 +4691,24 @@
         <f t="shared" si="14"/>
         <v>6912</v>
       </c>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
+      <c r="V43" s="1">
+        <v>178</v>
+      </c>
+      <c r="W43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X43" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="1">
@@ -4667,12 +4778,24 @@
         <f t="shared" si="14"/>
         <v>3744</v>
       </c>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
+      <c r="V44" s="1">
+        <v>178</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X44" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="1">
@@ -4734,12 +4857,24 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
+      <c r="V45" s="1">
+        <v>178</v>
+      </c>
+      <c r="W45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X45" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="1">
@@ -4811,12 +4946,24 @@
         <f t="shared" ref="U46" si="20">32*18*T46</f>
         <v>9820.8000000000011</v>
       </c>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
+      <c r="V46" s="1">
+        <v>226.67</v>
+      </c>
+      <c r="W46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X46" s="1">
+        <v>19.71</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="1">
@@ -4888,12 +5035,24 @@
         <f t="shared" ref="U47:U50" si="26">32*18*T47</f>
         <v>13449.6</v>
       </c>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
+      <c r="V47" s="1">
+        <v>226.67</v>
+      </c>
+      <c r="W47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X47" s="1">
+        <v>19.71</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="1">
@@ -4965,12 +5124,24 @@
         <f t="shared" si="26"/>
         <v>7488</v>
       </c>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
+      <c r="V48" s="1">
+        <v>226.67</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X48" s="1">
+        <v>19.71</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="1">
@@ -5042,12 +5213,24 @@
         <f t="shared" si="26"/>
         <v>12643.199999999999</v>
       </c>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
+      <c r="V49" s="1">
+        <v>226.67</v>
+      </c>
+      <c r="W49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X49" s="1">
+        <v>19.71</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="1">
@@ -5118,7 +5301,7 @@
         <v>12441.6</v>
       </c>
       <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
+      <c r="W50" s="9"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -5193,7 +5376,7 @@
         <v>7920</v>
       </c>
       <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
+      <c r="W51" s="9"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
@@ -5268,7 +5451,7 @@
         <v>11923.199999999999</v>
       </c>
       <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
+      <c r="W52" s="9"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
@@ -5343,7 +5526,7 @@
         <v>8208</v>
       </c>
       <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
+      <c r="W53" s="9"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -5418,7 +5601,7 @@
         <v>8928</v>
       </c>
       <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
+      <c r="W54" s="9"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
@@ -5493,7 +5676,7 @@
         <v>15206.4</v>
       </c>
       <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
+      <c r="W55" s="9"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -5568,7 +5751,7 @@
         <v>12556.800000000001</v>
       </c>
       <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
+      <c r="W56" s="9"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -5643,7 +5826,7 @@
         <v>8467.1999999999989</v>
       </c>
       <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
+      <c r="W57" s="9"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
@@ -5718,7 +5901,7 @@
         <v>4953.5999999999995</v>
       </c>
       <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
+      <c r="W58" s="9"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
@@ -5793,7 +5976,7 @@
         <v>7632</v>
       </c>
       <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
+      <c r="W59" s="9"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
@@ -5868,7 +6051,7 @@
         <v>4492.8</v>
       </c>
       <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
+      <c r="W60" s="9"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
@@ -5935,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
+      <c r="W61" s="9"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
@@ -6002,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
+      <c r="W62" s="9"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
@@ -6069,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
+      <c r="W63" s="9"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
@@ -6136,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
+      <c r="W64" s="9"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -6203,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
+      <c r="W65" s="9"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -6254,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
+      <c r="W66" s="9"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
@@ -6305,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
+      <c r="W67" s="9"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -6356,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
+      <c r="W68" s="9"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
@@ -6407,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
+      <c r="W69" s="9"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -6458,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
+      <c r="W70" s="9"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
@@ -6509,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
+      <c r="W71" s="9"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8845208-50FA-4D91-81EB-DEE8FE574330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FDA741-BA26-47C0-9515-9AA82D8C9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="99">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -704,6 +704,32 @@
   </si>
   <si>
     <t>3'46</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴﾙﾅｴｺﾉﾐｰ（ﾃｽﾄ品）</t>
+    <rPh sb="12" eb="13">
+      <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新ｴﾙﾅｴｺﾉﾐｰ</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紙ﾀｵﾙ NEWｽﾃｯﾌﾟ(300枚) HS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NEWｽﾃｯﾌﾟ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>230×175</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1132,13 +1158,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W48" sqref="W48"/>
+      <selection pane="bottomRight" activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6086,7 +6112,9 @@
       <c r="J61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="1"/>
+      <c r="K61" s="1">
+        <v>16</v>
+      </c>
       <c r="L61" s="1">
         <v>294</v>
       </c>
@@ -6094,28 +6122,34 @@
         <f t="shared" si="33"/>
         <v>1.4554455445544554</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1">
+        <v>85</v>
+      </c>
       <c r="O61" s="5">
         <f t="shared" si="34"/>
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="P61" s="4">
         <f t="shared" si="35"/>
-        <v>202</v>
-      </c>
-      <c r="Q61" s="1"/>
+        <v>143.59863945578232</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>378</v>
+      </c>
       <c r="R61" s="4">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.6323369179023164</v>
       </c>
       <c r="S61" s="4">
         <f t="shared" si="37"/>
-        <v>-1.4554455445544554</v>
-      </c>
-      <c r="T61" s="1"/>
+        <v>1.176891373347861</v>
+      </c>
+      <c r="T61" s="1">
+        <v>13.9</v>
+      </c>
       <c r="U61" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>8006.4000000000005</v>
       </c>
       <c r="V61" s="1"/>
       <c r="W61" s="9"/>
@@ -6155,34 +6189,44 @@
       <c r="J62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="K62" s="1">
+        <v>14</v>
+      </c>
+      <c r="L62" s="1">
+        <v>292</v>
+      </c>
       <c r="M62" s="4">
-        <f t="shared" ref="M62:M65" si="39">L62/(H62+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="1"/>
+        <f>L62/(H62+2)</f>
+        <v>1.4455445544554455</v>
+      </c>
+      <c r="N62" s="1">
+        <v>179</v>
+      </c>
       <c r="O62" s="5">
-        <f t="shared" ref="O62:O65" si="40">L62-N62</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="4" t="str">
-        <f t="shared" ref="P62:P65" si="41">IFERROR(O62/M62,"")</f>
-        <v/>
-      </c>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="4" t="str">
-        <f t="shared" ref="R62:R65" si="42">IFERROR(Q62/P62,"")</f>
-        <v/>
-      </c>
-      <c r="S62" s="4" t="str">
-        <f t="shared" ref="S62:S65" si="43">IFERROR(R62-M62,"")</f>
-        <v/>
-      </c>
-      <c r="T62" s="1"/>
+        <f t="shared" ref="O62:O65" si="39">L62-N62</f>
+        <v>113</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" ref="P62:P65" si="40">IFERROR(O62/M62,"")</f>
+        <v>78.171232876712338</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>234</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" ref="R62:R65" si="41">IFERROR(Q62/P62,"")</f>
+        <v>2.9934285463944619</v>
+      </c>
+      <c r="S62" s="4">
+        <f t="shared" ref="S62:S65" si="42">IFERROR(R62-M62,"")</f>
+        <v>1.5478839919390164</v>
+      </c>
+      <c r="T62" s="1">
+        <v>19.399999999999999</v>
+      </c>
       <c r="U62" s="5">
-        <f t="shared" ref="U62:U65" si="44">32*18*T62</f>
-        <v>0</v>
+        <f t="shared" ref="U62:U65" si="43">32*18*T62</f>
+        <v>11174.4</v>
       </c>
       <c r="V62" s="1"/>
       <c r="W62" s="9"/>
@@ -6223,32 +6267,34 @@
         <v>83</v>
       </c>
       <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="L63" s="1">
+        <v>285</v>
+      </c>
       <c r="M63" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" ref="M63:M65" si="44">L63/(H63+2)</f>
+        <v>1.4108910891089108</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="5">
+        <f t="shared" si="39"/>
+        <v>285</v>
+      </c>
+      <c r="P63" s="4">
         <f t="shared" si="40"/>
+        <v>202</v>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="4">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="P63" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="4" t="str">
+      <c r="S63" s="4">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="S63" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v/>
+        <v>-1.4108910891089108</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V63" s="1"/>
@@ -6292,30 +6338,30 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="5">
+      <c r="P64" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="4" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="4" t="str">
+      <c r="S64" s="4" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="S64" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
       <c r="T64" s="1"/>
       <c r="U64" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V64" s="1"/>
@@ -6359,30 +6405,30 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="5">
+      <c r="P65" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="4" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="4" t="str">
+      <c r="S65" s="4" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="S65" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
       <c r="T65" s="1"/>
       <c r="U65" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V65" s="1"/>
@@ -6400,13 +6446,25 @@
         <v>45869</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="1">
+        <v>200</v>
+      </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="4">
@@ -6451,13 +6509,25 @@
         <v>45870</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="1">
+        <v>200</v>
+      </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="4">
@@ -6502,13 +6572,25 @@
         <v>45873</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="1">
+        <v>200</v>
+      </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="4">
@@ -6553,13 +6635,25 @@
         <v>45874</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="1">
+        <v>200</v>
+      </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="4">
@@ -6603,14 +6697,30 @@
       <c r="B70" s="3">
         <v>45875</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="C70" s="1">
+        <v>1063630</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="1">
+        <v>300</v>
+      </c>
+      <c r="I70" s="1">
+        <v>36</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="4">
@@ -6654,18 +6764,34 @@
       <c r="B71" s="3">
         <v>45876</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="C71" s="1">
+        <v>1063630</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="1">
+        <v>300</v>
+      </c>
+      <c r="I71" s="1">
+        <v>36</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="4">
-        <f t="shared" ref="M71:M72" si="57">L71/(H71+2)</f>
+        <f t="shared" ref="M71" si="57">L71/(H71+2)</f>
         <v>0</v>
       </c>
       <c r="N71" s="1"/>
@@ -6705,18 +6831,34 @@
       <c r="B72" s="3">
         <v>45877</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="C72" s="1">
+        <v>1063630</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="1">
+        <v>300</v>
+      </c>
+      <c r="I72" s="1">
+        <v>36</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="4">
-        <f t="shared" si="57"/>
+        <f>L72/(H72+2)</f>
         <v>0</v>
       </c>
       <c r="N72" s="1"/>
@@ -6749,6 +6891,226 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45888</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1063630</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" s="1">
+        <v>300</v>
+      </c>
+      <c r="I73" s="1">
+        <v>36</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="4">
+        <f>L73/(H73+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="5">
+        <f t="shared" ref="O73:O76" si="63">L73-N73</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="4" t="str">
+        <f t="shared" ref="P73:P76" si="64">IFERROR(O73/M73,"")</f>
+        <v/>
+      </c>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="4" t="str">
+        <f t="shared" ref="R73:R76" si="65">IFERROR(Q73/P73,"")</f>
+        <v/>
+      </c>
+      <c r="S73" s="4" t="str">
+        <f t="shared" ref="S73:S76" si="66">IFERROR(R73-M73,"")</f>
+        <v/>
+      </c>
+      <c r="T73" s="1"/>
+      <c r="U73" s="5">
+        <f t="shared" ref="U73:U76" si="67">32*18*T73</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45889</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="4">
+        <f t="shared" ref="M74:M76" si="68">L74/(H74+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="4" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="4" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="S74" s="4" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="T74" s="1"/>
+      <c r="U74" s="5">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B75" s="3">
+        <v>45890</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="4" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="4" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="S75" s="4" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="T75" s="1"/>
+      <c r="U75" s="5">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B76" s="3">
+        <v>45891</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="4" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="4" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="S76" s="4" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="T76" s="1"/>
+      <c r="U76" s="5">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FDA741-BA26-47C0-9515-9AA82D8C9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC3DE03-26F6-49DF-904D-B6AFC1A61A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T63" sqref="T63"/>
+      <selection pane="bottomRight" activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6266,7 +6266,9 @@
       <c r="J63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K63" s="1"/>
+      <c r="K63" s="1">
+        <v>14</v>
+      </c>
       <c r="L63" s="1">
         <v>285</v>
       </c>
@@ -6274,28 +6276,34 @@
         <f t="shared" ref="M63:M65" si="44">L63/(H63+2)</f>
         <v>1.4108910891089108</v>
       </c>
-      <c r="N63" s="1"/>
+      <c r="N63" s="1">
+        <v>80</v>
+      </c>
       <c r="O63" s="5">
         <f t="shared" si="39"/>
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="P63" s="4">
         <f t="shared" si="40"/>
-        <v>202</v>
-      </c>
-      <c r="Q63" s="1"/>
+        <v>145.2982456140351</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>324</v>
+      </c>
       <c r="R63" s="4">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2.2298961603477419</v>
       </c>
       <c r="S63" s="4">
         <f t="shared" si="42"/>
-        <v>-1.4108910891089108</v>
-      </c>
-      <c r="T63" s="1"/>
+        <v>0.81900507123883104</v>
+      </c>
+      <c r="T63" s="1">
+        <v>18.850000000000001</v>
+      </c>
       <c r="U63" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>10857.6</v>
       </c>
       <c r="V63" s="1"/>
       <c r="W63" s="9"/>
@@ -6336,28 +6344,30 @@
         <v>83</v>
       </c>
       <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="L64" s="1">
+        <v>284</v>
+      </c>
       <c r="M64" s="4">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.4059405940594059</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="5">
         <f t="shared" si="39"/>
+        <v>284</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="40"/>
+        <v>202</v>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="4">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="P64" s="4" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="S64" s="4" t="str">
+      <c r="S64" s="4">
         <f t="shared" si="42"/>
-        <v/>
+        <v>-1.4059405940594059</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC3DE03-26F6-49DF-904D-B6AFC1A61A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED87EA-FAC9-4831-B85E-4A820CD2081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T64" sqref="T64"/>
+      <selection pane="bottomRight" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6343,7 +6343,9 @@
       <c r="J64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K64" s="1"/>
+      <c r="K64" s="1">
+        <v>16</v>
+      </c>
       <c r="L64" s="1">
         <v>284</v>
       </c>
@@ -6413,28 +6415,30 @@
         <v>83</v>
       </c>
       <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="L65" s="1">
+        <v>282</v>
+      </c>
       <c r="M65" s="4">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.3960396039603959</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="5">
         <f t="shared" si="39"/>
+        <v>282</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="40"/>
+        <v>202</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="4">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="P65" s="4" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="S65" s="4" t="str">
+      <c r="S65" s="4">
         <f t="shared" si="42"/>
-        <v/>
+        <v>-1.3960396039603959</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED87EA-FAC9-4831-B85E-4A820CD2081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB97740-A843-4645-B6ED-500BF7C07838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L66" sqref="L66"/>
+      <selection pane="bottomRight" activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6353,28 +6353,34 @@
         <f t="shared" si="44"/>
         <v>1.4059405940594059</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1">
+        <v>66</v>
+      </c>
       <c r="O64" s="5">
         <f t="shared" si="39"/>
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="P64" s="4">
         <f t="shared" si="40"/>
-        <v>202</v>
-      </c>
-      <c r="Q64" s="1"/>
+        <v>155.05633802816902</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>384</v>
+      </c>
       <c r="R64" s="4">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2.4765192115541828</v>
       </c>
       <c r="S64" s="4">
         <f t="shared" si="42"/>
-        <v>-1.4059405940594059</v>
-      </c>
-      <c r="T64" s="1"/>
+        <v>1.0705786174947769</v>
+      </c>
+      <c r="T64" s="1">
+        <v>14</v>
+      </c>
       <c r="U64" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>8064</v>
       </c>
       <c r="V64" s="1"/>
       <c r="W64" s="9"/>
@@ -6414,7 +6420,9 @@
       <c r="J65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K65" s="1"/>
+      <c r="K65" s="1">
+        <v>15</v>
+      </c>
       <c r="L65" s="1">
         <v>282</v>
       </c>
@@ -6422,28 +6430,34 @@
         <f t="shared" si="44"/>
         <v>1.3960396039603959</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>114</v>
+      </c>
       <c r="O65" s="5">
         <f t="shared" si="39"/>
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="P65" s="4">
         <f t="shared" si="40"/>
-        <v>202</v>
-      </c>
-      <c r="Q65" s="1"/>
+        <v>120.3404255319149</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>280</v>
+      </c>
       <c r="R65" s="4">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2.3267326732673266</v>
       </c>
       <c r="S65" s="4">
         <f t="shared" si="42"/>
-        <v>-1.3960396039603959</v>
-      </c>
-      <c r="T65" s="1"/>
+        <v>0.93069306930693063</v>
+      </c>
+      <c r="T65" s="1">
+        <v>18.899999999999999</v>
+      </c>
       <c r="U65" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>10886.4</v>
       </c>
       <c r="V65" s="1"/>
       <c r="W65" s="9"/>
@@ -6479,34 +6493,44 @@
       <c r="J66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="K66" s="1">
+        <v>16</v>
+      </c>
+      <c r="L66" s="1">
+        <v>309</v>
+      </c>
       <c r="M66" s="4">
         <f t="shared" ref="M66:M67" si="45">L66/(H66+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="1"/>
+        <v>1.5297029702970297</v>
+      </c>
+      <c r="N66" s="1">
+        <v>107</v>
+      </c>
       <c r="O66" s="5">
         <f t="shared" ref="O66:O67" si="46">L66-N66</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="4" t="str">
+        <v>202</v>
+      </c>
+      <c r="P66" s="4">
         <f t="shared" ref="P66:P67" si="47">IFERROR(O66/M66,"")</f>
-        <v/>
-      </c>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="4" t="str">
+        <v>132.05177993527508</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>316</v>
+      </c>
+      <c r="R66" s="4">
         <f t="shared" ref="R66:R67" si="48">IFERROR(Q66/P66,"")</f>
-        <v/>
-      </c>
-      <c r="S66" s="4" t="str">
+        <v>2.3930006862072348</v>
+      </c>
+      <c r="S66" s="4">
         <f t="shared" ref="S66:S67" si="49">IFERROR(R66-M66,"")</f>
-        <v/>
-      </c>
-      <c r="T66" s="1"/>
+        <v>0.8632977159102051</v>
+      </c>
+      <c r="T66" s="1">
+        <v>17.7</v>
+      </c>
       <c r="U66" s="5">
         <f t="shared" ref="U66:U67" si="50">32*18*T66</f>
-        <v>0</v>
+        <v>10195.199999999999</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="9"/>
@@ -6542,34 +6566,44 @@
       <c r="J67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="K67" s="1">
+        <v>17</v>
+      </c>
+      <c r="L67" s="1">
+        <v>303</v>
+      </c>
       <c r="M67" s="4">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>86</v>
+      </c>
       <c r="O67" s="5">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="4" t="str">
+        <v>217</v>
+      </c>
+      <c r="P67" s="4">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="4" t="str">
+        <v>144.66666666666666</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>370</v>
+      </c>
+      <c r="R67" s="4">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="S67" s="4" t="str">
+        <v>2.5576036866359448</v>
+      </c>
+      <c r="S67" s="4">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="T67" s="1"/>
+        <v>1.0576036866359448</v>
+      </c>
+      <c r="T67" s="1">
+        <v>13.95</v>
+      </c>
       <c r="U67" s="5">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>8035.2</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="9"/>
@@ -6606,28 +6640,30 @@
         <v>83</v>
       </c>
       <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="L68" s="1">
+        <v>303</v>
+      </c>
       <c r="M68" s="4">
         <f t="shared" ref="M68:M70" si="51">L68/(H68+2)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="5">
         <f t="shared" ref="O68:O70" si="52">L68-N68</f>
+        <v>303</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" ref="P68:P70" si="53">IFERROR(O68/M68,"")</f>
+        <v>202</v>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="4">
+        <f t="shared" ref="R68:R70" si="54">IFERROR(Q68/P68,"")</f>
         <v>0</v>
       </c>
-      <c r="P68" s="4" t="str">
-        <f t="shared" ref="P68:P70" si="53">IFERROR(O68/M68,"")</f>
-        <v/>
-      </c>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="4" t="str">
-        <f t="shared" ref="R68:R70" si="54">IFERROR(Q68/P68,"")</f>
-        <v/>
-      </c>
-      <c r="S68" s="4" t="str">
+      <c r="S68" s="4">
         <f t="shared" ref="S68:S70" si="55">IFERROR(R68-M68,"")</f>
-        <v/>
+        <v>-1.5</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB97740-A843-4645-B6ED-500BF7C07838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F80DBB-2C1E-4EB7-AEE6-5D0941939A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,10 +1161,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T68" sqref="T68"/>
+      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6639,7 +6639,9 @@
       <c r="J68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K68" s="1"/>
+      <c r="K68" s="1">
+        <v>15</v>
+      </c>
       <c r="L68" s="1">
         <v>303</v>
       </c>
@@ -6647,28 +6649,34 @@
         <f t="shared" ref="M68:M70" si="51">L68/(H68+2)</f>
         <v>1.5</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1">
+        <v>92</v>
+      </c>
       <c r="O68" s="5">
         <f t="shared" ref="O68:O70" si="52">L68-N68</f>
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="P68" s="4">
         <f t="shared" ref="P68:P70" si="53">IFERROR(O68/M68,"")</f>
-        <v>202</v>
-      </c>
-      <c r="Q68" s="1"/>
+        <v>140.66666666666666</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>361</v>
+      </c>
       <c r="R68" s="4">
         <f t="shared" ref="R68:R70" si="54">IFERROR(Q68/P68,"")</f>
-        <v>0</v>
+        <v>2.566350710900474</v>
       </c>
       <c r="S68" s="4">
         <f t="shared" ref="S68:S70" si="55">IFERROR(R68-M68,"")</f>
-        <v>-1.5</v>
-      </c>
-      <c r="T68" s="1"/>
+        <v>1.066350710900474</v>
+      </c>
+      <c r="T68" s="1">
+        <v>17.149999999999999</v>
+      </c>
       <c r="U68" s="5">
         <f t="shared" ref="U68:U70" si="56">32*18*T68</f>
-        <v>0</v>
+        <v>9878.4</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="9"/>
@@ -6705,28 +6713,30 @@
         <v>83</v>
       </c>
       <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="L69" s="1">
+        <v>303</v>
+      </c>
       <c r="M69" s="4">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="5">
         <f t="shared" si="52"/>
+        <v>303</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="53"/>
+        <v>202</v>
+      </c>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="4">
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P69" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="4" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="S69" s="4" t="str">
+      <c r="S69" s="4">
         <f t="shared" si="55"/>
-        <v/>
+        <v>-1.5</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F80DBB-2C1E-4EB7-AEE6-5D0941939A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9454D420-D714-435F-BF22-452A1E40D752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,10 +1161,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
+      <selection pane="bottomRight" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6712,7 +6712,9 @@
       <c r="J69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K69" s="1"/>
+      <c r="K69" s="1">
+        <v>16</v>
+      </c>
       <c r="L69" s="1">
         <v>303</v>
       </c>
@@ -6720,28 +6722,34 @@
         <f t="shared" si="51"/>
         <v>1.5</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1">
+        <v>112</v>
+      </c>
       <c r="O69" s="5">
         <f t="shared" si="52"/>
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="P69" s="4">
         <f t="shared" si="53"/>
-        <v>202</v>
-      </c>
-      <c r="Q69" s="1"/>
+        <v>127.33333333333333</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>352</v>
+      </c>
       <c r="R69" s="4">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2.7643979057591626</v>
       </c>
       <c r="S69" s="4">
         <f t="shared" si="55"/>
-        <v>-1.5</v>
-      </c>
-      <c r="T69" s="1"/>
+        <v>1.2643979057591626</v>
+      </c>
+      <c r="T69" s="1">
+        <v>19.5</v>
+      </c>
       <c r="U69" s="5">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>11232</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="9"/>
@@ -6782,28 +6790,30 @@
         <v>98</v>
       </c>
       <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="L70" s="1">
+        <v>314</v>
+      </c>
       <c r="M70" s="4">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1.0397350993377483</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="5">
         <f t="shared" si="52"/>
+        <v>314</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" si="53"/>
+        <v>302</v>
+      </c>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="4">
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="P70" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="4" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="S70" s="4" t="str">
+      <c r="S70" s="4">
         <f t="shared" si="55"/>
-        <v/>
+        <v>-1.0397350993377483</v>
       </c>
       <c r="T70" s="1"/>
       <c r="U70" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9454D420-D714-435F-BF22-452A1E40D752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB084E-A1C7-4FB4-8DD3-47D7E3652378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="97">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -586,9 +586,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>09962690</t>
-  </si>
-  <si>
     <t>アスクル株式会社</t>
     <rPh sb="4" eb="8">
       <t>カブ</t>
@@ -638,10 +635,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>09962830</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>39g再生紙200枚(小)</t>
     <rPh sb="3" eb="6">
       <t>サイセイシ</t>
@@ -714,22 +707,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新ｴﾙﾅｴｺﾉﾐｰ</t>
+    <t>紙ﾀｵﾙ NEWｽﾃｯﾌﾟ(300枚) HS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>230×175</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新エルナエコ（小）</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>紙ﾀｵﾙ NEWｽﾃｯﾌﾟ(300枚) HS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NEWｽﾃｯﾌﾟ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>230×175</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NEWステップ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -831,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -863,12 +859,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,35 +1156,35 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1855,7 +1850,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -1931,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -2008,7 +2003,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -2084,7 +2079,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>34</v>
@@ -2160,7 +2155,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>34</v>
@@ -4112,8 +4107,8 @@
       <c r="V36" s="2">
         <v>227</v>
       </c>
-      <c r="W36" s="19" t="s">
-        <v>91</v>
+      <c r="W36" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="X36" s="2">
         <v>7.13</v>
@@ -4199,8 +4194,8 @@
       <c r="V37" s="2">
         <v>227</v>
       </c>
-      <c r="W37" s="19" t="s">
-        <v>91</v>
+      <c r="W37" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="X37" s="2">
         <v>7.13</v>
@@ -4286,8 +4281,8 @@
       <c r="V38" s="2">
         <v>227</v>
       </c>
-      <c r="W38" s="19" t="s">
-        <v>91</v>
+      <c r="W38" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="X38" s="2">
         <v>7.13</v>
@@ -4372,8 +4367,8 @@
       <c r="V39" s="2">
         <v>227</v>
       </c>
-      <c r="W39" s="19" t="s">
-        <v>91</v>
+      <c r="W39" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="X39" s="2">
         <v>7.13</v>
@@ -4459,8 +4454,8 @@
       <c r="V40" s="2">
         <v>227</v>
       </c>
-      <c r="W40" s="19" t="s">
-        <v>91</v>
+      <c r="W40" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="X40" s="2">
         <v>7.13</v>
@@ -4547,7 +4542,7 @@
         <v>178</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X41" s="1">
         <v>9</v>
@@ -4634,7 +4629,7 @@
         <v>178</v>
       </c>
       <c r="W42" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X42" s="1">
         <v>9</v>
@@ -4721,7 +4716,7 @@
         <v>178</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X43" s="1">
         <v>9</v>
@@ -4808,7 +4803,7 @@
         <v>178</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X44" s="1">
         <v>9</v>
@@ -4887,7 +4882,7 @@
         <v>178</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X45" s="1">
         <v>9</v>
@@ -4909,8 +4904,8 @@
       <c r="B46" s="3">
         <v>45840</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>77</v>
+      <c r="C46" s="18">
+        <v>9962690</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>75</v>
@@ -4919,7 +4914,7 @@
         <v>76</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>34</v>
@@ -4976,7 +4971,7 @@
         <v>226.67</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X46" s="1">
         <v>19.71</v>
@@ -4998,8 +4993,8 @@
       <c r="B47" s="3">
         <v>45841</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>77</v>
+      <c r="C47" s="18">
+        <v>9962690</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>75</v>
@@ -5008,7 +5003,7 @@
         <v>76</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>34</v>
@@ -5065,7 +5060,7 @@
         <v>226.67</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1">
         <v>19.71</v>
@@ -5087,8 +5082,8 @@
       <c r="B48" s="3">
         <v>45842</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>77</v>
+      <c r="C48" s="18">
+        <v>9962690</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>75</v>
@@ -5097,7 +5092,7 @@
         <v>76</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>34</v>
@@ -5154,7 +5149,7 @@
         <v>226.67</v>
       </c>
       <c r="W48" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X48" s="1">
         <v>19.71</v>
@@ -5176,8 +5171,8 @@
       <c r="B49" s="3">
         <v>45845</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>77</v>
+      <c r="C49" s="18">
+        <v>9962690</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>75</v>
@@ -5186,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>34</v>
@@ -5243,7 +5238,7 @@
         <v>226.67</v>
       </c>
       <c r="W49" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1">
         <v>19.71</v>
@@ -5267,13 +5262,13 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>34</v>
@@ -5342,13 +5337,13 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>34</v>
@@ -5417,13 +5412,13 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>34</v>
@@ -5492,13 +5487,13 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>34</v>
@@ -5567,13 +5562,13 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>34</v>
@@ -5642,13 +5637,13 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>34</v>
@@ -5717,13 +5712,13 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>34</v>
@@ -5792,13 +5787,13 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>34</v>
@@ -5867,13 +5862,13 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>34</v>
@@ -5885,7 +5880,7 @@
         <v>42</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K58" s="1">
         <v>14</v>
@@ -5942,13 +5937,13 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>34</v>
@@ -5960,7 +5955,7 @@
         <v>42</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K59" s="1">
         <v>16</v>
@@ -6017,13 +6012,13 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>34</v>
@@ -6035,7 +6030,7 @@
         <v>42</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60" s="1">
         <v>18</v>
@@ -6092,13 +6087,13 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>34</v>
@@ -6110,7 +6105,7 @@
         <v>42</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K61" s="1">
         <v>16</v>
@@ -6165,17 +6160,17 @@
       <c r="B62" s="3">
         <v>45863</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>85</v>
+      <c r="C62" s="1">
+        <v>9962830</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>34</v>
@@ -6187,7 +6182,7 @@
         <v>42</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K62" s="1">
         <v>14</v>
@@ -6242,17 +6237,17 @@
       <c r="B63" s="3">
         <v>45866</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>85</v>
+      <c r="C63" s="1">
+        <v>9962830</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>34</v>
@@ -6264,7 +6259,7 @@
         <v>42</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K63" s="1">
         <v>14</v>
@@ -6319,17 +6314,17 @@
       <c r="B64" s="3">
         <v>45867</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>85</v>
+      <c r="C64" s="1">
+        <v>9962830</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>34</v>
@@ -6341,7 +6336,7 @@
         <v>42</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K64" s="1">
         <v>16</v>
@@ -6396,17 +6391,17 @@
       <c r="B65" s="3">
         <v>45868</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>85</v>
+      <c r="C65" s="1">
+        <v>9962830</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>34</v>
@@ -6418,7 +6413,7 @@
         <v>42</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K65" s="1">
         <v>15</v>
@@ -6473,9 +6468,11 @@
       <c r="B66" s="3">
         <v>45869</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1">
+        <v>1062290</v>
+      </c>
       <c r="D66" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>23</v>
@@ -6489,9 +6486,11 @@
       <c r="H66" s="1">
         <v>200</v>
       </c>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1">
+        <v>42</v>
+      </c>
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K66" s="1">
         <v>16</v>
@@ -6546,9 +6545,11 @@
       <c r="B67" s="3">
         <v>45870</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1">
+        <v>1062290</v>
+      </c>
       <c r="D67" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>23</v>
@@ -6562,9 +6563,11 @@
       <c r="H67" s="1">
         <v>200</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>42</v>
+      </c>
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67" s="1">
         <v>17</v>
@@ -6619,9 +6622,11 @@
       <c r="B68" s="3">
         <v>45873</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1">
+        <v>1062290</v>
+      </c>
       <c r="D68" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>23</v>
@@ -6635,9 +6640,11 @@
       <c r="H68" s="1">
         <v>200</v>
       </c>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>42</v>
+      </c>
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K68" s="1">
         <v>15</v>
@@ -6692,9 +6699,11 @@
       <c r="B69" s="3">
         <v>45874</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1">
+        <v>1062290</v>
+      </c>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>23</v>
@@ -6708,9 +6717,11 @@
       <c r="H69" s="1">
         <v>200</v>
       </c>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>42</v>
+      </c>
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K69" s="1">
         <v>16</v>
@@ -6769,13 +6780,13 @@
         <v>1063630</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>34</v>
@@ -6787,7 +6798,7 @@
         <v>36</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1">
@@ -6838,13 +6849,13 @@
         <v>1063630</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>34</v>
@@ -6856,7 +6867,7 @@
         <v>36</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -6905,13 +6916,13 @@
         <v>1063630</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>34</v>
@@ -6923,7 +6934,7 @@
         <v>36</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -6972,13 +6983,13 @@
         <v>1063630</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>34</v>
@@ -6990,7 +7001,7 @@
         <v>36</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB084E-A1C7-4FB4-8DD3-47D7E3652378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B31B3-761F-4376-8331-3AF55341AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1156,35 +1156,35 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -6800,7 +6800,9 @@
       <c r="J70" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K70" s="1"/>
+      <c r="K70" s="1">
+        <v>17</v>
+      </c>
       <c r="L70" s="1">
         <v>314</v>
       </c>
@@ -6808,28 +6810,34 @@
         <f t="shared" si="51"/>
         <v>1.0397350993377483</v>
       </c>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>167</v>
+      </c>
       <c r="O70" s="5">
         <f t="shared" si="52"/>
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="P70" s="4">
         <f t="shared" si="53"/>
-        <v>302</v>
-      </c>
-      <c r="Q70" s="1"/>
+        <v>141.38216560509554</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>292</v>
+      </c>
       <c r="R70" s="4">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2.065324142902194</v>
       </c>
       <c r="S70" s="4">
         <f t="shared" si="55"/>
-        <v>-1.0397350993377483</v>
-      </c>
-      <c r="T70" s="1"/>
+        <v>1.0255890435644457</v>
+      </c>
+      <c r="T70" s="1">
+        <v>19.100000000000001</v>
+      </c>
       <c r="U70" s="5">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>11001.6</v>
       </c>
       <c r="V70" s="1"/>
       <c r="W70" s="9"/>
@@ -6869,29 +6877,33 @@
       <c r="J71" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="K71" s="1">
+        <v>18</v>
+      </c>
+      <c r="L71" s="1">
+        <v>310</v>
+      </c>
       <c r="M71" s="4">
         <f t="shared" ref="M71" si="57">L71/(H71+2)</f>
-        <v>0</v>
+        <v>1.0264900662251655</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="5">
         <f t="shared" ref="O71:O72" si="58">L71-N71</f>
+        <v>310</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" ref="P71:P72" si="59">IFERROR(O71/M71,"")</f>
+        <v>302</v>
+      </c>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="4">
+        <f t="shared" ref="R71:R72" si="60">IFERROR(Q71/P71,"")</f>
         <v>0</v>
       </c>
-      <c r="P71" s="4" t="str">
-        <f t="shared" ref="P71:P72" si="59">IFERROR(O71/M71,"")</f>
-        <v/>
-      </c>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="4" t="str">
-        <f t="shared" ref="R71:R72" si="60">IFERROR(Q71/P71,"")</f>
-        <v/>
-      </c>
-      <c r="S71" s="4" t="str">
+      <c r="S71" s="4">
         <f t="shared" ref="S71:S72" si="61">IFERROR(R71-M71,"")</f>
-        <v/>
+        <v>-1.0264900662251655</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B31B3-761F-4376-8331-3AF55341AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40ED0BE-2B75-467B-BA11-5E901DF7B53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="125">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -726,6 +726,151 @@
   </si>
   <si>
     <t>NEWステップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0'58</t>
+  </si>
+  <si>
+    <t>5'28</t>
+  </si>
+  <si>
+    <t>2'00</t>
+  </si>
+  <si>
+    <t>中パ タオル（仮）</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社トーヨ</t>
+    <rPh sb="0" eb="4">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰﾗｲｽﾞM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中越ﾊﾟﾙﾌﾟ原紙ﾀｵﾙ（仮）</t>
+    <rPh sb="0" eb="2">
+      <t>チュウエツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰﾗｲｽﾞS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>220×170</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰｽﾉｰｸM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰｽﾉｰｸS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｺｽﾏｰﾄ小判</t>
+    <rPh sb="6" eb="8">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社EBS</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>170×210</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｺｾﾚｸﾄ中判</t>
+    <rPh sb="6" eb="8">
+      <t>チュウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｺｾﾚｸﾄ小判</t>
+    <rPh sb="6" eb="8">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾌｧｲﾝｿﾌﾄ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3'13</t>
+  </si>
+  <si>
+    <t>3'35</t>
+  </si>
+  <si>
+    <t>10'27</t>
+  </si>
+  <si>
+    <t>ライ〇M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライ〇S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スノ○M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スノ○S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エコス〇小判</t>
+    <rPh sb="4" eb="6">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エコセレ〇中判</t>
+    <rPh sb="5" eb="7">
+      <t>チュウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エコセレ〇小判</t>
+    <rPh sb="5" eb="7">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>36gファイ○ソフト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1153,38 +1298,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -5321,12 +5466,24 @@
         <f t="shared" si="26"/>
         <v>12441.6</v>
       </c>
-      <c r="V50" s="1"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
+      <c r="V50" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X50" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1">
@@ -5396,12 +5553,24 @@
         <f t="shared" ref="U51:U53" si="32">32*18*T51</f>
         <v>7920</v>
       </c>
-      <c r="V51" s="1"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
+      <c r="V51" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X51" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1">
@@ -5471,12 +5640,24 @@
         <f t="shared" si="32"/>
         <v>11923.199999999999</v>
       </c>
-      <c r="V52" s="1"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
+      <c r="V52" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X52" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1">
@@ -5546,12 +5727,24 @@
         <f t="shared" si="32"/>
         <v>8208</v>
       </c>
-      <c r="V53" s="1"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
+      <c r="V53" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X53" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1">
@@ -5621,12 +5814,24 @@
         <f t="shared" ref="U54:U61" si="38">32*18*T54</f>
         <v>8928</v>
       </c>
-      <c r="V54" s="1"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
+      <c r="V54" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W54" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X54" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1">
@@ -5696,12 +5901,24 @@
         <f t="shared" si="38"/>
         <v>15206.4</v>
       </c>
-      <c r="V55" s="1"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
+      <c r="V55" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W55" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X55" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1">
@@ -5771,12 +5988,24 @@
         <f t="shared" si="38"/>
         <v>12556.800000000001</v>
       </c>
-      <c r="V56" s="1"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
+      <c r="V56" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X56" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1">
@@ -5846,12 +6075,24 @@
         <f t="shared" si="38"/>
         <v>8467.1999999999989</v>
       </c>
-      <c r="V57" s="1"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
+      <c r="V57" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X57" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1">
@@ -5921,12 +6162,24 @@
         <f t="shared" si="38"/>
         <v>4953.5999999999995</v>
       </c>
-      <c r="V58" s="1"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
+      <c r="V58" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X58" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1">
@@ -5996,12 +6249,24 @@
         <f t="shared" si="38"/>
         <v>7632</v>
       </c>
-      <c r="V59" s="1"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
+      <c r="V59" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X59" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1">
@@ -6071,12 +6336,24 @@
         <f t="shared" si="38"/>
         <v>4492.8</v>
       </c>
-      <c r="V60" s="1"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
+      <c r="V60" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X60" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z60" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1">
@@ -6146,12 +6423,24 @@
         <f t="shared" si="38"/>
         <v>8006.4000000000005</v>
       </c>
-      <c r="V61" s="1"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
+      <c r="V61" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X61" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z61" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1">
@@ -6223,12 +6512,24 @@
         <f t="shared" ref="U62:U65" si="43">32*18*T62</f>
         <v>11174.4</v>
       </c>
-      <c r="V62" s="1"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
+      <c r="V62" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W62" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X62" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z62" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1">
@@ -6300,12 +6601,24 @@
         <f t="shared" si="43"/>
         <v>10857.6</v>
       </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
+      <c r="V63" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W63" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X63" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z63" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1">
@@ -6377,12 +6690,24 @@
         <f t="shared" si="43"/>
         <v>8064</v>
       </c>
-      <c r="V64" s="1"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
+      <c r="V64" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W64" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X64" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z64" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1">
@@ -6454,12 +6779,24 @@
         <f t="shared" si="43"/>
         <v>10886.4</v>
       </c>
-      <c r="V65" s="1"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
+      <c r="V65" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W65" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X65" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z65" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1">
@@ -6531,12 +6868,24 @@
         <f t="shared" ref="U66:U67" si="50">32*18*T66</f>
         <v>10195.199999999999</v>
       </c>
-      <c r="V66" s="1"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
+      <c r="V66" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W66" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X66" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y66" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z66" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1">
@@ -6608,12 +6957,24 @@
         <f t="shared" si="50"/>
         <v>8035.2</v>
       </c>
-      <c r="V67" s="1"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
+      <c r="V67" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X67" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y67" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z67" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1">
@@ -6685,12 +7046,24 @@
         <f t="shared" ref="U68:U70" si="56">32*18*T68</f>
         <v>9878.4</v>
       </c>
-      <c r="V68" s="1"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
+      <c r="V68" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W68" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X68" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z68" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1">
@@ -6762,12 +7135,24 @@
         <f t="shared" si="56"/>
         <v>11232</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
+      <c r="V69" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W69" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X69" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z69" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1">
@@ -6887,28 +7272,34 @@
         <f t="shared" ref="M71" si="57">L71/(H71+2)</f>
         <v>1.0264900662251655</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>154</v>
+      </c>
       <c r="O71" s="5">
         <f t="shared" ref="O71:O72" si="58">L71-N71</f>
-        <v>310</v>
+        <v>156</v>
       </c>
       <c r="P71" s="4">
         <f t="shared" ref="P71:P72" si="59">IFERROR(O71/M71,"")</f>
-        <v>302</v>
-      </c>
-      <c r="Q71" s="1"/>
+        <v>151.97419354838712</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>328</v>
+      </c>
       <c r="R71" s="4">
         <f t="shared" ref="R71:R72" si="60">IFERROR(Q71/P71,"")</f>
-        <v>0</v>
+        <v>2.1582611648836809</v>
       </c>
       <c r="S71" s="4">
         <f t="shared" ref="S71:S72" si="61">IFERROR(R71-M71,"")</f>
-        <v>-1.0264900662251655</v>
-      </c>
-      <c r="T71" s="1"/>
+        <v>1.1317710986585154</v>
+      </c>
+      <c r="T71" s="1">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="U71" s="5">
         <f t="shared" ref="U71:U72" si="62">32*18*T71</f>
-        <v>0</v>
+        <v>4636.8</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="9"/>
@@ -6948,34 +7339,44 @@
       <c r="J72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="K72" s="1">
+        <v>17</v>
+      </c>
+      <c r="L72" s="1">
+        <v>316</v>
+      </c>
       <c r="M72" s="4">
         <f>L72/(H72+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N72" s="1"/>
+        <v>1.0463576158940397</v>
+      </c>
+      <c r="N72" s="1">
+        <v>169</v>
+      </c>
       <c r="O72" s="5">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="4" t="str">
+        <v>147</v>
+      </c>
+      <c r="P72" s="4">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="4" t="str">
+        <v>140.48734177215189</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>301</v>
+      </c>
+      <c r="R72" s="4">
         <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="S72" s="4" t="str">
+        <v>2.142541784925891</v>
+      </c>
+      <c r="S72" s="4">
         <f t="shared" si="61"/>
-        <v/>
-      </c>
-      <c r="T72" s="1"/>
+        <v>1.0961841690318512</v>
+      </c>
+      <c r="T72" s="1">
+        <v>11.4</v>
+      </c>
       <c r="U72" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>6566.4000000000005</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
@@ -7015,34 +7416,44 @@
       <c r="J73" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="K73" s="1">
+        <v>16</v>
+      </c>
+      <c r="L73" s="1">
+        <v>312</v>
+      </c>
       <c r="M73" s="4">
         <f>L73/(H73+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N73" s="1"/>
+        <v>1.0331125827814569</v>
+      </c>
+      <c r="N73" s="1">
+        <v>139</v>
+      </c>
       <c r="O73" s="5">
         <f t="shared" ref="O73:O76" si="63">L73-N73</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="4" t="str">
+        <v>173</v>
+      </c>
+      <c r="P73" s="4">
         <f t="shared" ref="P73:P76" si="64">IFERROR(O73/M73,"")</f>
-        <v/>
-      </c>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="4" t="str">
+        <v>167.4551282051282</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>342</v>
+      </c>
+      <c r="R73" s="4">
         <f t="shared" ref="R73:R76" si="65">IFERROR(Q73/P73,"")</f>
-        <v/>
-      </c>
-      <c r="S73" s="4" t="str">
+        <v>2.0423381694292386</v>
+      </c>
+      <c r="S73" s="4">
         <f t="shared" ref="S73:S76" si="66">IFERROR(R73-M73,"")</f>
-        <v/>
-      </c>
-      <c r="T73" s="1"/>
+        <v>1.0092255866477817</v>
+      </c>
+      <c r="T73" s="1">
+        <v>10.85</v>
+      </c>
       <c r="U73" s="5">
         <f t="shared" ref="U73:U76" si="67">32*18*T73</f>
-        <v>0</v>
+        <v>6249.5999999999995</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -7056,153 +7467,2945 @@
         <v>2025</v>
       </c>
       <c r="B74" s="3">
-        <v>45889</v>
+        <v>45926</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" s="1">
+        <v>200</v>
+      </c>
+      <c r="I74" s="1">
+        <v>35</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="1">
+        <v>16</v>
+      </c>
+      <c r="L74" s="1">
+        <v>367</v>
+      </c>
       <c r="M74" s="4">
         <f t="shared" ref="M74:M76" si="68">L74/(H74+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="1"/>
+        <v>1.8168316831683169</v>
+      </c>
+      <c r="N74" s="1">
+        <v>162</v>
+      </c>
       <c r="O74" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="4" t="str">
+        <v>205</v>
+      </c>
+      <c r="P74" s="4">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="4" t="str">
+        <v>112.83378746594005</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>352</v>
+      </c>
+      <c r="R74" s="4">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="S74" s="4" t="str">
+        <v>3.1196329389036466</v>
+      </c>
+      <c r="S74" s="4">
         <f t="shared" si="66"/>
-        <v/>
+        <v>1.3028012557353297</v>
       </c>
       <c r="T74" s="1"/>
       <c r="U74" s="5">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
+      <c r="V74" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X74" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y74" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z74" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>1.5566666666666666</v>
+      </c>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>2025</v>
       </c>
       <c r="B75" s="3">
-        <v>45890</v>
+        <v>45929</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="1">
+        <v>200</v>
+      </c>
+      <c r="I75" s="1">
+        <v>35</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="1">
+        <v>14</v>
+      </c>
+      <c r="L75" s="1">
+        <v>367</v>
+      </c>
       <c r="M75" s="4">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="1"/>
+        <v>1.8168316831683169</v>
+      </c>
+      <c r="N75" s="1">
+        <v>163</v>
+      </c>
       <c r="O75" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="4" t="str">
+        <v>204</v>
+      </c>
+      <c r="P75" s="4">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="4" t="str">
+        <v>112.283378746594</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>302</v>
+      </c>
+      <c r="R75" s="4">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="S75" s="4" t="str">
+        <v>2.6896233741021165</v>
+      </c>
+      <c r="S75" s="4">
         <f t="shared" si="66"/>
-        <v/>
+        <v>0.8727916909337996</v>
       </c>
       <c r="T75" s="1"/>
       <c r="U75" s="5">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
+      <c r="V75" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W75" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X75" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y75" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z75" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>1.5566666666666666</v>
+      </c>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>2025</v>
       </c>
       <c r="B76" s="3">
-        <v>45891</v>
+        <v>45930</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="1">
+        <v>200</v>
+      </c>
+      <c r="I76" s="1">
+        <v>35</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" s="1">
+        <v>18</v>
+      </c>
+      <c r="L76" s="1">
+        <v>366</v>
+      </c>
       <c r="M76" s="4">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="1"/>
+        <v>1.8118811881188119</v>
+      </c>
+      <c r="N76" s="1">
+        <v>113</v>
+      </c>
       <c r="O76" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="4" t="str">
+        <v>253</v>
+      </c>
+      <c r="P76" s="4">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="4" t="str">
+        <v>139.63387978142077</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>384</v>
+      </c>
+      <c r="R76" s="4">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="S76" s="4" t="str">
+        <v>2.7500489179352714</v>
+      </c>
+      <c r="S76" s="4">
         <f t="shared" si="66"/>
-        <v/>
+        <v>0.93816772981645946</v>
       </c>
       <c r="T76" s="1"/>
       <c r="U76" s="5">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
+      <c r="V76" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W76" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X76" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y76" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z76" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>1.5566666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45931</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="1">
+        <v>200</v>
+      </c>
+      <c r="I77" s="1">
+        <v>35</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="1">
+        <v>18</v>
+      </c>
+      <c r="L77" s="1">
+        <v>366</v>
+      </c>
+      <c r="M77" s="4">
+        <f t="shared" ref="M77:M92" si="69">L77/(H77+2)</f>
+        <v>1.8118811881188119</v>
+      </c>
+      <c r="N77" s="1">
+        <v>141</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" ref="O77:O92" si="70">L77-N77</f>
+        <v>225</v>
+      </c>
+      <c r="P77" s="4">
+        <f t="shared" ref="P77:P92" si="71">IFERROR(O77/M77,"")</f>
+        <v>124.18032786885246</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>359</v>
+      </c>
+      <c r="R77" s="4">
+        <f t="shared" ref="R77:R92" si="72">IFERROR(Q77/P77,"")</f>
+        <v>2.8909570957095712</v>
+      </c>
+      <c r="S77" s="4">
+        <f t="shared" ref="S77:S92" si="73">IFERROR(R77-M77,"")</f>
+        <v>1.0790759075907592</v>
+      </c>
+      <c r="T77" s="1"/>
+      <c r="U77" s="5">
+        <f t="shared" ref="U77:U92" si="74">32*18*T77</f>
+        <v>0</v>
+      </c>
+      <c r="V77" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W77" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X77" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z77" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>1.5566666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45932</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="1">
+        <v>200</v>
+      </c>
+      <c r="I78" s="1">
+        <v>35</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="1">
+        <v>18</v>
+      </c>
+      <c r="L78" s="1">
+        <v>365</v>
+      </c>
+      <c r="M78" s="4">
+        <f t="shared" si="69"/>
+        <v>1.806930693069307</v>
+      </c>
+      <c r="N78" s="1">
+        <v>105</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="70"/>
+        <v>260</v>
+      </c>
+      <c r="P78" s="4">
+        <f t="shared" si="71"/>
+        <v>143.89041095890411</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>445</v>
+      </c>
+      <c r="R78" s="4">
+        <f t="shared" si="72"/>
+        <v>3.0926313785224675</v>
+      </c>
+      <c r="S78" s="4">
+        <f t="shared" si="73"/>
+        <v>1.2857006854531605</v>
+      </c>
+      <c r="T78" s="1"/>
+      <c r="U78" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45933</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="1">
+        <v>200</v>
+      </c>
+      <c r="I79" s="1">
+        <v>35</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="1">
+        <v>16</v>
+      </c>
+      <c r="L79" s="1">
+        <v>363</v>
+      </c>
+      <c r="M79" s="4">
+        <f t="shared" si="69"/>
+        <v>1.7970297029702971</v>
+      </c>
+      <c r="N79" s="1">
+        <v>159</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="70"/>
+        <v>204</v>
+      </c>
+      <c r="P79" s="4">
+        <f t="shared" si="71"/>
+        <v>113.52066115702479</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>318</v>
+      </c>
+      <c r="R79" s="4">
+        <f t="shared" si="72"/>
+        <v>2.8012521840419335</v>
+      </c>
+      <c r="S79" s="4">
+        <f t="shared" si="73"/>
+        <v>1.0042224810716365</v>
+      </c>
+      <c r="T79" s="1"/>
+      <c r="U79" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45936</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="1">
+        <v>200</v>
+      </c>
+      <c r="I80" s="1">
+        <v>35</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="1">
+        <v>13</v>
+      </c>
+      <c r="L80" s="1">
+        <v>362</v>
+      </c>
+      <c r="M80" s="4">
+        <f t="shared" si="69"/>
+        <v>1.7920792079207921</v>
+      </c>
+      <c r="N80" s="1">
+        <v>134</v>
+      </c>
+      <c r="O80" s="5">
+        <f t="shared" si="70"/>
+        <v>228</v>
+      </c>
+      <c r="P80" s="4">
+        <f t="shared" si="71"/>
+        <v>127.22651933701657</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>415</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" si="72"/>
+        <v>3.2618985582768802</v>
+      </c>
+      <c r="S80" s="4">
+        <f t="shared" si="73"/>
+        <v>1.4698193503560881</v>
+      </c>
+      <c r="T80" s="1"/>
+      <c r="U80" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45937</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="1">
+        <v>200</v>
+      </c>
+      <c r="I81" s="1">
+        <v>35</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="1">
+        <v>16</v>
+      </c>
+      <c r="L81" s="1">
+        <v>369</v>
+      </c>
+      <c r="M81" s="4">
+        <f t="shared" si="69"/>
+        <v>1.8267326732673268</v>
+      </c>
+      <c r="N81" s="1">
+        <v>199</v>
+      </c>
+      <c r="O81" s="5">
+        <f t="shared" si="70"/>
+        <v>170</v>
+      </c>
+      <c r="P81" s="4">
+        <f t="shared" si="71"/>
+        <v>93.062330623306224</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>280</v>
+      </c>
+      <c r="R81" s="4">
+        <f t="shared" si="72"/>
+        <v>3.0087361677344209</v>
+      </c>
+      <c r="S81" s="4">
+        <f t="shared" si="73"/>
+        <v>1.1820034944670941</v>
+      </c>
+      <c r="T81" s="1"/>
+      <c r="U81" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45938</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="1">
+        <v>200</v>
+      </c>
+      <c r="I82" s="1">
+        <v>30</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="1">
+        <v>16</v>
+      </c>
+      <c r="L82" s="1">
+        <v>418</v>
+      </c>
+      <c r="M82" s="4">
+        <f t="shared" si="69"/>
+        <v>2.0693069306930694</v>
+      </c>
+      <c r="N82" s="1">
+        <v>147</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="70"/>
+        <v>271</v>
+      </c>
+      <c r="P82" s="4">
+        <f t="shared" si="71"/>
+        <v>130.96172248803828</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>280</v>
+      </c>
+      <c r="R82" s="4">
+        <f t="shared" si="72"/>
+        <v>2.1380293010850902</v>
+      </c>
+      <c r="S82" s="4">
+        <f t="shared" si="73"/>
+        <v>6.8722370392020782E-2</v>
+      </c>
+      <c r="T82" s="1"/>
+      <c r="U82" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45939</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="1">
+        <v>200</v>
+      </c>
+      <c r="I83" s="1">
+        <v>30</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="1">
+        <v>16</v>
+      </c>
+      <c r="L83" s="1">
+        <v>416</v>
+      </c>
+      <c r="M83" s="4">
+        <f t="shared" si="69"/>
+        <v>2.0594059405940595</v>
+      </c>
+      <c r="N83" s="1">
+        <v>186</v>
+      </c>
+      <c r="O83" s="5">
+        <f t="shared" si="70"/>
+        <v>230</v>
+      </c>
+      <c r="P83" s="4">
+        <f t="shared" si="71"/>
+        <v>111.68269230769231</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>350</v>
+      </c>
+      <c r="R83" s="4">
+        <f t="shared" si="72"/>
+        <v>3.1338786052518297</v>
+      </c>
+      <c r="S83" s="4">
+        <f t="shared" si="73"/>
+        <v>1.0744726646577702</v>
+      </c>
+      <c r="T83" s="1"/>
+      <c r="U83" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45940</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="1">
+        <v>200</v>
+      </c>
+      <c r="I84" s="1">
+        <v>30</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S84" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T84" s="1"/>
+      <c r="U84" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45944</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="1">
+        <v>200</v>
+      </c>
+      <c r="I85" s="1">
+        <v>30</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="1">
+        <v>15</v>
+      </c>
+      <c r="L85" s="1">
+        <v>419</v>
+      </c>
+      <c r="M85" s="4">
+        <f t="shared" si="69"/>
+        <v>2.0742574257425743</v>
+      </c>
+      <c r="N85" s="1">
+        <v>132</v>
+      </c>
+      <c r="O85" s="5">
+        <f t="shared" si="70"/>
+        <v>287</v>
+      </c>
+      <c r="P85" s="4">
+        <f t="shared" si="71"/>
+        <v>138.36276849642005</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>435</v>
+      </c>
+      <c r="R85" s="4">
+        <f t="shared" si="72"/>
+        <v>3.1439093386690584</v>
+      </c>
+      <c r="S85" s="4">
+        <f t="shared" si="73"/>
+        <v>1.0696519129264841</v>
+      </c>
+      <c r="T85" s="1"/>
+      <c r="U85" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45945</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="1">
+        <v>400</v>
+      </c>
+      <c r="I86" s="1">
+        <v>42</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K86" s="1">
+        <v>17</v>
+      </c>
+      <c r="L86" s="1">
+        <v>617</v>
+      </c>
+      <c r="M86" s="4">
+        <f t="shared" si="69"/>
+        <v>1.5348258706467661</v>
+      </c>
+      <c r="N86" s="1">
+        <v>265</v>
+      </c>
+      <c r="O86" s="5">
+        <f t="shared" si="70"/>
+        <v>352</v>
+      </c>
+      <c r="P86" s="4">
+        <f t="shared" si="71"/>
+        <v>229.3419773095624</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>563</v>
+      </c>
+      <c r="R86" s="4">
+        <f t="shared" si="72"/>
+        <v>2.4548493328810492</v>
+      </c>
+      <c r="S86" s="4">
+        <f t="shared" si="73"/>
+        <v>0.92002346223428311</v>
+      </c>
+      <c r="T86" s="1"/>
+      <c r="U86" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45946</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="1">
+        <v>200</v>
+      </c>
+      <c r="I87" s="1">
+        <v>42</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1">
+        <v>308</v>
+      </c>
+      <c r="M87" s="4">
+        <f t="shared" si="69"/>
+        <v>1.5247524752475248</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="O87" s="5">
+        <f t="shared" si="70"/>
+        <v>308</v>
+      </c>
+      <c r="P87" s="4">
+        <f t="shared" si="71"/>
+        <v>202</v>
+      </c>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="S87" s="4">
+        <f t="shared" si="73"/>
+        <v>-1.5247524752475248</v>
+      </c>
+      <c r="T87" s="1"/>
+      <c r="U87" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45947</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="1">
+        <v>200</v>
+      </c>
+      <c r="I88" s="1">
+        <v>42</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S88" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T88" s="1"/>
+      <c r="U88" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45950</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="1">
+        <v>200</v>
+      </c>
+      <c r="I89" s="1">
+        <v>42</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S89" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T89" s="1"/>
+      <c r="U89" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45951</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="1">
+        <v>200</v>
+      </c>
+      <c r="I90" s="1">
+        <v>35</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S90" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T90" s="1"/>
+      <c r="U90" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45952</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="1">
+        <v>200</v>
+      </c>
+      <c r="I91" s="1">
+        <v>35</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="1"/>
+      <c r="O91" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S91" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T91" s="1"/>
+      <c r="U91" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45953</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="1">
+        <v>200</v>
+      </c>
+      <c r="I92" s="1">
+        <v>35</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="O92" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S92" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T92" s="1"/>
+      <c r="U92" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B93" s="3">
+        <v>45954</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="1">
+        <v>200</v>
+      </c>
+      <c r="I93" s="1">
+        <v>35</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="4">
+        <f t="shared" ref="M93:M111" si="75">L93/(H93+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="5">
+        <f t="shared" ref="O93:O111" si="76">L93-N93</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="4" t="str">
+        <f t="shared" ref="P93:P111" si="77">IFERROR(O93/M93,"")</f>
+        <v/>
+      </c>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="4" t="str">
+        <f t="shared" ref="R93:R111" si="78">IFERROR(Q93/P93,"")</f>
+        <v/>
+      </c>
+      <c r="S93" s="4" t="str">
+        <f t="shared" ref="S93:S111" si="79">IFERROR(R93-M93,"")</f>
+        <v/>
+      </c>
+      <c r="T93" s="1"/>
+      <c r="U93" s="5">
+        <f t="shared" ref="U93:U111" si="80">32*18*T93</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45957</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="1">
+        <v>200</v>
+      </c>
+      <c r="I94" s="1">
+        <v>42</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="1"/>
+      <c r="O94" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S94" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T94" s="1"/>
+      <c r="U94" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B95" s="3">
+        <v>45958</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="1">
+        <v>200</v>
+      </c>
+      <c r="I95" s="1">
+        <v>42</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S95" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T95" s="1"/>
+      <c r="U95" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B96" s="3">
+        <v>45959</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="1">
+        <v>200</v>
+      </c>
+      <c r="I96" s="1">
+        <v>42</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S96" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T96" s="1"/>
+      <c r="U96" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B97" s="3">
+        <v>45960</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="1">
+        <v>200</v>
+      </c>
+      <c r="I97" s="1">
+        <v>42</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S97" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T97" s="1"/>
+      <c r="U97" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B98" s="3">
+        <v>45961</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="1">
+        <v>200</v>
+      </c>
+      <c r="I98" s="1">
+        <v>42</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S98" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T98" s="1"/>
+      <c r="U98" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45965</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="1">
+        <v>200</v>
+      </c>
+      <c r="I99" s="1">
+        <v>42</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S99" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T99" s="1"/>
+      <c r="U99" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B100" s="3">
+        <v>45966</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="1">
+        <v>200</v>
+      </c>
+      <c r="I100" s="1">
+        <v>42</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S100" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T100" s="1"/>
+      <c r="U100" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B101" s="3">
+        <v>45967</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="1">
+        <v>200</v>
+      </c>
+      <c r="I101" s="1">
+        <v>42</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S101" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T101" s="1"/>
+      <c r="U101" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B102" s="3">
+        <v>45968</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="1">
+        <v>200</v>
+      </c>
+      <c r="I102" s="1">
+        <v>35</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="1"/>
+      <c r="O102" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S102" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T102" s="1"/>
+      <c r="U102" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B103" s="3">
+        <v>45971</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="1">
+        <v>200</v>
+      </c>
+      <c r="I103" s="1">
+        <v>35</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="1"/>
+      <c r="O103" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S103" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T103" s="1"/>
+      <c r="U103" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B104" s="3">
+        <v>45972</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="1">
+        <v>200</v>
+      </c>
+      <c r="I104" s="1">
+        <v>35</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S104" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T104" s="1"/>
+      <c r="U104" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B105" s="3">
+        <v>45973</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" s="1">
+        <v>200</v>
+      </c>
+      <c r="I105" s="1">
+        <v>35</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="1"/>
+      <c r="O105" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S105" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T105" s="1"/>
+      <c r="U105" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="A106" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B106" s="3">
+        <v>45974</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="1">
+        <v>200</v>
+      </c>
+      <c r="I106" s="1">
+        <v>42</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S106" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T106" s="1"/>
+      <c r="U106" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B107" s="3">
+        <v>45975</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="1">
+        <v>200</v>
+      </c>
+      <c r="I107" s="1">
+        <v>42</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S107" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T107" s="1"/>
+      <c r="U107" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="A108" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B108" s="3">
+        <v>45978</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="1">
+        <v>200</v>
+      </c>
+      <c r="I108" s="1">
+        <v>42</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S108" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T108" s="1"/>
+      <c r="U108" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="A109" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45979</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="1">
+        <v>200</v>
+      </c>
+      <c r="I109" s="1">
+        <v>42</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S109" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T109" s="1"/>
+      <c r="U109" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+    </row>
+    <row r="110" spans="1:27">
+      <c r="A110" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B110" s="3">
+        <v>45980</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S110" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T110" s="1"/>
+      <c r="U110" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+    </row>
+    <row r="111" spans="1:27">
+      <c r="A111" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B111" s="3">
+        <v>45981</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="1"/>
+      <c r="O111" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S111" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T111" s="1"/>
+      <c r="U111" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+    </row>
+    <row r="112" spans="1:27">
+      <c r="A112" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B112" s="3">
+        <v>45982</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="4">
+        <f t="shared" ref="M112:M118" si="81">L112/(H112+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="5">
+        <f t="shared" ref="O112:O118" si="82">L112-N112</f>
+        <v>0</v>
+      </c>
+      <c r="P112" s="4" t="str">
+        <f t="shared" ref="P112:P118" si="83">IFERROR(O112/M112,"")</f>
+        <v/>
+      </c>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="4" t="str">
+        <f t="shared" ref="R112:R118" si="84">IFERROR(Q112/P112,"")</f>
+        <v/>
+      </c>
+      <c r="S112" s="4" t="str">
+        <f t="shared" ref="S112:S118" si="85">IFERROR(R112-M112,"")</f>
+        <v/>
+      </c>
+      <c r="T112" s="1"/>
+      <c r="U112" s="5">
+        <f t="shared" ref="U112:U118" si="86">32*18*T112</f>
+        <v>0</v>
+      </c>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B113" s="3">
+        <v>45986</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S113" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T113" s="1"/>
+      <c r="U113" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B114" s="3">
+        <v>45987</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S114" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T114" s="1"/>
+      <c r="U114" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B115" s="3">
+        <v>45988</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P115" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S115" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T115" s="1"/>
+      <c r="U115" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B116" s="3">
+        <v>45989</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="1"/>
+      <c r="O116" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P116" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S116" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T116" s="1"/>
+      <c r="U116" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B117" s="3">
+        <v>45990</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S117" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T117" s="1"/>
+      <c r="U117" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+    </row>
+    <row r="118" spans="1:27">
+      <c r="A118" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B118" s="3">
+        <v>45991</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P118" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S118" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T118" s="1"/>
+      <c r="U118" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40ED0BE-2B75-467B-BA11-5E901DF7B53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C4249-FA5E-4289-88A2-DD78731C2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -355,25 +355,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>26gパルプ200枚</t>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>225×220</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ﾍﾟｰﾊﾟｰﾀｵﾙ（ﾚｷﾞｭﾗｰﾀｲﾌﾟ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>36gパルプ200枚</t>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -593,16 +579,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>33g再生紙200枚</t>
-    <rPh sb="3" eb="6">
-      <t>サイセイシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ｱｽｸﾙ ﾍﾟｰﾊﾟｰﾀｵﾙ ｼﾝｸﾞﾙ中判（EBS）</t>
     <rPh sb="20" eb="22">
       <t>チュウバン</t>
@@ -635,19 +611,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>39g再生紙200枚(小)</t>
-    <rPh sb="3" eb="6">
-      <t>サイセイシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>38g新聞古紙200枚(小)</t>
     <rPh sb="3" eb="7">
       <t>シンブンコシ</t>
@@ -668,19 +631,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30g(段)再生紙300枚</t>
-    <rPh sb="4" eb="5">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サイセイシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>40g新聞古紙200枚</t>
     <rPh sb="3" eb="7">
       <t>シンブンコシ</t>
@@ -738,16 +688,6 @@
     <t>2'00</t>
   </si>
   <si>
-    <t>中パ タオル（仮）</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>株式会社トーヨ</t>
     <rPh sb="0" eb="4">
       <t>カブ</t>
@@ -833,14 +773,6 @@
     <t>10'27</t>
   </si>
   <si>
-    <t>ライ〇M</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ライ〇S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スノ○M</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -871,6 +803,86 @@
   </si>
   <si>
     <t>36gファイ○ソフト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>41gライ〇M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>41gライ〇S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>26gパルプ200枚（大〇物産）</t>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブッサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>36gパルプ200枚（大〇物産）</t>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブッサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>33g再生紙200枚（アス〇ル）</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30g(段)再生紙300枚（アス〇ル）</t>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>39g再生紙200枚(小)（アス〇ル）</t>
+    <rPh sb="3" eb="6">
+      <t>サイセイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>35g中パ タオル（仮）</t>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1301,35 +1313,35 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1397,22 +1409,22 @@
         <v>9</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1426,13 +1438,13 @@
         <v>1062460</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>34</v>
@@ -1461,7 +1473,7 @@
         <v>84</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X2" s="1">
         <v>16.53</v>
@@ -1485,13 +1497,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>34</v>
@@ -1503,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="7"/>
@@ -1520,7 +1532,7 @@
         <v>126.9</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X3" s="1">
         <v>9.09</v>
@@ -1608,7 +1620,7 @@
         <v>469.7</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X4" s="1">
         <v>19.079999999999998</v>
@@ -1696,7 +1708,7 @@
         <v>469.7</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X5" s="1">
         <v>19.079999999999998</v>
@@ -1785,7 +1797,7 @@
         <v>469.7</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X6" s="1">
         <v>19.079999999999998</v>
@@ -1874,7 +1886,7 @@
         <v>469.7</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X7" s="1">
         <v>19.079999999999998</v>
@@ -1963,7 +1975,7 @@
         <v>469.7</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X8" s="1">
         <v>19.079999999999998</v>
@@ -1995,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -2071,7 +2083,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -2148,7 +2160,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -2224,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>34</v>
@@ -2300,7 +2312,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>34</v>
@@ -2370,13 +2382,13 @@
         <v>9962240</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>34</v>
@@ -2405,7 +2417,7 @@
         <v>71</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -2486,7 +2498,7 @@
         <v>113.2</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -2567,7 +2579,7 @@
         <v>113.2</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -2648,7 +2660,7 @@
         <v>113.2</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -2729,7 +2741,7 @@
         <v>113.2</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -2810,7 +2822,7 @@
         <v>113.2</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -2889,7 +2901,7 @@
         <v>101</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X20" s="12">
         <v>6.1833333333333336</v>
@@ -2976,7 +2988,7 @@
         <v>101</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X21" s="12">
         <v>6.1833333333333336</v>
@@ -3063,7 +3075,7 @@
         <v>101</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X22" s="12">
         <v>6.1833333333333336</v>
@@ -3150,7 +3162,7 @@
         <v>101</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X23" s="12">
         <v>6.1833333333333336</v>
@@ -3237,7 +3249,7 @@
         <v>101</v>
       </c>
       <c r="W24" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X24" s="13">
         <v>6.1833333333333336</v>
@@ -3324,7 +3336,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X25" s="12">
         <v>12.29</v>
@@ -3411,7 +3423,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X26" s="12">
         <v>12.29</v>
@@ -3498,7 +3510,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X27" s="12">
         <v>12.29</v>
@@ -3585,7 +3597,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X28" s="12">
         <v>12.29</v>
@@ -3672,7 +3684,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X29" s="13">
         <v>12.29</v>
@@ -3702,7 +3714,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>40</v>
@@ -3759,7 +3771,7 @@
         <v>306</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X30" s="12">
         <v>6.0799999999999992</v>
@@ -3789,7 +3801,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>40</v>
@@ -3846,7 +3858,7 @@
         <v>306</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X31" s="12">
         <v>6.0799999999999992</v>
@@ -3876,7 +3888,7 @@
         <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>40</v>
@@ -3933,7 +3945,7 @@
         <v>306</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X32" s="12">
         <v>6.0799999999999992</v>
@@ -3963,7 +3975,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>40</v>
@@ -4020,7 +4032,7 @@
         <v>306</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X33" s="12">
         <v>6.0799999999999992</v>
@@ -4050,7 +4062,7 @@
         <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>40</v>
@@ -4107,7 +4119,7 @@
         <v>306</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X34" s="12">
         <v>6.0799999999999992</v>
@@ -4131,13 +4143,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>34</v>
@@ -4166,7 +4178,7 @@
         <v>418</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X35" s="16">
         <v>11.39</v>
@@ -4196,7 +4208,7 @@
         <v>43</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
@@ -4208,7 +4220,7 @@
         <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" s="1">
         <v>13</v>
@@ -4253,7 +4265,7 @@
         <v>227</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X36" s="2">
         <v>7.13</v>
@@ -4283,7 +4295,7 @@
         <v>43</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
@@ -4295,7 +4307,7 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" s="1">
         <v>14</v>
@@ -4340,7 +4352,7 @@
         <v>227</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X37" s="2">
         <v>7.13</v>
@@ -4370,7 +4382,7 @@
         <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
@@ -4382,7 +4394,7 @@
         <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38" s="1">
         <v>17</v>
@@ -4427,7 +4439,7 @@
         <v>227</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X38" s="2">
         <v>7.13</v>
@@ -4457,7 +4469,7 @@
         <v>43</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>40</v>
@@ -4469,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39" s="1">
         <v>18</v>
@@ -4513,7 +4525,7 @@
         <v>227</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X39" s="2">
         <v>7.13</v>
@@ -4543,7 +4555,7 @@
         <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>40</v>
@@ -4555,7 +4567,7 @@
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40" s="1">
         <v>16</v>
@@ -4600,7 +4612,7 @@
         <v>227</v>
       </c>
       <c r="W40" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X40" s="2">
         <v>7.13</v>
@@ -4624,13 +4636,13 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>40</v>
@@ -4642,7 +4654,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41" s="1">
         <v>12</v>
@@ -4687,7 +4699,7 @@
         <v>178</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X41" s="1">
         <v>9</v>
@@ -4711,13 +4723,13 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>40</v>
@@ -4729,7 +4741,7 @@
         <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42" s="1">
         <v>13</v>
@@ -4774,7 +4786,7 @@
         <v>178</v>
       </c>
       <c r="W42" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X42" s="1">
         <v>9</v>
@@ -4798,13 +4810,13 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>40</v>
@@ -4816,7 +4828,7 @@
         <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K43" s="1">
         <v>9</v>
@@ -4861,7 +4873,7 @@
         <v>178</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X43" s="1">
         <v>9</v>
@@ -4885,13 +4897,13 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>40</v>
@@ -4903,7 +4915,7 @@
         <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44" s="1">
         <v>14</v>
@@ -4948,7 +4960,7 @@
         <v>178</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X44" s="1">
         <v>9</v>
@@ -4972,13 +4984,13 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>40</v>
@@ -4990,7 +5002,7 @@
         <v>30</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
@@ -5027,7 +5039,7 @@
         <v>178</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X45" s="1">
         <v>9</v>
@@ -5053,13 +5065,13 @@
         <v>9962690</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>34</v>
@@ -5116,7 +5128,7 @@
         <v>226.67</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X46" s="1">
         <v>19.71</v>
@@ -5142,13 +5154,13 @@
         <v>9962690</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>34</v>
@@ -5205,7 +5217,7 @@
         <v>226.67</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X47" s="1">
         <v>19.71</v>
@@ -5231,13 +5243,13 @@
         <v>9962690</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>34</v>
@@ -5294,7 +5306,7 @@
         <v>226.67</v>
       </c>
       <c r="W48" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X48" s="1">
         <v>19.71</v>
@@ -5320,13 +5332,13 @@
         <v>9962690</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>34</v>
@@ -5383,7 +5395,7 @@
         <v>226.67</v>
       </c>
       <c r="W49" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X49" s="1">
         <v>19.71</v>
@@ -5407,13 +5419,13 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>34</v>
@@ -5470,7 +5482,7 @@
         <v>58.666666666666664</v>
       </c>
       <c r="W50" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="X50" s="14">
         <v>8.7833333333333332</v>
@@ -5494,13 +5506,13 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>34</v>
@@ -5557,7 +5569,7 @@
         <v>58.666666666666664</v>
       </c>
       <c r="W51" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="X51" s="14">
         <v>8.7833333333333332</v>
@@ -5581,13 +5593,13 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>34</v>
@@ -5644,7 +5656,7 @@
         <v>58.666666666666664</v>
       </c>
       <c r="W52" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="X52" s="14">
         <v>8.7833333333333332</v>
@@ -5668,13 +5680,13 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>34</v>
@@ -5731,7 +5743,7 @@
         <v>58.666666666666664</v>
       </c>
       <c r="W53" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="X53" s="14">
         <v>8.7833333333333332</v>
@@ -5755,13 +5767,13 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>34</v>
@@ -5818,7 +5830,7 @@
         <v>328.66666666666669</v>
       </c>
       <c r="W54" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X54" s="14">
         <v>9.15</v>
@@ -5842,13 +5854,13 @@
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>34</v>
@@ -5905,7 +5917,7 @@
         <v>328.66666666666669</v>
       </c>
       <c r="W55" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X55" s="14">
         <v>9.15</v>
@@ -5929,13 +5941,13 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>34</v>
@@ -5992,7 +6004,7 @@
         <v>328.66666666666669</v>
       </c>
       <c r="W56" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X56" s="14">
         <v>9.15</v>
@@ -6016,13 +6028,13 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>34</v>
@@ -6079,7 +6091,7 @@
         <v>328.66666666666669</v>
       </c>
       <c r="W57" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X57" s="14">
         <v>9.15</v>
@@ -6103,13 +6115,13 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>34</v>
@@ -6121,7 +6133,7 @@
         <v>42</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K58" s="1">
         <v>14</v>
@@ -6166,7 +6178,7 @@
         <v>120.66666666666667</v>
       </c>
       <c r="W58" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="X58" s="14">
         <v>10.846666666666666</v>
@@ -6190,13 +6202,13 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>34</v>
@@ -6208,7 +6220,7 @@
         <v>42</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K59" s="1">
         <v>16</v>
@@ -6253,7 +6265,7 @@
         <v>120.66666666666667</v>
       </c>
       <c r="W59" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="X59" s="14">
         <v>10.846666666666666</v>
@@ -6277,13 +6289,13 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>34</v>
@@ -6295,7 +6307,7 @@
         <v>42</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K60" s="1">
         <v>18</v>
@@ -6340,7 +6352,7 @@
         <v>120.66666666666667</v>
       </c>
       <c r="W60" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="X60" s="14">
         <v>10.846666666666666</v>
@@ -6364,13 +6376,13 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>34</v>
@@ -6382,7 +6394,7 @@
         <v>42</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K61" s="1">
         <v>16</v>
@@ -6427,7 +6439,7 @@
         <v>120.66666666666667</v>
       </c>
       <c r="W61" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="X61" s="14">
         <v>10.846666666666666</v>
@@ -6453,13 +6465,13 @@
         <v>9962830</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>34</v>
@@ -6471,7 +6483,7 @@
         <v>42</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K62" s="1">
         <v>14</v>
@@ -6516,7 +6528,7 @@
         <v>193.33333333333334</v>
       </c>
       <c r="W62" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X62" s="14">
         <v>18.256666666666668</v>
@@ -6542,13 +6554,13 @@
         <v>9962830</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>34</v>
@@ -6560,7 +6572,7 @@
         <v>42</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K63" s="1">
         <v>14</v>
@@ -6605,7 +6617,7 @@
         <v>193.33333333333334</v>
       </c>
       <c r="W63" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X63" s="14">
         <v>18.256666666666668</v>
@@ -6631,13 +6643,13 @@
         <v>9962830</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>34</v>
@@ -6649,7 +6661,7 @@
         <v>42</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K64" s="1">
         <v>16</v>
@@ -6694,7 +6706,7 @@
         <v>193.33333333333334</v>
       </c>
       <c r="W64" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X64" s="14">
         <v>18.256666666666668</v>
@@ -6720,13 +6732,13 @@
         <v>9962830</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>34</v>
@@ -6738,7 +6750,7 @@
         <v>42</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K65" s="1">
         <v>15</v>
@@ -6783,7 +6795,7 @@
         <v>193.33333333333334</v>
       </c>
       <c r="W65" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X65" s="14">
         <v>18.256666666666668</v>
@@ -6809,13 +6821,13 @@
         <v>1062290</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>34</v>
@@ -6827,7 +6839,7 @@
         <v>42</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K66" s="1">
         <v>16</v>
@@ -6872,7 +6884,7 @@
         <v>215.66666666666666</v>
       </c>
       <c r="W66" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X66" s="14">
         <v>22.66333333333333</v>
@@ -6898,13 +6910,13 @@
         <v>1062290</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>34</v>
@@ -6916,7 +6928,7 @@
         <v>42</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K67" s="1">
         <v>17</v>
@@ -6961,7 +6973,7 @@
         <v>215.66666666666666</v>
       </c>
       <c r="W67" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X67" s="14">
         <v>22.66333333333333</v>
@@ -6987,13 +6999,13 @@
         <v>1062290</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>34</v>
@@ -7005,7 +7017,7 @@
         <v>42</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K68" s="1">
         <v>15</v>
@@ -7050,7 +7062,7 @@
         <v>215.66666666666666</v>
       </c>
       <c r="W68" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X68" s="14">
         <v>22.66333333333333</v>
@@ -7076,13 +7088,13 @@
         <v>1062290</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>34</v>
@@ -7094,7 +7106,7 @@
         <v>42</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K69" s="1">
         <v>16</v>
@@ -7139,7 +7151,7 @@
         <v>215.66666666666666</v>
       </c>
       <c r="W69" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X69" s="14">
         <v>22.66333333333333</v>
@@ -7165,13 +7177,13 @@
         <v>1063630</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>34</v>
@@ -7183,7 +7195,7 @@
         <v>36</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K70" s="1">
         <v>17</v>
@@ -7242,13 +7254,13 @@
         <v>1063630</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>34</v>
@@ -7260,7 +7272,7 @@
         <v>36</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K71" s="1">
         <v>18</v>
@@ -7319,13 +7331,13 @@
         <v>1063630</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>34</v>
@@ -7337,7 +7349,7 @@
         <v>36</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K72" s="1">
         <v>17</v>
@@ -7396,13 +7408,13 @@
         <v>1063630</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>34</v>
@@ -7414,7 +7426,7 @@
         <v>36</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K73" s="1">
         <v>16</v>
@@ -7471,13 +7483,13 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>34</v>
@@ -7532,7 +7544,7 @@
         <v>627.33333333333337</v>
       </c>
       <c r="W74" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="X74" s="14">
         <v>15.870000000000003</v>
@@ -7556,13 +7568,13 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>34</v>
@@ -7617,7 +7629,7 @@
         <v>627.33333333333337</v>
       </c>
       <c r="W75" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="X75" s="14">
         <v>15.870000000000003</v>
@@ -7641,13 +7653,13 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>34</v>
@@ -7702,7 +7714,7 @@
         <v>627.33333333333337</v>
       </c>
       <c r="W76" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="X76" s="14">
         <v>15.870000000000003</v>
@@ -7726,13 +7738,13 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>34</v>
@@ -7787,7 +7799,7 @@
         <v>627.33333333333337</v>
       </c>
       <c r="W77" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="X77" s="14">
         <v>15.870000000000003</v>
@@ -7811,13 +7823,13 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>34</v>
@@ -7884,13 +7896,13 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>34</v>
@@ -7957,13 +7969,13 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>34</v>
@@ -8030,13 +8042,13 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>34</v>
@@ -8103,10 +8115,10 @@
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>117</v>
@@ -8176,10 +8188,10 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>117</v>
@@ -8249,10 +8261,10 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>117</v>
@@ -8314,10 +8326,10 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>117</v>
@@ -8387,10 +8399,10 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>118</v>
@@ -8405,7 +8417,7 @@
         <v>42</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K86" s="1">
         <v>17</v>
@@ -8460,10 +8472,10 @@
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>118</v>
@@ -8478,9 +8490,11 @@
         <v>42</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K87" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="K87" s="1">
+        <v>16</v>
+      </c>
       <c r="L87" s="1">
         <v>308</v>
       </c>
@@ -8488,23 +8502,27 @@
         <f t="shared" si="69"/>
         <v>1.5247524752475248</v>
       </c>
-      <c r="N87" s="1"/>
+      <c r="N87" s="1">
+        <v>61</v>
+      </c>
       <c r="O87" s="5">
         <f t="shared" si="70"/>
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="P87" s="4">
         <f t="shared" si="71"/>
-        <v>202</v>
-      </c>
-      <c r="Q87" s="1"/>
+        <v>161.99350649350649</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>405</v>
+      </c>
       <c r="R87" s="4">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2.5001002124503948</v>
       </c>
       <c r="S87" s="4">
         <f t="shared" si="73"/>
-        <v>-1.5247524752475248</v>
+        <v>0.97534773720287005</v>
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="5">
@@ -8527,10 +8545,10 @@
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>118</v>
@@ -8545,31 +8563,39 @@
         <v>42</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="K88" s="1">
+        <v>17</v>
+      </c>
+      <c r="L88" s="1">
+        <v>310</v>
+      </c>
       <c r="M88" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="1"/>
+        <v>1.5346534653465347</v>
+      </c>
+      <c r="N88" s="1">
+        <v>123</v>
+      </c>
       <c r="O88" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="4" t="str">
+        <v>187</v>
+      </c>
+      <c r="P88" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="4" t="str">
+        <v>121.8516129032258</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>330</v>
+      </c>
+      <c r="R88" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S88" s="4" t="str">
+        <v>2.7082119976703556</v>
+      </c>
+      <c r="S88" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.1735585323238209</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="5">
@@ -8592,10 +8618,10 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>118</v>
@@ -8610,31 +8636,33 @@
         <v>42</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
+      <c r="L89" s="1">
+        <v>308</v>
+      </c>
       <c r="M89" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1.5247524752475248</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="4" t="str">
+        <v>308</v>
+      </c>
+      <c r="P89" s="4">
         <f t="shared" si="71"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q89" s="1"/>
-      <c r="R89" s="4" t="str">
+      <c r="R89" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S89" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S89" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>-1.5247524752475248</v>
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="5">
@@ -8657,13 +8685,13 @@
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>34</v>
@@ -8722,13 +8750,13 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>34</v>
@@ -8787,13 +8815,13 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>34</v>
@@ -8852,13 +8880,13 @@
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>34</v>
@@ -8917,13 +8945,13 @@
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>34</v>
@@ -8935,7 +8963,7 @@
         <v>42</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -8982,13 +9010,13 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>34</v>
@@ -9000,7 +9028,7 @@
         <v>42</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -9047,13 +9075,13 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>34</v>
@@ -9065,7 +9093,7 @@
         <v>42</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -9112,13 +9140,13 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>34</v>
@@ -9130,7 +9158,7 @@
         <v>42</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -9177,13 +9205,13 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>34</v>
@@ -9195,7 +9223,7 @@
         <v>42</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -9242,13 +9270,13 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>34</v>
@@ -9260,7 +9288,7 @@
         <v>42</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -9307,13 +9335,13 @@
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>34</v>
@@ -9325,7 +9353,7 @@
         <v>42</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -9372,13 +9400,13 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>34</v>
@@ -9390,7 +9418,7 @@
         <v>42</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -9437,13 +9465,13 @@
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>34</v>
@@ -9455,7 +9483,7 @@
         <v>35</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -9502,13 +9530,13 @@
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>34</v>
@@ -9520,7 +9548,7 @@
         <v>35</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -9567,13 +9595,13 @@
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>34</v>
@@ -9585,7 +9613,7 @@
         <v>35</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -9632,13 +9660,13 @@
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>34</v>
@@ -9650,7 +9678,7 @@
         <v>35</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -9697,13 +9725,13 @@
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>34</v>
@@ -9715,7 +9743,7 @@
         <v>42</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -9762,13 +9790,13 @@
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>34</v>
@@ -9780,7 +9808,7 @@
         <v>42</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -9827,13 +9855,13 @@
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>34</v>
@@ -9845,7 +9873,7 @@
         <v>42</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -9892,13 +9920,13 @@
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>34</v>
@@ -9910,7 +9938,7 @@
         <v>42</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C4249-FA5E-4289-88A2-DD78731C2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7191AF-0886-420A-8BB5-06BC6DE81AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,10 +1313,10 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q89" sqref="Q89"/>
+      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8638,7 +8638,9 @@
       <c r="J89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K89" s="1"/>
+      <c r="K89" s="1">
+        <v>14</v>
+      </c>
       <c r="L89" s="1">
         <v>308</v>
       </c>
@@ -8646,23 +8648,27 @@
         <f t="shared" si="69"/>
         <v>1.5247524752475248</v>
       </c>
-      <c r="N89" s="1"/>
+      <c r="N89" s="1">
+        <v>74</v>
+      </c>
       <c r="O89" s="5">
         <f t="shared" si="70"/>
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="P89" s="4">
         <f t="shared" si="71"/>
-        <v>202</v>
-      </c>
-      <c r="Q89" s="1"/>
+        <v>153.46753246753246</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>398</v>
+      </c>
       <c r="R89" s="4">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2.5933824151645934</v>
       </c>
       <c r="S89" s="4">
         <f t="shared" si="73"/>
-        <v>-1.5247524752475248</v>
+        <v>1.0686299399170687</v>
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="5">
@@ -8705,29 +8711,37 @@
       <c r="J90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="K90" s="1">
+        <v>11</v>
+      </c>
+      <c r="L90" s="1">
+        <v>315</v>
+      </c>
       <c r="M90" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="1"/>
+        <v>1.5594059405940595</v>
+      </c>
+      <c r="N90" s="1">
+        <v>170</v>
+      </c>
       <c r="O90" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="4" t="str">
+        <v>145</v>
+      </c>
+      <c r="P90" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="4" t="str">
+        <v>92.984126984126988</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>295</v>
+      </c>
+      <c r="R90" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S90" s="4" t="str">
+        <v>3.1725844998292931</v>
+      </c>
+      <c r="S90" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.6131785592352337</v>
       </c>
       <c r="T90" s="1"/>
       <c r="U90" s="5">
@@ -8770,29 +8784,37 @@
       <c r="J91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="K91" s="1">
+        <v>15</v>
+      </c>
+      <c r="L91" s="1">
+        <v>311</v>
+      </c>
       <c r="M91" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="1"/>
+        <v>1.5396039603960396</v>
+      </c>
+      <c r="N91" s="1">
+        <v>37</v>
+      </c>
       <c r="O91" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="4" t="str">
+        <v>274</v>
+      </c>
+      <c r="P91" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="4" t="str">
+        <v>177.96784565916397</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>476</v>
+      </c>
+      <c r="R91" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S91" s="4" t="str">
+        <v>2.6746404567464048</v>
+      </c>
+      <c r="S91" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.1350364963503652</v>
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="5">
@@ -8835,29 +8857,37 @@
       <c r="J92" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="K92" s="1">
+        <v>18</v>
+      </c>
+      <c r="L92" s="1">
+        <v>319</v>
+      </c>
       <c r="M92" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="1"/>
+        <v>1.5792079207920793</v>
+      </c>
+      <c r="N92" s="1">
+        <v>54</v>
+      </c>
       <c r="O92" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="4" t="str">
+        <v>265</v>
+      </c>
+      <c r="P92" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="4" t="str">
+        <v>167.80564263322884</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>439</v>
+      </c>
+      <c r="R92" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S92" s="4" t="str">
+        <v>2.616121800859331</v>
+      </c>
+      <c r="S92" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.0369138800672517</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="5">
@@ -8900,29 +8930,37 @@
       <c r="J93" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="K93" s="1">
+        <v>14</v>
+      </c>
+      <c r="L93" s="1">
+        <v>312</v>
+      </c>
       <c r="M93" s="4">
         <f t="shared" ref="M93:M111" si="75">L93/(H93+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N93" s="1"/>
+        <v>1.5445544554455446</v>
+      </c>
+      <c r="N93" s="1">
+        <v>56</v>
+      </c>
       <c r="O93" s="5">
         <f t="shared" ref="O93:O111" si="76">L93-N93</f>
-        <v>0</v>
-      </c>
-      <c r="P93" s="4" t="str">
+        <v>256</v>
+      </c>
+      <c r="P93" s="4">
         <f t="shared" ref="P93:P111" si="77">IFERROR(O93/M93,"")</f>
-        <v/>
-      </c>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="4" t="str">
+        <v>165.74358974358975</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>429</v>
+      </c>
+      <c r="R93" s="4">
         <f t="shared" ref="R93:R111" si="78">IFERROR(Q93/P93,"")</f>
-        <v/>
-      </c>
-      <c r="S93" s="4" t="str">
+        <v>2.5883353960396041</v>
+      </c>
+      <c r="S93" s="4">
         <f t="shared" ref="S93:S111" si="79">IFERROR(R93-M93,"")</f>
-        <v/>
+        <v>1.0437809405940595</v>
       </c>
       <c r="T93" s="1"/>
       <c r="U93" s="5">
@@ -8965,29 +9003,37 @@
       <c r="J94" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="K94" s="1">
+        <v>15</v>
+      </c>
+      <c r="L94" s="1">
+        <v>239</v>
+      </c>
       <c r="M94" s="4">
         <f t="shared" si="75"/>
+        <v>1.1831683168316831</v>
+      </c>
+      <c r="N94" s="1">
         <v>0</v>
       </c>
-      <c r="N94" s="1"/>
       <c r="O94" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="P94" s="4" t="str">
+        <v>239</v>
+      </c>
+      <c r="P94" s="4">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="4" t="str">
+        <v>202</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>375</v>
+      </c>
+      <c r="R94" s="4">
         <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="S94" s="4" t="str">
+        <v>1.8564356435643565</v>
+      </c>
+      <c r="S94" s="4">
         <f t="shared" si="79"/>
-        <v/>
+        <v>0.67326732673267342</v>
       </c>
       <c r="T94" s="1"/>
       <c r="U94" s="5">
@@ -9030,29 +9076,37 @@
       <c r="J95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
+      <c r="K95" s="1">
+        <v>14</v>
+      </c>
+      <c r="L95" s="1">
+        <v>240</v>
+      </c>
       <c r="M95" s="4">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="1"/>
+        <v>1.1881188118811881</v>
+      </c>
+      <c r="N95" s="1">
+        <v>35</v>
+      </c>
       <c r="O95" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="P95" s="4" t="str">
+        <v>205</v>
+      </c>
+      <c r="P95" s="4">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="4" t="str">
+        <v>172.54166666666669</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>337</v>
+      </c>
+      <c r="R95" s="4">
         <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="S95" s="4" t="str">
+        <v>1.9531514127022456</v>
+      </c>
+      <c r="S95" s="4">
         <f t="shared" si="79"/>
-        <v/>
+        <v>0.76503260082105751</v>
       </c>
       <c r="T95" s="1"/>
       <c r="U95" s="5">
@@ -9095,29 +9149,37 @@
       <c r="J96" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
+      <c r="K96" s="1">
+        <v>10</v>
+      </c>
+      <c r="L96" s="1">
+        <v>239</v>
+      </c>
       <c r="M96" s="4">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="1"/>
+        <v>1.1831683168316831</v>
+      </c>
+      <c r="N96" s="1">
+        <v>68</v>
+      </c>
       <c r="O96" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="P96" s="4" t="str">
+        <v>171</v>
+      </c>
+      <c r="P96" s="4">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="4" t="str">
+        <v>144.52719665271968</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>278</v>
+      </c>
+      <c r="R96" s="4">
         <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="S96" s="4" t="str">
+        <v>1.9235134039719759</v>
+      </c>
+      <c r="S96" s="4">
         <f t="shared" si="79"/>
-        <v/>
+        <v>0.74034508714029279</v>
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="5">
@@ -9161,28 +9223,30 @@
         <v>99</v>
       </c>
       <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="L97" s="1">
+        <v>240</v>
+      </c>
       <c r="M97" s="4">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.1881188118811881</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="5">
         <f t="shared" si="76"/>
+        <v>240</v>
+      </c>
+      <c r="P97" s="4">
+        <f t="shared" si="77"/>
+        <v>202</v>
+      </c>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="4">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="P97" s="4" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="4" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="S97" s="4" t="str">
+      <c r="S97" s="4">
         <f t="shared" si="79"/>
-        <v/>
+        <v>-1.1881188118811881</v>
       </c>
       <c r="T97" s="1"/>
       <c r="U97" s="5">
